--- a/I2C27SEG2.xlsx
+++ b/I2C27SEG2.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cxwao\Documents\GitHub2\GreenPAK_I2C27SEG2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DFACD3-141F-4F1C-9BB8-353B9309C5A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09A1086-44F6-4761-A072-F320DC3F7BF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="510" windowWidth="23565" windowHeight="15690" tabRatio="634" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="900" windowWidth="23565" windowHeight="15075" tabRatio="634" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5621AS" sheetId="7" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="15" r:id="rId2"/>
-    <sheet name="7seg decode" sheetId="12" r:id="rId3"/>
+    <sheet name="register" sheetId="17" r:id="rId2"/>
+    <sheet name="音階" sheetId="15" r:id="rId3"/>
+    <sheet name="7seg decode" sheetId="12" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="335">
   <si>
     <t>VDD</t>
     <phoneticPr fontId="1"/>
@@ -205,10 +206,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0:I. 1:O</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1:ON</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -217,14 +214,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INTRESET_TRIG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SPKON</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -234,18 +223,6 @@
   </si>
   <si>
     <t>INOUT2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OUT1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OUT2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INOUT3</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -970,7 +947,221 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SLG46826G</t>
+    <t>OUT3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OUT4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INTRST_TGL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:pulldown/input, 1:1/output</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:0/output, 1:pullup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:INT mode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0→1 or 1→0 INT flag reset</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PU100kΩ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PD10kΩ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R/W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Definition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x92</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reserve</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[7:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x7A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[3:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x75</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>--</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[7:6]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[5]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[6]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[7]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Interrupt flag mode select
+1:Interrupt flag mode , 1:OUT3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Speaker mode select
+1:Speaker ON, 0:OUT4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPIO control
+[4]:OUT4 0:output Low, 1:output &amp; Pull-up
+[3]:OUT3 0:output Low, 1:output &amp; Pull-up
+[2]:INOUT2 0:input &amp; Pull-down, 1:output High
+[1]:INOUT1 0:input &amp; Pull-down, 1:output High
+[0]:INOUT1 0:input &amp; Pull-down, 1:output High</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Interrupt flag reset
+0→1 or 1→0 toggle for reset</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x74</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reserve</t>
+  </si>
+  <si>
+    <t>INOUT1 input value 0:Low, 1: High</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INOUT0 input value 0:Low, 1: High</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[5:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INOUT2 input value 0:Low, 1: High</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[4:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x93</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Speaker frequency data
+data[15:8]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x37</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x7C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Speaker frequency data. Default:440Hz
+data = 25,000,000/2/frequency[Hz]-1
+data[7:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0xA5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0xA6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7segment data for digit2
+[7]:A
+[6]:B
+[5]:C
+[4]:D
+[3]:E
+[2]:F
+[1]:G
+[0]:D.P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7segment data for digit1
+[7]:A
+[6]:B
+[5]:C
+[4]:D
+[3]:E
+[2]:F
+[1]:G
+[0]:D.P</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -979,8 +1170,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1072,7 +1263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1223,13 +1414,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1263,9 +1469,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1293,19 +1496,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1335,19 +1526,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1356,25 +1547,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1388,6 +1561,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1966,8 +2187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1980,6 +2201,7 @@
     <col min="7" max="7" width="3.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.5" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="8.625" bestFit="1" customWidth="1"/>
@@ -1990,20 +2212,16 @@
     <col min="21" max="21" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B2" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q2" s="4"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B2" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="5">
@@ -2011,7 +2229,7 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>48</v>
+        <v>295</v>
       </c>
       <c r="G3" s="5">
         <v>20</v>
@@ -2019,335 +2237,193 @@
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="5">
-        <v>20</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" s="45" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="I3" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="G4" s="2">
         <v>19</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="2">
-        <v>19</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="G5" s="2">
         <v>18</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="2">
-        <v>18</v>
-      </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="R5" s="30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="35" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="G6" s="2">
         <v>17</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="2">
-        <v>17</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="R6" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="I6" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="G7" s="2">
         <v>16</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="2">
-        <v>16</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="R7" s="30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="I7" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2">
         <v>6</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="G8" s="2">
         <v>15</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="2">
-        <v>15</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="R8" s="30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2">
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>295</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
         <v>14</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="I9" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P9" s="2">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="2">
         <v>8</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>295</v>
+      </c>
       <c r="G10" s="2">
         <v>13</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="2">
-        <v>13</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="R10" s="42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B11" s="22" t="s">
+      <c r="I10" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="2">
@@ -2360,40 +2436,18 @@
       <c r="G11" s="2">
         <v>12</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="2">
-        <v>12</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="2">
-        <v>9</v>
-      </c>
-      <c r="Q11" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="R11" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="I11" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="6">
@@ -2406,37 +2460,15 @@
       <c r="G12" s="6">
         <v>11</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="6">
-        <v>11</v>
-      </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P12" s="6">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="R12" s="48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B14" s="16"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="15"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.15">
       <c r="Q18" s="4"/>
@@ -2448,82 +2480,91 @@
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="J26">
+      <c r="I26">
         <v>7</v>
       </c>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
       <c r="K26" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="J27" t="s">
+        <v>289</v>
+      </c>
+      <c r="K27" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="J27">
-        <v>6</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="K28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29" t="s">
+        <v>288</v>
+      </c>
+      <c r="K29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30" t="s">
+        <v>287</v>
+      </c>
+      <c r="K30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
         <v>52</v>
       </c>
-      <c r="L27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="J28">
-        <v>5</v>
-      </c>
-      <c r="K28" t="s">
-        <v>54</v>
-      </c>
-      <c r="L28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="J29">
-        <v>4</v>
-      </c>
-      <c r="K29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="J30">
-        <v>3</v>
-      </c>
-      <c r="K30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="J31">
-        <v>2</v>
-      </c>
-      <c r="K31" t="s">
-        <v>59</v>
-      </c>
-      <c r="L31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="J32">
-        <v>1</v>
-      </c>
       <c r="K32" t="s">
-        <v>56</v>
-      </c>
-      <c r="L32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="10:12" x14ac:dyDescent="0.15">
-      <c r="J33">
-        <v>0</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.15">
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>55</v>
       </c>
       <c r="K33" t="s">
-        <v>55</v>
-      </c>
-      <c r="L33" t="s">
-        <v>49</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2535,58 +2576,291 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2BAE2D-83DF-4F5D-95C8-E4EA3135B38D}">
+  <dimension ref="B2:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B2" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="49" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B6" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B7" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>310</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="17"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="17"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="17"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="18"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42459F4-5C37-42F5-87BF-A74B1C5EC3C6}">
   <dimension ref="B2:F117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="33" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E2" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="F2" s="37">
+      <c r="E2" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" s="32">
         <f>25000000/2</f>
         <v>12500000</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>240</v>
+        <v>233</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="30">
         <f t="shared" ref="C4:C50" si="0">C5/2^(1/12)</f>
         <v>27.499999999999936</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="39">
+        <v>58</v>
+      </c>
+      <c r="F4" s="34">
         <f>FLOOR($F$2/2/C4+0.5,1)-1</f>
         <v>227272</v>
       </c>
@@ -2595,17 +2869,17 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="30">
         <f t="shared" si="0"/>
         <v>29.135235094880553</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="39">
+        <v>60</v>
+      </c>
+      <c r="F5" s="34">
         <f t="shared" ref="F5:F68" si="1">FLOOR($F$2/2/C5+0.5,1)-1</f>
         <v>214516</v>
       </c>
@@ -2614,17 +2888,17 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="30">
         <f t="shared" si="0"/>
         <v>30.867706328507687</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="39">
+        <v>62</v>
+      </c>
+      <c r="F6" s="34">
         <f t="shared" si="1"/>
         <v>202476</v>
       </c>
@@ -2633,17 +2907,17 @@
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="30">
         <f t="shared" si="0"/>
         <v>32.703195662574757</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="39">
+        <v>64</v>
+      </c>
+      <c r="F7" s="34">
         <f t="shared" si="1"/>
         <v>191112</v>
       </c>
@@ -2652,17 +2926,17 @@
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="30">
         <f t="shared" si="0"/>
         <v>34.647828872108938</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="39">
+        <v>66</v>
+      </c>
+      <c r="F8" s="34">
         <f t="shared" si="1"/>
         <v>180385</v>
       </c>
@@ -2671,17 +2945,17 @@
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="30">
         <f t="shared" si="0"/>
         <v>36.708095989675869</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="39">
+        <v>68</v>
+      </c>
+      <c r="F9" s="34">
         <f t="shared" si="1"/>
         <v>170261</v>
       </c>
@@ -2690,17 +2964,17 @@
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="30">
         <f t="shared" si="0"/>
         <v>38.890872965260037</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="39">
+        <v>70</v>
+      </c>
+      <c r="F10" s="34">
         <f t="shared" si="1"/>
         <v>160705</v>
       </c>
@@ -2709,17 +2983,17 @@
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="30">
         <f t="shared" si="0"/>
         <v>41.203444614108662</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="39">
+        <v>72</v>
+      </c>
+      <c r="F11" s="34">
         <f t="shared" si="1"/>
         <v>151685</v>
       </c>
@@ -2728,17 +3002,17 @@
       <c r="B12">
         <v>9</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="30">
         <f t="shared" si="0"/>
         <v>43.6535289291254</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="39">
+        <v>74</v>
+      </c>
+      <c r="F12" s="34">
         <f t="shared" si="1"/>
         <v>143172</v>
       </c>
@@ -2747,17 +3021,17 @@
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="30">
         <f t="shared" si="0"/>
         <v>46.249302838954215</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="39">
+        <v>76</v>
+      </c>
+      <c r="F13" s="34">
         <f t="shared" si="1"/>
         <v>135136</v>
       </c>
@@ -2766,17 +3040,17 @@
       <c r="B14">
         <v>11</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="30">
         <f t="shared" si="0"/>
         <v>48.999429497718573</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="39">
+        <v>78</v>
+      </c>
+      <c r="F14" s="34">
         <f t="shared" si="1"/>
         <v>127552</v>
       </c>
@@ -2785,17 +3059,17 @@
       <c r="B15">
         <v>12</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="30">
         <f t="shared" si="0"/>
         <v>51.913087197493049</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="39">
+        <v>80</v>
+      </c>
+      <c r="F15" s="34">
         <f t="shared" si="1"/>
         <v>120393</v>
       </c>
@@ -2804,17 +3078,17 @@
       <c r="B16">
         <v>13</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="30">
         <f t="shared" si="0"/>
         <v>54.999999999999901</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="39">
+        <v>82</v>
+      </c>
+      <c r="F16" s="34">
         <f t="shared" si="1"/>
         <v>113635</v>
       </c>
@@ -2823,17 +3097,17 @@
       <c r="B17">
         <v>14</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="30">
         <f t="shared" si="0"/>
         <v>58.270470189761134</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="39">
+        <v>84</v>
+      </c>
+      <c r="F17" s="34">
         <f t="shared" si="1"/>
         <v>107257</v>
       </c>
@@ -2842,17 +3116,17 @@
       <c r="B18">
         <v>15</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="30">
         <f t="shared" si="0"/>
         <v>61.735412657015402</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="39">
+        <v>86</v>
+      </c>
+      <c r="F18" s="34">
         <f t="shared" si="1"/>
         <v>101237</v>
       </c>
@@ -2861,17 +3135,17 @@
       <c r="B19">
         <v>16</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="30">
         <f t="shared" si="0"/>
         <v>65.406391325149542</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="39">
+        <v>88</v>
+      </c>
+      <c r="F19" s="34">
         <f t="shared" si="1"/>
         <v>95555</v>
       </c>
@@ -2880,17 +3154,17 @@
       <c r="B20">
         <v>17</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="30">
         <f t="shared" si="0"/>
         <v>69.295657744217905</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="39">
+        <v>90</v>
+      </c>
+      <c r="F20" s="34">
         <f t="shared" si="1"/>
         <v>90192</v>
       </c>
@@ -2899,17 +3173,17 @@
       <c r="B21">
         <v>18</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="30">
         <f t="shared" si="0"/>
         <v>73.416191979351765</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="39">
+        <v>92</v>
+      </c>
+      <c r="F21" s="34">
         <f t="shared" si="1"/>
         <v>85130</v>
       </c>
@@ -2918,17 +3192,17 @@
       <c r="B22">
         <v>19</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="30">
         <f t="shared" si="0"/>
         <v>77.781745930520103</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="39">
+        <v>94</v>
+      </c>
+      <c r="F22" s="34">
         <f t="shared" si="1"/>
         <v>80352</v>
       </c>
@@ -2937,17 +3211,17 @@
       <c r="B23">
         <v>20</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="30">
         <f t="shared" si="0"/>
         <v>82.406889228217352</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="39">
+        <v>96</v>
+      </c>
+      <c r="F23" s="34">
         <f t="shared" si="1"/>
         <v>75842</v>
       </c>
@@ -2956,17 +3230,17 @@
       <c r="B24">
         <v>21</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="30">
         <f t="shared" si="0"/>
         <v>87.307057858250843</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="39">
+        <v>98</v>
+      </c>
+      <c r="F24" s="34">
         <f t="shared" si="1"/>
         <v>71585</v>
       </c>
@@ -2975,17 +3249,17 @@
       <c r="B25">
         <v>22</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="30">
         <f t="shared" si="0"/>
         <v>92.498605677908472</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="39">
+        <v>100</v>
+      </c>
+      <c r="F25" s="34">
         <f t="shared" si="1"/>
         <v>67568</v>
       </c>
@@ -2994,17 +3268,17 @@
       <c r="B26">
         <v>23</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="30">
         <f t="shared" si="0"/>
         <v>97.998858995437189</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
-      </c>
-      <c r="F26" s="39">
+        <v>102</v>
+      </c>
+      <c r="F26" s="34">
         <f t="shared" si="1"/>
         <v>63775</v>
       </c>
@@ -3013,17 +3287,17 @@
       <c r="B27">
         <v>24</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="30">
         <f t="shared" si="0"/>
         <v>103.82617439498615</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="39">
+        <v>104</v>
+      </c>
+      <c r="F27" s="34">
         <f t="shared" si="1"/>
         <v>60196</v>
       </c>
@@ -3032,17 +3306,17 @@
       <c r="B28">
         <v>25</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="30">
         <f t="shared" si="0"/>
         <v>109.99999999999987</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="39">
+        <v>106</v>
+      </c>
+      <c r="F28" s="34">
         <f t="shared" si="1"/>
         <v>56817</v>
       </c>
@@ -3051,17 +3325,17 @@
       <c r="B29">
         <v>26</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="30">
         <f t="shared" si="0"/>
         <v>116.54094037952235</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" s="39">
+        <v>108</v>
+      </c>
+      <c r="F29" s="34">
         <f t="shared" si="1"/>
         <v>53628</v>
       </c>
@@ -3070,17 +3344,17 @@
       <c r="B30">
         <v>27</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="30">
         <f t="shared" si="0"/>
         <v>123.4708253140309</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" s="39">
+        <v>110</v>
+      </c>
+      <c r="F30" s="34">
         <f t="shared" si="1"/>
         <v>50618</v>
       </c>
@@ -3089,17 +3363,17 @@
       <c r="B31">
         <v>28</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="30">
         <f t="shared" si="0"/>
         <v>130.8127826502992</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" s="39">
+        <v>112</v>
+      </c>
+      <c r="F31" s="34">
         <f t="shared" si="1"/>
         <v>47777</v>
       </c>
@@ -3108,17 +3382,17 @@
       <c r="B32">
         <v>29</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="30">
         <f t="shared" si="0"/>
         <v>138.59131548843592</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
-      </c>
-      <c r="F32" s="39">
+        <v>114</v>
+      </c>
+      <c r="F32" s="34">
         <f t="shared" si="1"/>
         <v>45096</v>
       </c>
@@ -3127,17 +3401,17 @@
       <c r="B33">
         <v>30</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="30">
         <f t="shared" si="0"/>
         <v>146.83238395870364</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E33" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="39">
+        <v>116</v>
+      </c>
+      <c r="F33" s="34">
         <f t="shared" si="1"/>
         <v>42565</v>
       </c>
@@ -3146,17 +3420,17 @@
       <c r="B34">
         <v>31</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="30">
         <f t="shared" si="0"/>
         <v>155.56349186104032</v>
       </c>
       <c r="D34" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E34" t="s">
-        <v>124</v>
-      </c>
-      <c r="F34" s="39">
+        <v>118</v>
+      </c>
+      <c r="F34" s="34">
         <f t="shared" si="1"/>
         <v>40176</v>
       </c>
@@ -3165,17 +3439,17 @@
       <c r="B35">
         <v>32</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="30">
         <f t="shared" si="0"/>
         <v>164.81377845643482</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E35" t="s">
-        <v>126</v>
-      </c>
-      <c r="F35" s="39">
+        <v>120</v>
+      </c>
+      <c r="F35" s="34">
         <f t="shared" si="1"/>
         <v>37921</v>
       </c>
@@ -3184,17 +3458,17 @@
       <c r="B36">
         <v>33</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C36" s="30">
         <f t="shared" si="0"/>
         <v>174.6141157165018</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
-      </c>
-      <c r="F36" s="39">
+        <v>122</v>
+      </c>
+      <c r="F36" s="34">
         <f t="shared" si="1"/>
         <v>35792</v>
       </c>
@@ -3203,17 +3477,17 @@
       <c r="B37">
         <v>34</v>
       </c>
-      <c r="C37" s="35">
+      <c r="C37" s="30">
         <f t="shared" si="0"/>
         <v>184.99721135581706</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E37" t="s">
-        <v>130</v>
-      </c>
-      <c r="F37" s="39">
+        <v>124</v>
+      </c>
+      <c r="F37" s="34">
         <f t="shared" si="1"/>
         <v>33783</v>
       </c>
@@ -3222,17 +3496,17 @@
       <c r="B38">
         <v>35</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="30">
         <f t="shared" si="0"/>
         <v>195.99771799087449</v>
       </c>
       <c r="D38" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E38" t="s">
-        <v>132</v>
-      </c>
-      <c r="F38" s="39">
+        <v>126</v>
+      </c>
+      <c r="F38" s="34">
         <f t="shared" si="1"/>
         <v>31887</v>
       </c>
@@ -3241,17 +3515,17 @@
       <c r="B39">
         <v>36</v>
       </c>
-      <c r="C39" s="35">
+      <c r="C39" s="30">
         <f t="shared" si="0"/>
         <v>207.65234878997242</v>
       </c>
       <c r="D39" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E39" t="s">
-        <v>134</v>
-      </c>
-      <c r="F39" s="39">
+        <v>128</v>
+      </c>
+      <c r="F39" s="34">
         <f t="shared" si="1"/>
         <v>30097</v>
       </c>
@@ -3260,17 +3534,17 @@
       <c r="B40">
         <v>37</v>
       </c>
-      <c r="C40" s="35">
+      <c r="C40" s="30">
         <f t="shared" si="0"/>
         <v>219.99999999999986</v>
       </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E40" t="s">
-        <v>136</v>
-      </c>
-      <c r="F40" s="39">
+        <v>130</v>
+      </c>
+      <c r="F40" s="34">
         <f t="shared" si="1"/>
         <v>28408</v>
       </c>
@@ -3279,17 +3553,17 @@
       <c r="B41">
         <v>38</v>
       </c>
-      <c r="C41" s="35">
+      <c r="C41" s="30">
         <f t="shared" si="0"/>
         <v>233.08188075904482</v>
       </c>
       <c r="D41" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
-      </c>
-      <c r="F41" s="39">
+        <v>132</v>
+      </c>
+      <c r="F41" s="34">
         <f t="shared" si="1"/>
         <v>26814</v>
       </c>
@@ -3298,17 +3572,17 @@
       <c r="B42">
         <v>39</v>
       </c>
-      <c r="C42" s="35">
+      <c r="C42" s="30">
         <f t="shared" si="0"/>
         <v>246.94165062806192</v>
       </c>
       <c r="D42" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E42" t="s">
-        <v>140</v>
-      </c>
-      <c r="F42" s="39">
+        <v>134</v>
+      </c>
+      <c r="F42" s="34">
         <f t="shared" si="1"/>
         <v>25309</v>
       </c>
@@ -3317,17 +3591,17 @@
       <c r="B43">
         <v>40</v>
       </c>
-      <c r="C43" s="35">
+      <c r="C43" s="30">
         <f t="shared" si="0"/>
         <v>261.62556530059851</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E43" t="s">
-        <v>142</v>
-      </c>
-      <c r="F43" s="39">
+        <v>136</v>
+      </c>
+      <c r="F43" s="34">
         <f t="shared" si="1"/>
         <v>23888</v>
       </c>
@@ -3336,17 +3610,17 @@
       <c r="B44">
         <v>41</v>
       </c>
-      <c r="C44" s="35">
+      <c r="C44" s="30">
         <f t="shared" si="0"/>
         <v>277.18263097687196</v>
       </c>
       <c r="D44" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E44" t="s">
-        <v>144</v>
-      </c>
-      <c r="F44" s="39">
+        <v>138</v>
+      </c>
+      <c r="F44" s="34">
         <f t="shared" si="1"/>
         <v>22547</v>
       </c>
@@ -3355,17 +3629,17 @@
       <c r="B45">
         <v>42</v>
       </c>
-      <c r="C45" s="35">
+      <c r="C45" s="30">
         <f t="shared" si="0"/>
         <v>293.66476791740746</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E45" t="s">
-        <v>146</v>
-      </c>
-      <c r="F45" s="39">
+        <v>140</v>
+      </c>
+      <c r="F45" s="34">
         <f t="shared" si="1"/>
         <v>21282</v>
       </c>
@@ -3374,17 +3648,17 @@
       <c r="B46">
         <v>43</v>
       </c>
-      <c r="C46" s="35">
+      <c r="C46" s="30">
         <f t="shared" si="0"/>
         <v>311.12698372208081</v>
       </c>
       <c r="D46" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E46" t="s">
-        <v>148</v>
-      </c>
-      <c r="F46" s="39">
+        <v>142</v>
+      </c>
+      <c r="F46" s="34">
         <f t="shared" si="1"/>
         <v>20087</v>
       </c>
@@ -3393,17 +3667,17 @@
       <c r="B47">
         <v>44</v>
       </c>
-      <c r="C47" s="35">
+      <c r="C47" s="30">
         <f t="shared" si="0"/>
         <v>329.62755691286986</v>
       </c>
       <c r="D47" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E47" t="s">
-        <v>150</v>
-      </c>
-      <c r="F47" s="39">
+        <v>144</v>
+      </c>
+      <c r="F47" s="34">
         <f t="shared" si="1"/>
         <v>18960</v>
       </c>
@@ -3412,17 +3686,17 @@
       <c r="B48">
         <v>45</v>
       </c>
-      <c r="C48" s="35">
+      <c r="C48" s="30">
         <f t="shared" si="0"/>
         <v>349.22823143300383</v>
       </c>
       <c r="D48" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E48" t="s">
-        <v>152</v>
-      </c>
-      <c r="F48" s="39">
+        <v>146</v>
+      </c>
+      <c r="F48" s="34">
         <f t="shared" si="1"/>
         <v>17896</v>
       </c>
@@ -3431,17 +3705,17 @@
       <c r="B49">
         <v>46</v>
       </c>
-      <c r="C49" s="35">
+      <c r="C49" s="30">
         <f t="shared" si="0"/>
         <v>369.99442271163434</v>
       </c>
       <c r="D49" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E49" t="s">
-        <v>154</v>
-      </c>
-      <c r="F49" s="39">
+        <v>148</v>
+      </c>
+      <c r="F49" s="34">
         <f t="shared" si="1"/>
         <v>16891</v>
       </c>
@@ -3450,17 +3724,17 @@
       <c r="B50">
         <v>47</v>
       </c>
-      <c r="C50" s="35">
+      <c r="C50" s="30">
         <f t="shared" si="0"/>
         <v>391.99543598174927</v>
       </c>
       <c r="D50" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E50" t="s">
-        <v>156</v>
-      </c>
-      <c r="F50" s="39">
+        <v>150</v>
+      </c>
+      <c r="F50" s="34">
         <f t="shared" si="1"/>
         <v>15943</v>
       </c>
@@ -3469,17 +3743,17 @@
       <c r="B51">
         <v>48</v>
       </c>
-      <c r="C51" s="35">
+      <c r="C51" s="30">
         <f>C52/2^(1/12)</f>
         <v>415.30469757994513</v>
       </c>
       <c r="D51" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E51" t="s">
-        <v>158</v>
-      </c>
-      <c r="F51" s="39">
+        <v>152</v>
+      </c>
+      <c r="F51" s="34">
         <f t="shared" si="1"/>
         <v>15048</v>
       </c>
@@ -3488,16 +3762,16 @@
       <c r="B52">
         <v>49</v>
       </c>
-      <c r="C52" s="35">
+      <c r="C52" s="30">
         <v>440</v>
       </c>
       <c r="D52" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E52" t="s">
-        <v>160</v>
-      </c>
-      <c r="F52" s="39">
+        <v>154</v>
+      </c>
+      <c r="F52" s="34">
         <f t="shared" si="1"/>
         <v>14204</v>
       </c>
@@ -3506,17 +3780,17 @@
       <c r="B53">
         <v>50</v>
       </c>
-      <c r="C53" s="35">
+      <c r="C53" s="30">
         <f>C52*2^(1/12)</f>
         <v>466.16376151808993</v>
       </c>
       <c r="D53" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E53" t="s">
-        <v>162</v>
-      </c>
-      <c r="F53" s="39">
+        <v>156</v>
+      </c>
+      <c r="F53" s="34">
         <f t="shared" si="1"/>
         <v>13406</v>
       </c>
@@ -3525,17 +3799,17 @@
       <c r="B54">
         <v>51</v>
       </c>
-      <c r="C54" s="35">
+      <c r="C54" s="30">
         <f t="shared" ref="C54:C91" si="2">C53*2^(1/12)</f>
         <v>493.88330125612413</v>
       </c>
       <c r="D54" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E54" t="s">
-        <v>164</v>
-      </c>
-      <c r="F54" s="39">
+        <v>158</v>
+      </c>
+      <c r="F54" s="34">
         <f t="shared" si="1"/>
         <v>12654</v>
       </c>
@@ -3544,17 +3818,17 @@
       <c r="B55">
         <v>52</v>
       </c>
-      <c r="C55" s="35">
+      <c r="C55" s="30">
         <f t="shared" si="2"/>
         <v>523.25113060119736</v>
       </c>
       <c r="D55" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E55" t="s">
-        <v>166</v>
-      </c>
-      <c r="F55" s="39">
+        <v>160</v>
+      </c>
+      <c r="F55" s="34">
         <f t="shared" si="1"/>
         <v>11944</v>
       </c>
@@ -3563,17 +3837,17 @@
       <c r="B56">
         <v>53</v>
       </c>
-      <c r="C56" s="35">
+      <c r="C56" s="30">
         <f t="shared" si="2"/>
         <v>554.36526195374427</v>
       </c>
       <c r="D56" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E56" t="s">
-        <v>168</v>
-      </c>
-      <c r="F56" s="39">
+        <v>162</v>
+      </c>
+      <c r="F56" s="34">
         <f t="shared" si="1"/>
         <v>11273</v>
       </c>
@@ -3582,17 +3856,17 @@
       <c r="B57">
         <v>54</v>
       </c>
-      <c r="C57" s="35">
+      <c r="C57" s="30">
         <f t="shared" si="2"/>
         <v>587.32953583481526</v>
       </c>
       <c r="D57" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E57" t="s">
-        <v>170</v>
-      </c>
-      <c r="F57" s="39">
+        <v>164</v>
+      </c>
+      <c r="F57" s="34">
         <f t="shared" si="1"/>
         <v>10640</v>
       </c>
@@ -3601,17 +3875,17 @@
       <c r="B58">
         <v>55</v>
       </c>
-      <c r="C58" s="35">
+      <c r="C58" s="30">
         <f t="shared" si="2"/>
         <v>622.25396744416196</v>
       </c>
       <c r="D58" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E58" t="s">
-        <v>172</v>
-      </c>
-      <c r="F58" s="39">
+        <v>166</v>
+      </c>
+      <c r="F58" s="34">
         <f t="shared" si="1"/>
         <v>10043</v>
       </c>
@@ -3620,17 +3894,17 @@
       <c r="B59">
         <v>56</v>
       </c>
-      <c r="C59" s="35">
+      <c r="C59" s="30">
         <f t="shared" si="2"/>
         <v>659.25511382574007</v>
       </c>
       <c r="D59" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E59" t="s">
-        <v>174</v>
-      </c>
-      <c r="F59" s="39">
+        <v>168</v>
+      </c>
+      <c r="F59" s="34">
         <f t="shared" si="1"/>
         <v>9479</v>
       </c>
@@ -3639,17 +3913,17 @@
       <c r="B60">
         <v>57</v>
       </c>
-      <c r="C60" s="35">
+      <c r="C60" s="30">
         <f t="shared" si="2"/>
         <v>698.456462866008</v>
       </c>
       <c r="D60" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E60" t="s">
-        <v>176</v>
-      </c>
-      <c r="F60" s="39">
+        <v>170</v>
+      </c>
+      <c r="F60" s="34">
         <f t="shared" si="1"/>
         <v>8947</v>
       </c>
@@ -3658,17 +3932,17 @@
       <c r="B61">
         <v>58</v>
       </c>
-      <c r="C61" s="35">
+      <c r="C61" s="30">
         <f t="shared" si="2"/>
         <v>739.98884542326903</v>
       </c>
       <c r="D61" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E61" t="s">
-        <v>178</v>
-      </c>
-      <c r="F61" s="39">
+        <v>172</v>
+      </c>
+      <c r="F61" s="34">
         <f t="shared" si="1"/>
         <v>8445</v>
       </c>
@@ -3677,17 +3951,17 @@
       <c r="B62">
         <v>59</v>
       </c>
-      <c r="C62" s="35">
+      <c r="C62" s="30">
         <f t="shared" si="2"/>
         <v>783.99087196349888</v>
       </c>
       <c r="D62" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E62" t="s">
-        <v>180</v>
-      </c>
-      <c r="F62" s="39">
+        <v>174</v>
+      </c>
+      <c r="F62" s="34">
         <f t="shared" si="1"/>
         <v>7971</v>
       </c>
@@ -3696,17 +3970,17 @@
       <c r="B63">
         <v>60</v>
       </c>
-      <c r="C63" s="35">
+      <c r="C63" s="30">
         <f t="shared" si="2"/>
         <v>830.6093951598906</v>
       </c>
       <c r="D63" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E63" t="s">
-        <v>182</v>
-      </c>
-      <c r="F63" s="39">
+        <v>176</v>
+      </c>
+      <c r="F63" s="34">
         <f t="shared" si="1"/>
         <v>7524</v>
       </c>
@@ -3715,17 +3989,17 @@
       <c r="B64">
         <v>61</v>
       </c>
-      <c r="C64" s="35">
+      <c r="C64" s="30">
         <f t="shared" si="2"/>
         <v>880.00000000000034</v>
       </c>
       <c r="D64" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E64" t="s">
-        <v>184</v>
-      </c>
-      <c r="F64" s="39">
+        <v>178</v>
+      </c>
+      <c r="F64" s="34">
         <f t="shared" si="1"/>
         <v>7101</v>
       </c>
@@ -3734,17 +4008,17 @@
       <c r="B65">
         <v>62</v>
       </c>
-      <c r="C65" s="35">
+      <c r="C65" s="30">
         <f t="shared" si="2"/>
         <v>932.3275230361802</v>
       </c>
       <c r="D65" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E65" t="s">
-        <v>186</v>
-      </c>
-      <c r="F65" s="39">
+        <v>180</v>
+      </c>
+      <c r="F65" s="34">
         <f t="shared" si="1"/>
         <v>6703</v>
       </c>
@@ -3753,17 +4027,17 @@
       <c r="B66">
         <v>63</v>
       </c>
-      <c r="C66" s="35">
+      <c r="C66" s="30">
         <f t="shared" si="2"/>
         <v>987.7666025122486</v>
       </c>
       <c r="D66" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E66" t="s">
-        <v>188</v>
-      </c>
-      <c r="F66" s="39">
+        <v>182</v>
+      </c>
+      <c r="F66" s="34">
         <f t="shared" si="1"/>
         <v>6326</v>
       </c>
@@ -3772,17 +4046,17 @@
       <c r="B67">
         <v>64</v>
       </c>
-      <c r="C67" s="35">
+      <c r="C67" s="30">
         <f t="shared" si="2"/>
         <v>1046.5022612023949</v>
       </c>
       <c r="D67" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E67" t="s">
-        <v>190</v>
-      </c>
-      <c r="F67" s="39">
+        <v>184</v>
+      </c>
+      <c r="F67" s="34">
         <f t="shared" si="1"/>
         <v>5971</v>
       </c>
@@ -3791,17 +4065,17 @@
       <c r="B68">
         <v>65</v>
       </c>
-      <c r="C68" s="35">
+      <c r="C68" s="30">
         <f t="shared" si="2"/>
         <v>1108.7305239074888</v>
       </c>
       <c r="D68" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E68" t="s">
-        <v>192</v>
-      </c>
-      <c r="F68" s="39">
+        <v>186</v>
+      </c>
+      <c r="F68" s="34">
         <f t="shared" si="1"/>
         <v>5636</v>
       </c>
@@ -3810,17 +4084,17 @@
       <c r="B69">
         <v>66</v>
       </c>
-      <c r="C69" s="35">
+      <c r="C69" s="30">
         <f t="shared" si="2"/>
         <v>1174.6590716696307</v>
       </c>
       <c r="D69" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E69" t="s">
-        <v>194</v>
-      </c>
-      <c r="F69" s="39">
+        <v>188</v>
+      </c>
+      <c r="F69" s="34">
         <f t="shared" ref="F69:F91" si="3">FLOOR($F$2/2/C69+0.5,1)-1</f>
         <v>5320</v>
       </c>
@@ -3829,17 +4103,17 @@
       <c r="B70">
         <v>67</v>
       </c>
-      <c r="C70" s="35">
+      <c r="C70" s="30">
         <f t="shared" si="2"/>
         <v>1244.5079348883241</v>
       </c>
       <c r="D70" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E70" t="s">
-        <v>196</v>
-      </c>
-      <c r="F70" s="39">
+        <v>190</v>
+      </c>
+      <c r="F70" s="34">
         <f t="shared" si="3"/>
         <v>5021</v>
       </c>
@@ -3848,17 +4122,17 @@
       <c r="B71">
         <v>68</v>
       </c>
-      <c r="C71" s="35">
+      <c r="C71" s="30">
         <f t="shared" si="2"/>
         <v>1318.5102276514804</v>
       </c>
       <c r="D71" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E71" t="s">
-        <v>198</v>
-      </c>
-      <c r="F71" s="39">
+        <v>192</v>
+      </c>
+      <c r="F71" s="34">
         <f t="shared" si="3"/>
         <v>4739</v>
       </c>
@@ -3867,17 +4141,17 @@
       <c r="B72">
         <v>69</v>
       </c>
-      <c r="C72" s="35">
+      <c r="C72" s="30">
         <f t="shared" si="2"/>
         <v>1396.9129257320162</v>
       </c>
       <c r="D72" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E72" t="s">
-        <v>200</v>
-      </c>
-      <c r="F72" s="39">
+        <v>194</v>
+      </c>
+      <c r="F72" s="34">
         <f t="shared" si="3"/>
         <v>4473</v>
       </c>
@@ -3886,17 +4160,17 @@
       <c r="B73">
         <v>70</v>
       </c>
-      <c r="C73" s="35">
+      <c r="C73" s="30">
         <f t="shared" si="2"/>
         <v>1479.9776908465383</v>
       </c>
       <c r="D73" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E73" t="s">
-        <v>202</v>
-      </c>
-      <c r="F73" s="39">
+        <v>196</v>
+      </c>
+      <c r="F73" s="34">
         <f t="shared" si="3"/>
         <v>4222</v>
       </c>
@@ -3905,17 +4179,17 @@
       <c r="B74">
         <v>71</v>
       </c>
-      <c r="C74" s="35">
+      <c r="C74" s="30">
         <f t="shared" si="2"/>
         <v>1567.981743926998</v>
       </c>
       <c r="D74" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E74" t="s">
-        <v>204</v>
-      </c>
-      <c r="F74" s="39">
+        <v>198</v>
+      </c>
+      <c r="F74" s="34">
         <f t="shared" si="3"/>
         <v>3985</v>
       </c>
@@ -3924,17 +4198,17 @@
       <c r="B75">
         <v>72</v>
       </c>
-      <c r="C75" s="35">
+      <c r="C75" s="30">
         <f t="shared" si="2"/>
         <v>1661.2187903197814</v>
       </c>
       <c r="D75" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E75" t="s">
-        <v>206</v>
-      </c>
-      <c r="F75" s="39">
+        <v>200</v>
+      </c>
+      <c r="F75" s="34">
         <f t="shared" si="3"/>
         <v>3761</v>
       </c>
@@ -3943,17 +4217,17 @@
       <c r="B76">
         <v>73</v>
       </c>
-      <c r="C76" s="35">
+      <c r="C76" s="30">
         <f t="shared" si="2"/>
         <v>1760.0000000000009</v>
       </c>
       <c r="D76" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E76" t="s">
-        <v>208</v>
-      </c>
-      <c r="F76" s="39">
+        <v>202</v>
+      </c>
+      <c r="F76" s="34">
         <f t="shared" si="3"/>
         <v>3550</v>
       </c>
@@ -3962,17 +4236,17 @@
       <c r="B77">
         <v>74</v>
       </c>
-      <c r="C77" s="35">
+      <c r="C77" s="30">
         <f t="shared" si="2"/>
         <v>1864.6550460723606</v>
       </c>
       <c r="D77" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E77" t="s">
-        <v>210</v>
-      </c>
-      <c r="F77" s="39">
+        <v>204</v>
+      </c>
+      <c r="F77" s="34">
         <f t="shared" si="3"/>
         <v>3351</v>
       </c>
@@ -3981,17 +4255,17 @@
       <c r="B78">
         <v>75</v>
       </c>
-      <c r="C78" s="35">
+      <c r="C78" s="30">
         <f t="shared" si="2"/>
         <v>1975.5332050244976</v>
       </c>
       <c r="D78" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E78" t="s">
-        <v>212</v>
-      </c>
-      <c r="F78" s="39">
+        <v>206</v>
+      </c>
+      <c r="F78" s="34">
         <f t="shared" si="3"/>
         <v>3163</v>
       </c>
@@ -4000,17 +4274,17 @@
       <c r="B79">
         <v>76</v>
       </c>
-      <c r="C79" s="35">
+      <c r="C79" s="30">
         <f t="shared" si="2"/>
         <v>2093.0045224047904</v>
       </c>
       <c r="D79" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E79" t="s">
-        <v>214</v>
-      </c>
-      <c r="F79" s="39">
+        <v>208</v>
+      </c>
+      <c r="F79" s="34">
         <f t="shared" si="3"/>
         <v>2985</v>
       </c>
@@ -4019,17 +4293,17 @@
       <c r="B80">
         <v>77</v>
       </c>
-      <c r="C80" s="35">
+      <c r="C80" s="30">
         <f t="shared" si="2"/>
         <v>2217.4610478149784</v>
       </c>
       <c r="D80" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E80" t="s">
-        <v>216</v>
-      </c>
-      <c r="F80" s="39">
+        <v>210</v>
+      </c>
+      <c r="F80" s="34">
         <f t="shared" si="3"/>
         <v>2818</v>
       </c>
@@ -4038,17 +4312,17 @@
       <c r="B81">
         <v>78</v>
       </c>
-      <c r="C81" s="35">
+      <c r="C81" s="30">
         <f t="shared" si="2"/>
         <v>2349.3181433392624</v>
       </c>
       <c r="D81" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E81" t="s">
-        <v>218</v>
-      </c>
-      <c r="F81" s="39">
+        <v>212</v>
+      </c>
+      <c r="F81" s="34">
         <f t="shared" si="3"/>
         <v>2659</v>
       </c>
@@ -4057,17 +4331,17 @@
       <c r="B82">
         <v>79</v>
       </c>
-      <c r="C82" s="35">
+      <c r="C82" s="30">
         <f t="shared" si="2"/>
         <v>2489.0158697766497</v>
       </c>
       <c r="D82" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E82" t="s">
-        <v>220</v>
-      </c>
-      <c r="F82" s="39">
+        <v>214</v>
+      </c>
+      <c r="F82" s="34">
         <f t="shared" si="3"/>
         <v>2510</v>
       </c>
@@ -4076,17 +4350,17 @@
       <c r="B83">
         <v>80</v>
       </c>
-      <c r="C83" s="35">
+      <c r="C83" s="30">
         <f t="shared" si="2"/>
         <v>2637.0204553029621</v>
       </c>
       <c r="D83" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E83" t="s">
-        <v>222</v>
-      </c>
-      <c r="F83" s="39">
+        <v>216</v>
+      </c>
+      <c r="F83" s="34">
         <f t="shared" si="3"/>
         <v>2369</v>
       </c>
@@ -4095,17 +4369,17 @@
       <c r="B84">
         <v>81</v>
       </c>
-      <c r="C84" s="35">
+      <c r="C84" s="30">
         <f t="shared" si="2"/>
         <v>2793.8258514640338</v>
       </c>
       <c r="D84" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E84" t="s">
-        <v>224</v>
-      </c>
-      <c r="F84" s="39">
+        <v>218</v>
+      </c>
+      <c r="F84" s="34">
         <f t="shared" si="3"/>
         <v>2236</v>
       </c>
@@ -4114,17 +4388,17 @@
       <c r="B85">
         <v>82</v>
       </c>
-      <c r="C85" s="35">
+      <c r="C85" s="30">
         <f t="shared" si="2"/>
         <v>2959.9553816930784</v>
       </c>
       <c r="D85" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E85" t="s">
-        <v>226</v>
-      </c>
-      <c r="F85" s="39">
+        <v>220</v>
+      </c>
+      <c r="F85" s="34">
         <f t="shared" si="3"/>
         <v>2111</v>
       </c>
@@ -4133,17 +4407,17 @@
       <c r="B86">
         <v>83</v>
       </c>
-      <c r="C86" s="35">
+      <c r="C86" s="30">
         <f t="shared" si="2"/>
         <v>3135.9634878539978</v>
       </c>
       <c r="D86" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E86" t="s">
-        <v>228</v>
-      </c>
-      <c r="F86" s="39">
+        <v>222</v>
+      </c>
+      <c r="F86" s="34">
         <f t="shared" si="3"/>
         <v>1992</v>
       </c>
@@ -4152,17 +4426,17 @@
       <c r="B87">
         <v>84</v>
       </c>
-      <c r="C87" s="35">
+      <c r="C87" s="30">
         <f t="shared" si="2"/>
         <v>3322.4375806395647</v>
       </c>
       <c r="D87" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E87" t="s">
-        <v>230</v>
-      </c>
-      <c r="F87" s="39">
+        <v>224</v>
+      </c>
+      <c r="F87" s="34">
         <f t="shared" si="3"/>
         <v>1880</v>
       </c>
@@ -4171,17 +4445,17 @@
       <c r="B88">
         <v>85</v>
       </c>
-      <c r="C88" s="35">
+      <c r="C88" s="30">
         <f t="shared" si="2"/>
         <v>3520.0000000000041</v>
       </c>
       <c r="D88" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E88" t="s">
-        <v>232</v>
-      </c>
-      <c r="F88" s="39">
+        <v>226</v>
+      </c>
+      <c r="F88" s="34">
         <f t="shared" si="3"/>
         <v>1775</v>
       </c>
@@ -4190,17 +4464,17 @@
       <c r="B89">
         <v>86</v>
       </c>
-      <c r="C89" s="35">
+      <c r="C89" s="30">
         <f t="shared" si="2"/>
         <v>3729.310092144724</v>
       </c>
       <c r="D89" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E89" t="s">
-        <v>234</v>
-      </c>
-      <c r="F89" s="39">
+        <v>228</v>
+      </c>
+      <c r="F89" s="34">
         <f t="shared" si="3"/>
         <v>1675</v>
       </c>
@@ -4209,17 +4483,17 @@
       <c r="B90">
         <v>87</v>
       </c>
-      <c r="C90" s="35">
+      <c r="C90" s="30">
         <f t="shared" si="2"/>
         <v>3951.066410048998</v>
       </c>
       <c r="D90" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E90" t="s">
-        <v>236</v>
-      </c>
-      <c r="F90" s="39">
+        <v>230</v>
+      </c>
+      <c r="F90" s="34">
         <f t="shared" si="3"/>
         <v>1581</v>
       </c>
@@ -4228,17 +4502,17 @@
       <c r="B91">
         <v>88</v>
       </c>
-      <c r="C91" s="35">
+      <c r="C91" s="30">
         <f t="shared" si="2"/>
         <v>4186.0090448095834</v>
       </c>
       <c r="D91" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E91" t="s">
-        <v>238</v>
-      </c>
-      <c r="F91" s="39">
+        <v>232</v>
+      </c>
+      <c r="F91" s="34">
         <f t="shared" si="3"/>
         <v>1492</v>
       </c>
@@ -4247,17 +4521,17 @@
       <c r="B92">
         <v>89</v>
       </c>
-      <c r="C92" s="35">
+      <c r="C92" s="30">
         <f t="shared" ref="C92:C109" si="4">C91*2^(1/12)</f>
         <v>4434.9220956299596</v>
       </c>
       <c r="D92" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E92" t="s">
-        <v>245</v>
-      </c>
-      <c r="F92" s="39">
+        <v>239</v>
+      </c>
+      <c r="F92" s="34">
         <f t="shared" ref="F92:F109" si="5">FLOOR($F$2/2/C92+0.5,1)-1</f>
         <v>1408</v>
       </c>
@@ -4266,17 +4540,17 @@
       <c r="B93">
         <v>90</v>
       </c>
-      <c r="C93" s="35">
+      <c r="C93" s="30">
         <f t="shared" si="4"/>
         <v>4698.6362866785275</v>
       </c>
       <c r="D93" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E93" t="s">
-        <v>247</v>
-      </c>
-      <c r="F93" s="39">
+        <v>241</v>
+      </c>
+      <c r="F93" s="34">
         <f t="shared" si="5"/>
         <v>1329</v>
       </c>
@@ -4285,17 +4559,17 @@
       <c r="B94">
         <v>91</v>
       </c>
-      <c r="C94" s="35">
+      <c r="C94" s="30">
         <f t="shared" si="4"/>
         <v>4978.031739553302</v>
       </c>
       <c r="D94" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E94" t="s">
-        <v>249</v>
-      </c>
-      <c r="F94" s="39">
+        <v>243</v>
+      </c>
+      <c r="F94" s="34">
         <f t="shared" si="5"/>
         <v>1255</v>
       </c>
@@ -4304,17 +4578,17 @@
       <c r="B95">
         <v>92</v>
       </c>
-      <c r="C95" s="35">
+      <c r="C95" s="30">
         <f t="shared" si="4"/>
         <v>5274.0409106059269</v>
       </c>
       <c r="D95" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E95" t="s">
-        <v>251</v>
-      </c>
-      <c r="F95" s="39">
+        <v>245</v>
+      </c>
+      <c r="F95" s="34">
         <f t="shared" si="5"/>
         <v>1184</v>
       </c>
@@ -4323,17 +4597,17 @@
       <c r="B96">
         <v>93</v>
       </c>
-      <c r="C96" s="35">
+      <c r="C96" s="30">
         <f t="shared" si="4"/>
         <v>5587.6517029280712</v>
       </c>
       <c r="D96" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E96" t="s">
-        <v>253</v>
-      </c>
-      <c r="F96" s="39">
+        <v>247</v>
+      </c>
+      <c r="F96" s="34">
         <f t="shared" si="5"/>
         <v>1118</v>
       </c>
@@ -4342,17 +4616,17 @@
       <c r="B97">
         <v>94</v>
       </c>
-      <c r="C97" s="35">
+      <c r="C97" s="30">
         <f t="shared" si="4"/>
         <v>5919.9107633861604</v>
       </c>
       <c r="D97" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E97" t="s">
-        <v>255</v>
-      </c>
-      <c r="F97" s="39">
+        <v>249</v>
+      </c>
+      <c r="F97" s="34">
         <f t="shared" si="5"/>
         <v>1055</v>
       </c>
@@ -4361,17 +4635,17 @@
       <c r="B98">
         <v>95</v>
       </c>
-      <c r="C98" s="35">
+      <c r="C98" s="30">
         <f t="shared" si="4"/>
         <v>6271.9269757079992</v>
       </c>
       <c r="D98" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E98" t="s">
-        <v>257</v>
-      </c>
-      <c r="F98" s="39">
+        <v>251</v>
+      </c>
+      <c r="F98" s="34">
         <f t="shared" si="5"/>
         <v>996</v>
       </c>
@@ -4380,17 +4654,17 @@
       <c r="B99">
         <v>96</v>
       </c>
-      <c r="C99" s="35">
+      <c r="C99" s="30">
         <f t="shared" si="4"/>
         <v>6644.8751612791339</v>
       </c>
       <c r="D99" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E99" t="s">
-        <v>259</v>
-      </c>
-      <c r="F99" s="39">
+        <v>253</v>
+      </c>
+      <c r="F99" s="34">
         <f t="shared" si="5"/>
         <v>940</v>
       </c>
@@ -4399,17 +4673,17 @@
       <c r="B100">
         <v>97</v>
       </c>
-      <c r="C100" s="35">
+      <c r="C100" s="30">
         <f t="shared" si="4"/>
         <v>7040.0000000000127</v>
       </c>
       <c r="D100" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E100" t="s">
-        <v>261</v>
-      </c>
-      <c r="F100" s="39">
+        <v>255</v>
+      </c>
+      <c r="F100" s="34">
         <f t="shared" si="5"/>
         <v>887</v>
       </c>
@@ -4418,17 +4692,17 @@
       <c r="B101">
         <v>98</v>
       </c>
-      <c r="C101" s="35">
+      <c r="C101" s="30">
         <f t="shared" si="4"/>
         <v>7458.6201842894525</v>
       </c>
       <c r="D101" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E101" t="s">
-        <v>263</v>
-      </c>
-      <c r="F101" s="39">
+        <v>257</v>
+      </c>
+      <c r="F101" s="34">
         <f t="shared" si="5"/>
         <v>837</v>
       </c>
@@ -4437,17 +4711,17 @@
       <c r="B102">
         <v>99</v>
       </c>
-      <c r="C102" s="35">
+      <c r="C102" s="30">
         <f t="shared" si="4"/>
         <v>7902.1328200980006</v>
       </c>
       <c r="D102" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E102" t="s">
-        <v>265</v>
-      </c>
-      <c r="F102" s="39">
+        <v>259</v>
+      </c>
+      <c r="F102" s="34">
         <f t="shared" si="5"/>
         <v>790</v>
       </c>
@@ -4456,17 +4730,17 @@
       <c r="B103">
         <v>100</v>
       </c>
-      <c r="C103" s="35">
+      <c r="C103" s="30">
         <f t="shared" si="4"/>
         <v>8372.0180896191723</v>
       </c>
       <c r="D103" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E103" t="s">
-        <v>289</v>
-      </c>
-      <c r="F103" s="39">
+        <v>283</v>
+      </c>
+      <c r="F103" s="34">
         <f t="shared" si="5"/>
         <v>746</v>
       </c>
@@ -4475,17 +4749,17 @@
       <c r="B104">
         <v>101</v>
       </c>
-      <c r="C104" s="35">
+      <c r="C104" s="30">
         <f t="shared" si="4"/>
         <v>8869.8441912599246</v>
       </c>
       <c r="D104" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E104" t="s">
-        <v>267</v>
-      </c>
-      <c r="F104" s="39">
+        <v>261</v>
+      </c>
+      <c r="F104" s="34">
         <f t="shared" si="5"/>
         <v>704</v>
       </c>
@@ -4494,17 +4768,17 @@
       <c r="B105">
         <v>102</v>
       </c>
-      <c r="C105" s="35">
+      <c r="C105" s="30">
         <f t="shared" si="4"/>
         <v>9397.2725733570605</v>
       </c>
       <c r="D105" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E105" t="s">
-        <v>269</v>
-      </c>
-      <c r="F105" s="39">
+        <v>263</v>
+      </c>
+      <c r="F105" s="34">
         <f t="shared" si="5"/>
         <v>664</v>
       </c>
@@ -4513,17 +4787,17 @@
       <c r="B106">
         <v>103</v>
       </c>
-      <c r="C106" s="35">
+      <c r="C106" s="30">
         <f t="shared" si="4"/>
         <v>9956.0634791066095</v>
       </c>
       <c r="D106" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E106" t="s">
-        <v>271</v>
-      </c>
-      <c r="F106" s="39">
+        <v>265</v>
+      </c>
+      <c r="F106" s="34">
         <f t="shared" si="5"/>
         <v>627</v>
       </c>
@@ -4532,17 +4806,17 @@
       <c r="B107">
         <v>104</v>
       </c>
-      <c r="C107" s="35">
+      <c r="C107" s="30">
         <f t="shared" si="4"/>
         <v>10548.081821211859</v>
       </c>
       <c r="D107" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E107" t="s">
-        <v>273</v>
-      </c>
-      <c r="F107" s="39">
+        <v>267</v>
+      </c>
+      <c r="F107" s="34">
         <f t="shared" si="5"/>
         <v>592</v>
       </c>
@@ -4551,17 +4825,17 @@
       <c r="B108">
         <v>105</v>
       </c>
-      <c r="C108" s="35">
+      <c r="C108" s="30">
         <f t="shared" si="4"/>
         <v>11175.303405856148</v>
       </c>
       <c r="D108" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E108" t="s">
-        <v>275</v>
-      </c>
-      <c r="F108" s="39">
+        <v>269</v>
+      </c>
+      <c r="F108" s="34">
         <f t="shared" si="5"/>
         <v>558</v>
       </c>
@@ -4570,17 +4844,17 @@
       <c r="B109">
         <v>106</v>
       </c>
-      <c r="C109" s="35">
+      <c r="C109" s="30">
         <f t="shared" si="4"/>
         <v>11839.821526772326</v>
       </c>
       <c r="D109" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E109" t="s">
-        <v>277</v>
-      </c>
-      <c r="F109" s="39">
+        <v>271</v>
+      </c>
+      <c r="F109" s="34">
         <f t="shared" si="5"/>
         <v>527</v>
       </c>
@@ -4589,17 +4863,17 @@
       <c r="B110">
         <v>107</v>
       </c>
-      <c r="C110" s="35">
+      <c r="C110" s="30">
         <f t="shared" ref="C110:C115" si="6">C109*2^(1/12)</f>
         <v>12543.853951416006</v>
       </c>
       <c r="D110" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E110" t="s">
-        <v>279</v>
-      </c>
-      <c r="F110" s="39">
+        <v>273</v>
+      </c>
+      <c r="F110" s="34">
         <f t="shared" ref="F110:F115" si="7">FLOOR($F$2/2/C110+0.5,1)-1</f>
         <v>497</v>
       </c>
@@ -4608,17 +4882,17 @@
       <c r="B111">
         <v>108</v>
       </c>
-      <c r="C111" s="35">
+      <c r="C111" s="30">
         <f t="shared" si="6"/>
         <v>13289.750322558275</v>
       </c>
       <c r="D111" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E111" t="s">
-        <v>281</v>
-      </c>
-      <c r="F111" s="39">
+        <v>275</v>
+      </c>
+      <c r="F111" s="34">
         <f t="shared" si="7"/>
         <v>469</v>
       </c>
@@ -4627,17 +4901,17 @@
       <c r="B112">
         <v>109</v>
       </c>
-      <c r="C112" s="35">
+      <c r="C112" s="30">
         <f t="shared" si="6"/>
         <v>14080.000000000033</v>
       </c>
       <c r="D112" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E112" t="s">
-        <v>283</v>
-      </c>
-      <c r="F112" s="39">
+        <v>277</v>
+      </c>
+      <c r="F112" s="34">
         <f t="shared" si="7"/>
         <v>443</v>
       </c>
@@ -4646,17 +4920,17 @@
       <c r="B113">
         <v>110</v>
       </c>
-      <c r="C113" s="35">
+      <c r="C113" s="30">
         <f t="shared" si="6"/>
         <v>14917.240368578912</v>
       </c>
       <c r="D113" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E113" t="s">
-        <v>285</v>
-      </c>
-      <c r="F113" s="39">
+        <v>279</v>
+      </c>
+      <c r="F113" s="34">
         <f t="shared" si="7"/>
         <v>418</v>
       </c>
@@ -4665,17 +4939,17 @@
       <c r="B114">
         <v>111</v>
       </c>
-      <c r="C114" s="35">
+      <c r="C114" s="30">
         <f t="shared" si="6"/>
         <v>15804.265640196008</v>
       </c>
       <c r="D114" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E114" t="s">
-        <v>287</v>
-      </c>
-      <c r="F114" s="39">
+        <v>281</v>
+      </c>
+      <c r="F114" s="34">
         <f t="shared" si="7"/>
         <v>394</v>
       </c>
@@ -4684,28 +4958,28 @@
       <c r="B115">
         <v>112</v>
       </c>
-      <c r="C115" s="35">
+      <c r="C115" s="30">
         <f t="shared" si="6"/>
         <v>16744.036179238352</v>
       </c>
       <c r="D115" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E115" t="s">
-        <v>291</v>
-      </c>
-      <c r="F115" s="39">
+        <v>285</v>
+      </c>
+      <c r="F115" s="34">
         <f t="shared" si="7"/>
         <v>372</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C116" s="35"/>
-      <c r="F116" s="39"/>
+      <c r="C116" s="30"/>
+      <c r="F116" s="34"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C117" s="35"/>
-      <c r="F117" s="39"/>
+      <c r="C117" s="30"/>
+      <c r="F117" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4718,7 +4992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D7C117-B4B2-47C0-B0AF-1CFFFE3B1DA2}">
   <dimension ref="B2:AE118"/>
   <sheetViews>
@@ -4749,7 +5023,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4806,7 +5080,7 @@
       </c>
     </row>
     <row r="5" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>1</v>
       </c>
     </row>
@@ -4814,10 +5088,10 @@
       <c r="B6" s="3">
         <v>0</v>
       </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11">
         <v>1</v>
       </c>
       <c r="H6">
@@ -4866,31 +5140,31 @@
       </c>
     </row>
     <row r="7" spans="2:20" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D7" s="12"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="12">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12"/>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11"/>
     </row>
     <row r="11" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="12"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="E12" s="12">
+      <c r="C12" s="11"/>
+      <c r="E12" s="11">
         <v>1</v>
       </c>
       <c r="H12">
@@ -4939,20 +5213,20 @@
       </c>
     </row>
     <row r="13" spans="2:20" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D13" s="12"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C14" s="12"/>
-      <c r="E14" s="12">
+      <c r="C14" s="11"/>
+      <c r="E14" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="D15" s="11"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="17" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>1</v>
       </c>
     </row>
@@ -4960,8 +5234,8 @@
       <c r="B18" s="3">
         <v>2</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="E18" s="12">
+      <c r="C18" s="11"/>
+      <c r="E18" s="11">
         <v>1</v>
       </c>
       <c r="H18">
@@ -5010,24 +5284,24 @@
       </c>
     </row>
     <row r="19" spans="2:20" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C20" s="12">
-        <v>1</v>
-      </c>
-      <c r="E20" s="12"/>
+      <c r="C20" s="11">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D21" s="12">
-        <v>1</v>
-      </c>
-      <c r="F21" s="12"/>
+      <c r="D21" s="11">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11"/>
     </row>
     <row r="23" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D23" s="12">
+      <c r="D23" s="11">
         <v>1</v>
       </c>
     </row>
@@ -5035,8 +5309,8 @@
       <c r="B24" s="3">
         <v>3</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="E24" s="12">
+      <c r="C24" s="11"/>
+      <c r="E24" s="11">
         <v>1</v>
       </c>
       <c r="H24">
@@ -5085,26 +5359,26 @@
       </c>
     </row>
     <row r="25" spans="2:20" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="12">
+      <c r="D25" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C26" s="12"/>
-      <c r="E26" s="12">
+      <c r="C26" s="11"/>
+      <c r="E26" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D27" s="12">
-        <v>1</v>
-      </c>
-      <c r="F27" s="12"/>
+      <c r="D27" s="11">
+        <v>1</v>
+      </c>
+      <c r="F27" s="11"/>
     </row>
     <row r="29" spans="2:20" s="4" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
       <c r="C29"/>
-      <c r="D29" s="12"/>
+      <c r="D29" s="11"/>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
@@ -5122,11 +5396,11 @@
       <c r="B30" s="3">
         <v>4</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <v>1</v>
       </c>
       <c r="D30"/>
-      <c r="E30" s="12">
+      <c r="E30" s="11">
         <v>1</v>
       </c>
       <c r="F30"/>
@@ -5180,7 +5454,7 @@
     <row r="31" spans="2:20" s="4" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
       <c r="C31"/>
-      <c r="D31" s="12">
+      <c r="D31" s="11">
         <v>1</v>
       </c>
       <c r="E31"/>
@@ -5198,9 +5472,9 @@
     </row>
     <row r="32" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="12"/>
+      <c r="C32" s="11"/>
       <c r="D32"/>
-      <c r="E32" s="12">
+      <c r="E32" s="11">
         <v>1</v>
       </c>
       <c r="F32"/>
@@ -5216,11 +5490,11 @@
       <c r="P32"/>
     </row>
     <row r="33" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="D33" s="11"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="35" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D35" s="12">
+      <c r="D35" s="11">
         <v>1</v>
       </c>
     </row>
@@ -5228,10 +5502,10 @@
       <c r="B36" s="3">
         <v>5</v>
       </c>
-      <c r="C36" s="12">
-        <v>1</v>
-      </c>
-      <c r="E36" s="12"/>
+      <c r="C36" s="11">
+        <v>1</v>
+      </c>
+      <c r="E36" s="11"/>
       <c r="H36">
         <f>D35</f>
         <v>1</v>
@@ -5278,24 +5552,24 @@
       </c>
     </row>
     <row r="37" spans="2:20" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D37" s="12">
+      <c r="D37" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C38" s="12"/>
-      <c r="E38" s="12">
+      <c r="C38" s="11"/>
+      <c r="E38" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D39" s="12">
-        <v>1</v>
-      </c>
-      <c r="F39" s="12"/>
+      <c r="D39" s="11">
+        <v>1</v>
+      </c>
+      <c r="F39" s="11"/>
     </row>
     <row r="41" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="12">
+      <c r="D41" s="11">
         <v>1</v>
       </c>
     </row>
@@ -5303,10 +5577,10 @@
       <c r="B42" s="3">
         <v>6</v>
       </c>
-      <c r="C42" s="12">
-        <v>1</v>
-      </c>
-      <c r="E42" s="12"/>
+      <c r="C42" s="11">
+        <v>1</v>
+      </c>
+      <c r="E42" s="11"/>
       <c r="H42">
         <f>D41</f>
         <v>1</v>
@@ -5353,26 +5627,26 @@
       </c>
     </row>
     <row r="43" spans="2:20" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D43" s="12">
+      <c r="D43" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C44" s="12">
-        <v>1</v>
-      </c>
-      <c r="E44" s="12">
+      <c r="C44" s="11">
+        <v>1</v>
+      </c>
+      <c r="E44" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D45" s="12">
-        <v>1</v>
-      </c>
-      <c r="F45" s="12"/>
+      <c r="D45" s="11">
+        <v>1</v>
+      </c>
+      <c r="F45" s="11"/>
     </row>
     <row r="47" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D47" s="12">
+      <c r="D47" s="11">
         <v>1</v>
       </c>
     </row>
@@ -5380,10 +5654,10 @@
       <c r="B48" s="3">
         <v>7</v>
       </c>
-      <c r="C48" s="12">
-        <v>1</v>
-      </c>
-      <c r="E48" s="12">
+      <c r="C48" s="11">
+        <v>1</v>
+      </c>
+      <c r="E48" s="11">
         <v>1</v>
       </c>
       <c r="H48">
@@ -5432,20 +5706,20 @@
       </c>
     </row>
     <row r="49" spans="2:20" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D49" s="12"/>
+      <c r="D49" s="11"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C50" s="12"/>
-      <c r="E50" s="12">
+      <c r="C50" s="11"/>
+      <c r="E50" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D51" s="12"/>
-      <c r="F51" s="12"/>
+      <c r="D51" s="11"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="53" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D53" s="12">
+      <c r="D53" s="11">
         <v>1</v>
       </c>
     </row>
@@ -5453,10 +5727,10 @@
       <c r="B54" s="3">
         <v>8</v>
       </c>
-      <c r="C54" s="12">
-        <v>1</v>
-      </c>
-      <c r="E54" s="12">
+      <c r="C54" s="11">
+        <v>1</v>
+      </c>
+      <c r="E54" s="11">
         <v>1</v>
       </c>
       <c r="H54">
@@ -5505,26 +5779,26 @@
       </c>
     </row>
     <row r="55" spans="2:20" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D55" s="12">
+      <c r="D55" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C56" s="12">
-        <v>1</v>
-      </c>
-      <c r="E56" s="12">
+      <c r="C56" s="11">
+        <v>1</v>
+      </c>
+      <c r="E56" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D57" s="12">
-        <v>1</v>
-      </c>
-      <c r="F57" s="12"/>
+      <c r="D57" s="11">
+        <v>1</v>
+      </c>
+      <c r="F57" s="11"/>
     </row>
     <row r="59" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D59" s="12">
+      <c r="D59" s="11">
         <v>1</v>
       </c>
     </row>
@@ -5532,10 +5806,10 @@
       <c r="B60" s="3">
         <v>9</v>
       </c>
-      <c r="C60" s="12">
-        <v>1</v>
-      </c>
-      <c r="E60" s="12">
+      <c r="C60" s="11">
+        <v>1</v>
+      </c>
+      <c r="E60" s="11">
         <v>1</v>
       </c>
       <c r="H60">
@@ -5584,26 +5858,26 @@
       </c>
     </row>
     <row r="61" spans="2:20" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D61" s="12">
+      <c r="D61" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C62" s="12"/>
-      <c r="E62" s="12">
+      <c r="C62" s="11"/>
+      <c r="E62" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D63" s="12">
-        <v>1</v>
-      </c>
-      <c r="F63" s="12"/>
+      <c r="D63" s="11">
+        <v>1</v>
+      </c>
+      <c r="F63" s="11"/>
     </row>
     <row r="65" spans="2:20" s="4" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3"/>
       <c r="C65"/>
-      <c r="D65" s="12">
+      <c r="D65" s="11">
         <v>1</v>
       </c>
       <c r="E65"/>
@@ -5623,11 +5897,11 @@
       <c r="B66" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="11">
         <v>1</v>
       </c>
       <c r="D66"/>
-      <c r="E66" s="12">
+      <c r="E66" s="11">
         <v>1</v>
       </c>
       <c r="F66"/>
@@ -5681,7 +5955,7 @@
     <row r="67" spans="2:20" s="4" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="3"/>
       <c r="C67"/>
-      <c r="D67" s="12">
+      <c r="D67" s="11">
         <v>1</v>
       </c>
       <c r="E67"/>
@@ -5699,11 +5973,11 @@
     </row>
     <row r="68" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="3"/>
-      <c r="C68" s="12">
+      <c r="C68" s="11">
         <v>1</v>
       </c>
       <c r="D68"/>
-      <c r="E68" s="12">
+      <c r="E68" s="11">
         <v>1</v>
       </c>
       <c r="F68"/>
@@ -5719,20 +5993,20 @@
       <c r="P68"/>
     </row>
     <row r="69" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D69" s="12"/>
-      <c r="F69" s="12"/>
+      <c r="D69" s="11"/>
+      <c r="F69" s="11"/>
     </row>
     <row r="71" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D71" s="12"/>
+      <c r="D71" s="11"/>
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B72" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C72" s="12">
-        <v>1</v>
-      </c>
-      <c r="E72" s="12"/>
+      <c r="C72" s="11">
+        <v>1</v>
+      </c>
+      <c r="E72" s="11"/>
       <c r="H72">
         <f>D71</f>
         <v>0</v>
@@ -5779,26 +6053,26 @@
       </c>
     </row>
     <row r="73" spans="2:20" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D73" s="12">
+      <c r="D73" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C74" s="12">
-        <v>1</v>
-      </c>
-      <c r="E74" s="12">
+      <c r="C74" s="11">
+        <v>1</v>
+      </c>
+      <c r="E74" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D75" s="12">
-        <v>1</v>
-      </c>
-      <c r="F75" s="12"/>
+      <c r="D75" s="11">
+        <v>1</v>
+      </c>
+      <c r="F75" s="11"/>
     </row>
     <row r="77" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D77" s="12">
+      <c r="D77" s="11">
         <v>1</v>
       </c>
     </row>
@@ -5806,10 +6080,10 @@
       <c r="B78" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="12">
-        <v>1</v>
-      </c>
-      <c r="E78" s="12"/>
+      <c r="C78" s="11">
+        <v>1</v>
+      </c>
+      <c r="E78" s="11"/>
       <c r="H78">
         <f>D77</f>
         <v>1</v>
@@ -5856,29 +6130,29 @@
       </c>
     </row>
     <row r="79" spans="2:20" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D79" s="12"/>
+      <c r="D79" s="11"/>
     </row>
     <row r="80" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C80" s="12">
-        <v>1</v>
-      </c>
-      <c r="E80" s="12"/>
+      <c r="C80" s="11">
+        <v>1</v>
+      </c>
+      <c r="E80" s="11"/>
     </row>
     <row r="81" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D81" s="12">
-        <v>1</v>
-      </c>
-      <c r="F81" s="12"/>
+      <c r="D81" s="11">
+        <v>1</v>
+      </c>
+      <c r="F81" s="11"/>
     </row>
     <row r="83" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D83" s="12"/>
+      <c r="D83" s="11"/>
     </row>
     <row r="84" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B84" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="12"/>
-      <c r="E84" s="12">
+      <c r="C84" s="11"/>
+      <c r="E84" s="11">
         <v>1</v>
       </c>
       <c r="H84">
@@ -5927,26 +6201,26 @@
       </c>
     </row>
     <row r="85" spans="2:20" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D85" s="12">
+      <c r="D85" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C86" s="12">
-        <v>1</v>
-      </c>
-      <c r="E86" s="12">
+      <c r="C86" s="11">
+        <v>1</v>
+      </c>
+      <c r="E86" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D87" s="12">
-        <v>1</v>
-      </c>
-      <c r="F87" s="12"/>
+      <c r="D87" s="11">
+        <v>1</v>
+      </c>
+      <c r="F87" s="11"/>
     </row>
     <row r="89" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D89" s="12">
+      <c r="D89" s="11">
         <v>1</v>
       </c>
     </row>
@@ -5954,10 +6228,10 @@
       <c r="B90" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C90" s="12">
-        <v>1</v>
-      </c>
-      <c r="E90" s="12"/>
+      <c r="C90" s="11">
+        <v>1</v>
+      </c>
+      <c r="E90" s="11"/>
       <c r="H90">
         <f>D89</f>
         <v>1</v>
@@ -6004,24 +6278,24 @@
       </c>
     </row>
     <row r="91" spans="2:20" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D91" s="12">
+      <c r="D91" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C92" s="12">
-        <v>1</v>
-      </c>
-      <c r="E92" s="12"/>
+      <c r="C92" s="11">
+        <v>1</v>
+      </c>
+      <c r="E92" s="11"/>
     </row>
     <row r="93" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D93" s="12">
-        <v>1</v>
-      </c>
-      <c r="F93" s="12"/>
+      <c r="D93" s="11">
+        <v>1</v>
+      </c>
+      <c r="F93" s="11"/>
     </row>
     <row r="95" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D95" s="12">
+      <c r="D95" s="11">
         <v>1</v>
       </c>
     </row>
@@ -6029,10 +6303,10 @@
       <c r="B96" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C96" s="12">
-        <v>1</v>
-      </c>
-      <c r="E96" s="12"/>
+      <c r="C96" s="11">
+        <v>1</v>
+      </c>
+      <c r="E96" s="11"/>
       <c r="H96">
         <f>D95</f>
         <v>1</v>
@@ -6079,618 +6353,618 @@
       </c>
     </row>
     <row r="97" spans="3:31" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D97" s="12">
+      <c r="D97" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="C98" s="12">
-        <v>1</v>
-      </c>
-      <c r="E98" s="12"/>
+      <c r="C98" s="11">
+        <v>1</v>
+      </c>
+      <c r="E98" s="11"/>
     </row>
     <row r="99" spans="3:31" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D99" s="12"/>
-      <c r="F99" s="12"/>
+      <c r="D99" s="11"/>
+      <c r="F99" s="11"/>
     </row>
     <row r="101" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="V101" s="27"/>
-      <c r="W101" s="15"/>
-      <c r="X101" s="51" t="s">
+      <c r="V101" s="22"/>
+      <c r="W101" s="14"/>
+      <c r="X101" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="Y101" s="52" t="s">
+      <c r="Y101" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="Z101" s="52" t="s">
+      <c r="Z101" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="AA101" s="52" t="s">
+      <c r="AA101" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AB101" s="52" t="s">
+      <c r="AB101" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="AC101" s="52" t="s">
+      <c r="AC101" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AD101" s="52" t="s">
+      <c r="AD101" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="AE101" s="17"/>
+      <c r="AE101" s="16"/>
     </row>
     <row r="102" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="V102" s="28"/>
-      <c r="W102" s="13"/>
-      <c r="X102" s="50">
+      <c r="V102" s="23"/>
+      <c r="W102" s="12"/>
+      <c r="X102" s="39">
         <f t="shared" ref="X102:AB102" si="0">Y102*2</f>
         <v>128</v>
       </c>
-      <c r="Y102" s="34">
+      <c r="Y102" s="29">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="Z102" s="34">
+      <c r="Z102" s="29">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="AA102" s="34">
+      <c r="AA102" s="29">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="AB102" s="34">
+      <c r="AB102" s="29">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AC102" s="34">
+      <c r="AC102" s="29">
         <f>AD102*2</f>
         <v>4</v>
       </c>
-      <c r="AD102" s="34">
+      <c r="AD102" s="29">
         <v>2</v>
       </c>
-      <c r="AE102" s="19"/>
+      <c r="AE102" s="18"/>
     </row>
     <row r="103" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="V103" s="49">
-        <v>0</v>
-      </c>
-      <c r="W103" s="33" t="str">
+      <c r="V103" s="38">
+        <v>0</v>
+      </c>
+      <c r="W103" s="28" t="str">
         <f>DEC2HEX(V103,1)</f>
         <v>0</v>
       </c>
-      <c r="X103" s="49">
-        <v>1</v>
-      </c>
-      <c r="Y103" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z103" s="33">
-        <v>1</v>
-      </c>
-      <c r="AA103" s="33">
-        <v>1</v>
-      </c>
-      <c r="AB103" s="33">
-        <v>1</v>
-      </c>
-      <c r="AC103" s="33">
-        <v>1</v>
-      </c>
-      <c r="AD103" s="33">
-        <v>0</v>
-      </c>
-      <c r="AE103" s="18">
+      <c r="X103" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y103" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z103" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA103" s="28">
+        <v>1</v>
+      </c>
+      <c r="AB103" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC103" s="28">
+        <v>1</v>
+      </c>
+      <c r="AD103" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE103" s="17">
         <f>SUMPRODUCT($X$102:$AD$102,X103:AD103)</f>
         <v>252</v>
       </c>
     </row>
     <row r="104" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="V104" s="49">
-        <v>1</v>
-      </c>
-      <c r="W104" s="33" t="str">
+      <c r="V104" s="38">
+        <v>1</v>
+      </c>
+      <c r="W104" s="28" t="str">
         <f t="shared" ref="W104:W118" si="1">DEC2HEX(V104,1)</f>
         <v>1</v>
       </c>
-      <c r="X104" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y104" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z104" s="33">
-        <v>1</v>
-      </c>
-      <c r="AA104" s="33">
-        <v>0</v>
-      </c>
-      <c r="AB104" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC104" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD104" s="33">
-        <v>0</v>
-      </c>
-      <c r="AE104" s="18">
+      <c r="X104" s="38">
+        <v>0</v>
+      </c>
+      <c r="Y104" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z104" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA104" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB104" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC104" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD104" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE104" s="17">
         <f t="shared" ref="AE104:AE118" si="2">SUMPRODUCT($X$102:$AD$102,X104:AD104)</f>
         <v>96</v>
       </c>
     </row>
     <row r="105" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="V105" s="49">
+      <c r="V105" s="38">
         <v>2</v>
       </c>
-      <c r="W105" s="33" t="str">
+      <c r="W105" s="28" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="X105" s="49">
-        <v>1</v>
-      </c>
-      <c r="Y105" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z105" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA105" s="33">
-        <v>1</v>
-      </c>
-      <c r="AB105" s="33">
-        <v>1</v>
-      </c>
-      <c r="AC105" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD105" s="33">
-        <v>1</v>
-      </c>
-      <c r="AE105" s="18">
+      <c r="X105" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y105" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z105" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA105" s="28">
+        <v>1</v>
+      </c>
+      <c r="AB105" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC105" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD105" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE105" s="17">
         <f t="shared" si="2"/>
         <v>218</v>
       </c>
     </row>
     <row r="106" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="V106" s="49">
+      <c r="V106" s="38">
         <v>3</v>
       </c>
-      <c r="W106" s="33" t="str">
+      <c r="W106" s="28" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="X106" s="49">
-        <v>1</v>
-      </c>
-      <c r="Y106" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z106" s="33">
-        <v>1</v>
-      </c>
-      <c r="AA106" s="33">
-        <v>1</v>
-      </c>
-      <c r="AB106" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC106" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD106" s="33">
-        <v>1</v>
-      </c>
-      <c r="AE106" s="18">
+      <c r="X106" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y106" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z106" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA106" s="28">
+        <v>1</v>
+      </c>
+      <c r="AB106" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC106" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD106" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE106" s="17">
         <f t="shared" si="2"/>
         <v>242</v>
       </c>
     </row>
     <row r="107" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="V107" s="49">
+      <c r="V107" s="38">
         <v>4</v>
       </c>
-      <c r="W107" s="33" t="str">
+      <c r="W107" s="28" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="X107" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y107" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z107" s="33">
-        <v>1</v>
-      </c>
-      <c r="AA107" s="33">
-        <v>0</v>
-      </c>
-      <c r="AB107" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC107" s="33">
-        <v>1</v>
-      </c>
-      <c r="AD107" s="33">
-        <v>1</v>
-      </c>
-      <c r="AE107" s="18">
+      <c r="X107" s="38">
+        <v>0</v>
+      </c>
+      <c r="Y107" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z107" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA107" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB107" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC107" s="28">
+        <v>1</v>
+      </c>
+      <c r="AD107" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE107" s="17">
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
     </row>
     <row r="108" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="V108" s="49">
+      <c r="V108" s="38">
         <v>5</v>
       </c>
-      <c r="W108" s="33" t="str">
+      <c r="W108" s="28" t="str">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="X108" s="49">
-        <v>1</v>
-      </c>
-      <c r="Y108" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z108" s="33">
-        <v>1</v>
-      </c>
-      <c r="AA108" s="33">
-        <v>1</v>
-      </c>
-      <c r="AB108" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC108" s="33">
-        <v>1</v>
-      </c>
-      <c r="AD108" s="33">
-        <v>1</v>
-      </c>
-      <c r="AE108" s="18">
+      <c r="X108" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y108" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z108" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA108" s="28">
+        <v>1</v>
+      </c>
+      <c r="AB108" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC108" s="28">
+        <v>1</v>
+      </c>
+      <c r="AD108" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE108" s="17">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
     </row>
     <row r="109" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="V109" s="49">
+      <c r="V109" s="38">
         <v>6</v>
       </c>
-      <c r="W109" s="33" t="str">
+      <c r="W109" s="28" t="str">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="X109" s="49">
-        <v>1</v>
-      </c>
-      <c r="Y109" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z109" s="33">
-        <v>1</v>
-      </c>
-      <c r="AA109" s="33">
-        <v>1</v>
-      </c>
-      <c r="AB109" s="33">
-        <v>1</v>
-      </c>
-      <c r="AC109" s="33">
-        <v>1</v>
-      </c>
-      <c r="AD109" s="33">
-        <v>1</v>
-      </c>
-      <c r="AE109" s="18">
+      <c r="X109" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y109" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z109" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA109" s="28">
+        <v>1</v>
+      </c>
+      <c r="AB109" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC109" s="28">
+        <v>1</v>
+      </c>
+      <c r="AD109" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE109" s="17">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
     </row>
     <row r="110" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="V110" s="49">
+      <c r="V110" s="38">
         <v>7</v>
       </c>
-      <c r="W110" s="33" t="str">
+      <c r="W110" s="28" t="str">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="X110" s="49">
-        <v>1</v>
-      </c>
-      <c r="Y110" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z110" s="33">
-        <v>1</v>
-      </c>
-      <c r="AA110" s="33">
-        <v>0</v>
-      </c>
-      <c r="AB110" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC110" s="33">
-        <v>1</v>
-      </c>
-      <c r="AD110" s="33">
-        <v>0</v>
-      </c>
-      <c r="AE110" s="18">
+      <c r="X110" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y110" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z110" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA110" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB110" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC110" s="28">
+        <v>1</v>
+      </c>
+      <c r="AD110" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE110" s="17">
         <f t="shared" si="2"/>
         <v>228</v>
       </c>
     </row>
     <row r="111" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="V111" s="49">
+      <c r="V111" s="38">
         <v>8</v>
       </c>
-      <c r="W111" s="33" t="str">
+      <c r="W111" s="28" t="str">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="X111" s="49">
-        <v>1</v>
-      </c>
-      <c r="Y111" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z111" s="33">
-        <v>1</v>
-      </c>
-      <c r="AA111" s="33">
-        <v>1</v>
-      </c>
-      <c r="AB111" s="33">
-        <v>1</v>
-      </c>
-      <c r="AC111" s="33">
-        <v>1</v>
-      </c>
-      <c r="AD111" s="33">
-        <v>1</v>
-      </c>
-      <c r="AE111" s="18">
+      <c r="X111" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y111" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z111" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA111" s="28">
+        <v>1</v>
+      </c>
+      <c r="AB111" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC111" s="28">
+        <v>1</v>
+      </c>
+      <c r="AD111" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE111" s="17">
         <f t="shared" si="2"/>
         <v>254</v>
       </c>
     </row>
     <row r="112" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="V112" s="49">
+      <c r="V112" s="38">
         <v>9</v>
       </c>
-      <c r="W112" s="33" t="str">
+      <c r="W112" s="28" t="str">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="X112" s="49">
-        <v>1</v>
-      </c>
-      <c r="Y112" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z112" s="33">
-        <v>1</v>
-      </c>
-      <c r="AA112" s="33">
-        <v>1</v>
-      </c>
-      <c r="AB112" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC112" s="33">
-        <v>1</v>
-      </c>
-      <c r="AD112" s="33">
-        <v>1</v>
-      </c>
-      <c r="AE112" s="18">
+      <c r="X112" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y112" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z112" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA112" s="28">
+        <v>1</v>
+      </c>
+      <c r="AB112" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC112" s="28">
+        <v>1</v>
+      </c>
+      <c r="AD112" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE112" s="17">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
     </row>
     <row r="113" spans="22:31" x14ac:dyDescent="0.15">
-      <c r="V113" s="49">
+      <c r="V113" s="38">
         <v>10</v>
       </c>
-      <c r="W113" s="33" t="str">
+      <c r="W113" s="28" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="X113" s="49">
-        <v>1</v>
-      </c>
-      <c r="Y113" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z113" s="33">
-        <v>1</v>
-      </c>
-      <c r="AA113" s="33">
-        <v>0</v>
-      </c>
-      <c r="AB113" s="33">
-        <v>1</v>
-      </c>
-      <c r="AC113" s="33">
-        <v>1</v>
-      </c>
-      <c r="AD113" s="33">
-        <v>1</v>
-      </c>
-      <c r="AE113" s="18">
+      <c r="X113" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y113" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z113" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA113" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB113" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC113" s="28">
+        <v>1</v>
+      </c>
+      <c r="AD113" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE113" s="17">
         <f t="shared" si="2"/>
         <v>238</v>
       </c>
     </row>
     <row r="114" spans="22:31" x14ac:dyDescent="0.15">
-      <c r="V114" s="49">
+      <c r="V114" s="38">
         <v>11</v>
       </c>
-      <c r="W114" s="33" t="str">
+      <c r="W114" s="28" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-      <c r="X114" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y114" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z114" s="33">
-        <v>1</v>
-      </c>
-      <c r="AA114" s="33">
-        <v>1</v>
-      </c>
-      <c r="AB114" s="33">
-        <v>1</v>
-      </c>
-      <c r="AC114" s="33">
-        <v>1</v>
-      </c>
-      <c r="AD114" s="33">
-        <v>1</v>
-      </c>
-      <c r="AE114" s="18">
+      <c r="X114" s="38">
+        <v>0</v>
+      </c>
+      <c r="Y114" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z114" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA114" s="28">
+        <v>1</v>
+      </c>
+      <c r="AB114" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC114" s="28">
+        <v>1</v>
+      </c>
+      <c r="AD114" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE114" s="17">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
     </row>
     <row r="115" spans="22:31" x14ac:dyDescent="0.15">
-      <c r="V115" s="49">
+      <c r="V115" s="38">
         <v>12</v>
       </c>
-      <c r="W115" s="33" t="str">
+      <c r="W115" s="28" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="X115" s="49">
-        <v>1</v>
-      </c>
-      <c r="Y115" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z115" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA115" s="33">
-        <v>1</v>
-      </c>
-      <c r="AB115" s="33">
-        <v>1</v>
-      </c>
-      <c r="AC115" s="33">
-        <v>1</v>
-      </c>
-      <c r="AD115" s="33">
-        <v>0</v>
-      </c>
-      <c r="AE115" s="18">
+      <c r="X115" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y115" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z115" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA115" s="28">
+        <v>1</v>
+      </c>
+      <c r="AB115" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC115" s="28">
+        <v>1</v>
+      </c>
+      <c r="AD115" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE115" s="17">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
     </row>
     <row r="116" spans="22:31" x14ac:dyDescent="0.15">
-      <c r="V116" s="49">
+      <c r="V116" s="38">
         <v>13</v>
       </c>
-      <c r="W116" s="33" t="str">
+      <c r="W116" s="28" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="X116" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y116" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z116" s="33">
-        <v>1</v>
-      </c>
-      <c r="AA116" s="33">
-        <v>1</v>
-      </c>
-      <c r="AB116" s="33">
-        <v>1</v>
-      </c>
-      <c r="AC116" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD116" s="33">
-        <v>1</v>
-      </c>
-      <c r="AE116" s="18">
+      <c r="X116" s="38">
+        <v>0</v>
+      </c>
+      <c r="Y116" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z116" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA116" s="28">
+        <v>1</v>
+      </c>
+      <c r="AB116" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC116" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD116" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE116" s="17">
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
     </row>
     <row r="117" spans="22:31" x14ac:dyDescent="0.15">
-      <c r="V117" s="49">
+      <c r="V117" s="38">
         <v>14</v>
       </c>
-      <c r="W117" s="33" t="str">
+      <c r="W117" s="28" t="str">
         <f t="shared" si="1"/>
         <v>E</v>
       </c>
-      <c r="X117" s="49">
-        <v>1</v>
-      </c>
-      <c r="Y117" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z117" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA117" s="33">
-        <v>1</v>
-      </c>
-      <c r="AB117" s="33">
-        <v>1</v>
-      </c>
-      <c r="AC117" s="33">
-        <v>1</v>
-      </c>
-      <c r="AD117" s="33">
-        <v>1</v>
-      </c>
-      <c r="AE117" s="18">
+      <c r="X117" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y117" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z117" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA117" s="28">
+        <v>1</v>
+      </c>
+      <c r="AB117" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC117" s="28">
+        <v>1</v>
+      </c>
+      <c r="AD117" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE117" s="17">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
     </row>
     <row r="118" spans="22:31" x14ac:dyDescent="0.15">
-      <c r="V118" s="50">
+      <c r="V118" s="39">
         <v>15</v>
       </c>
-      <c r="W118" s="34" t="str">
+      <c r="W118" s="29" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="X118" s="50">
-        <v>1</v>
-      </c>
-      <c r="Y118" s="34">
-        <v>0</v>
-      </c>
-      <c r="Z118" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA118" s="34">
-        <v>0</v>
-      </c>
-      <c r="AB118" s="34">
-        <v>1</v>
-      </c>
-      <c r="AC118" s="34">
-        <v>1</v>
-      </c>
-      <c r="AD118" s="34">
-        <v>1</v>
-      </c>
-      <c r="AE118" s="19">
+      <c r="X118" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y118" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z118" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA118" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB118" s="29">
+        <v>1</v>
+      </c>
+      <c r="AC118" s="29">
+        <v>1</v>
+      </c>
+      <c r="AD118" s="29">
+        <v>1</v>
+      </c>
+      <c r="AE118" s="18">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>

--- a/I2C27SEG2.xlsx
+++ b/I2C27SEG2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cxwao\Documents\GitHub2\GreenPAK_I2C27SEG2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09A1086-44F6-4761-A072-F320DC3F7BF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E526F135-13CB-40D2-91DB-26C7749CC41D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="900" windowWidth="23565" windowHeight="15075" tabRatio="634" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2130" yWindow="1125" windowWidth="19440" windowHeight="14835" tabRatio="634" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5621AS" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="372">
   <si>
     <t>VDD</t>
     <phoneticPr fontId="1"/>
@@ -1162,6 +1162,154 @@
 [2]:F
 [1]:G
 [0]:D.P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HEX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7seg decode map</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1435,7 +1583,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1610,11 +1758,272 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="60">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2187,8 +2596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:S33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2430,9 +2839,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2">
         <v>12</v>
       </c>
@@ -2577,19 +2984,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2BAE2D-83DF-4F5D-95C8-E4EA3135B38D}">
-  <dimension ref="B2:F16"/>
+  <dimension ref="B2:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="46.5" customWidth="1"/>
+    <col min="8" max="8" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B2" s="43" t="s">
         <v>296</v>
       </c>
@@ -2606,7 +3023,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B3" s="43" t="s">
         <v>301</v>
       </c>
@@ -2623,7 +3040,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B4" s="49" t="s">
         <v>326</v>
       </c>
@@ -2640,7 +3057,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B5" s="43" t="s">
         <v>331</v>
       </c>
@@ -2657,7 +3074,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="49" t="s">
         <v>332</v>
       </c>
@@ -2674,7 +3091,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B7" s="45" t="s">
         <v>306</v>
       </c>
@@ -2691,7 +3108,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
       <c r="D8" s="47"/>
@@ -2702,7 +3119,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
       <c r="D9" s="47"/>
@@ -2713,7 +3130,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" ht="81" x14ac:dyDescent="0.15">
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
       <c r="D10" s="48"/>
@@ -2724,7 +3141,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B11" s="45" t="s">
         <v>319</v>
       </c>
@@ -2741,7 +3158,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B12" s="17"/>
       <c r="C12" s="52"/>
       <c r="D12" s="53"/>
@@ -2752,7 +3169,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B13" s="17"/>
       <c r="C13" s="52"/>
       <c r="D13" s="17"/>
@@ -2763,7 +3180,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="45" t="s">
         <v>308</v>
       </c>
@@ -2780,7 +3197,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="17"/>
       <c r="C15" s="52"/>
       <c r="D15" s="53"/>
@@ -2791,7 +3208,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="18"/>
       <c r="C16" s="23"/>
       <c r="D16" s="18"/>
@@ -2800,6 +3217,1646 @@
       </c>
       <c r="F16" s="57" t="s">
         <v>303</v>
+      </c>
+      <c r="H16" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H18" s="22"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q18" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="S18" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="T18" s="59" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H19" s="23"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="39">
+        <f t="shared" ref="K19:O19" si="0">L19*2</f>
+        <v>128</v>
+      </c>
+      <c r="L19" s="29">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="M19" s="29">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="N19" s="29">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="O19" s="29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="29">
+        <f>Q19*2</f>
+        <v>4</v>
+      </c>
+      <c r="Q19" s="29">
+        <f>R19*2</f>
+        <v>2</v>
+      </c>
+      <c r="R19" s="29">
+        <v>1</v>
+      </c>
+      <c r="S19" s="18"/>
+      <c r="T19" s="58"/>
+    </row>
+    <row r="20" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H20" s="38">
+        <v>0</v>
+      </c>
+      <c r="I20" s="28" t="str">
+        <f>DEC2HEX(H20,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="28">
+        <v>48</v>
+      </c>
+      <c r="K20" s="38">
+        <v>1</v>
+      </c>
+      <c r="L20" s="28">
+        <v>1</v>
+      </c>
+      <c r="M20" s="28">
+        <v>1</v>
+      </c>
+      <c r="N20" s="28">
+        <v>1</v>
+      </c>
+      <c r="O20" s="28">
+        <v>1</v>
+      </c>
+      <c r="P20" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="28">
+        <v>0</v>
+      </c>
+      <c r="R20" s="28">
+        <v>0</v>
+      </c>
+      <c r="S20" s="17">
+        <f>SUMPRODUCT($K$19:$R$19,K20:R20)</f>
+        <v>252</v>
+      </c>
+      <c r="T20" s="45" t="str">
+        <f>DEC2HEX(S20,2)</f>
+        <v>FC</v>
+      </c>
+    </row>
+    <row r="21" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H21" s="38">
+        <v>1</v>
+      </c>
+      <c r="I21" s="28" t="str">
+        <f t="shared" ref="I21:I35" si="1">DEC2HEX(H21,1)</f>
+        <v>1</v>
+      </c>
+      <c r="J21" s="28">
+        <v>49</v>
+      </c>
+      <c r="K21" s="38">
+        <v>0</v>
+      </c>
+      <c r="L21" s="28">
+        <v>1</v>
+      </c>
+      <c r="M21" s="28">
+        <v>1</v>
+      </c>
+      <c r="N21" s="28">
+        <v>0</v>
+      </c>
+      <c r="O21" s="28">
+        <v>0</v>
+      </c>
+      <c r="P21" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="28">
+        <v>0</v>
+      </c>
+      <c r="R21" s="28">
+        <v>0</v>
+      </c>
+      <c r="S21" s="17">
+        <f t="shared" ref="S21:S35" si="2">SUMPRODUCT($K$19:$R$19,K21:R21)</f>
+        <v>96</v>
+      </c>
+      <c r="T21" s="47" t="str">
+        <f t="shared" ref="T21:T55" si="3">DEC2HEX(S21,2)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H22" s="38">
+        <v>2</v>
+      </c>
+      <c r="I22" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J22" s="28">
+        <v>50</v>
+      </c>
+      <c r="K22" s="38">
+        <v>1</v>
+      </c>
+      <c r="L22" s="28">
+        <v>1</v>
+      </c>
+      <c r="M22" s="28">
+        <v>0</v>
+      </c>
+      <c r="N22" s="28">
+        <v>1</v>
+      </c>
+      <c r="O22" s="28">
+        <v>1</v>
+      </c>
+      <c r="P22" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="28">
+        <v>1</v>
+      </c>
+      <c r="R22" s="28">
+        <v>0</v>
+      </c>
+      <c r="S22" s="17">
+        <f t="shared" si="2"/>
+        <v>218</v>
+      </c>
+      <c r="T22" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="23" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H23" s="38">
+        <v>3</v>
+      </c>
+      <c r="I23" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J23" s="28">
+        <v>51</v>
+      </c>
+      <c r="K23" s="38">
+        <v>1</v>
+      </c>
+      <c r="L23" s="28">
+        <v>1</v>
+      </c>
+      <c r="M23" s="28">
+        <v>1</v>
+      </c>
+      <c r="N23" s="28">
+        <v>1</v>
+      </c>
+      <c r="O23" s="28">
+        <v>0</v>
+      </c>
+      <c r="P23" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="28">
+        <v>1</v>
+      </c>
+      <c r="R23" s="28">
+        <v>0</v>
+      </c>
+      <c r="S23" s="17">
+        <f t="shared" si="2"/>
+        <v>242</v>
+      </c>
+      <c r="T23" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>F2</v>
+      </c>
+    </row>
+    <row r="24" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H24" s="38">
+        <v>4</v>
+      </c>
+      <c r="I24" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J24" s="28">
+        <v>52</v>
+      </c>
+      <c r="K24" s="38">
+        <v>0</v>
+      </c>
+      <c r="L24" s="28">
+        <v>1</v>
+      </c>
+      <c r="M24" s="28">
+        <v>1</v>
+      </c>
+      <c r="N24" s="28">
+        <v>0</v>
+      </c>
+      <c r="O24" s="28">
+        <v>0</v>
+      </c>
+      <c r="P24" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="28">
+        <v>1</v>
+      </c>
+      <c r="R24" s="28">
+        <v>0</v>
+      </c>
+      <c r="S24" s="17">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="T24" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H25" s="38">
+        <v>5</v>
+      </c>
+      <c r="I25" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J25" s="28">
+        <v>53</v>
+      </c>
+      <c r="K25" s="38">
+        <v>1</v>
+      </c>
+      <c r="L25" s="28">
+        <v>0</v>
+      </c>
+      <c r="M25" s="28">
+        <v>1</v>
+      </c>
+      <c r="N25" s="28">
+        <v>1</v>
+      </c>
+      <c r="O25" s="28">
+        <v>0</v>
+      </c>
+      <c r="P25" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="28">
+        <v>1</v>
+      </c>
+      <c r="R25" s="28">
+        <v>0</v>
+      </c>
+      <c r="S25" s="17">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="T25" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>B6</v>
+      </c>
+    </row>
+    <row r="26" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H26" s="38">
+        <v>6</v>
+      </c>
+      <c r="I26" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J26" s="28">
+        <v>54</v>
+      </c>
+      <c r="K26" s="38">
+        <v>1</v>
+      </c>
+      <c r="L26" s="28">
+        <v>0</v>
+      </c>
+      <c r="M26" s="28">
+        <v>1</v>
+      </c>
+      <c r="N26" s="28">
+        <v>1</v>
+      </c>
+      <c r="O26" s="28">
+        <v>1</v>
+      </c>
+      <c r="P26" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="28">
+        <v>1</v>
+      </c>
+      <c r="R26" s="28">
+        <v>0</v>
+      </c>
+      <c r="S26" s="17">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="T26" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>BE</v>
+      </c>
+    </row>
+    <row r="27" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H27" s="38">
+        <v>7</v>
+      </c>
+      <c r="I27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J27" s="28">
+        <v>55</v>
+      </c>
+      <c r="K27" s="38">
+        <v>1</v>
+      </c>
+      <c r="L27" s="28">
+        <v>1</v>
+      </c>
+      <c r="M27" s="28">
+        <v>1</v>
+      </c>
+      <c r="N27" s="28">
+        <v>0</v>
+      </c>
+      <c r="O27" s="28">
+        <v>0</v>
+      </c>
+      <c r="P27" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="28">
+        <v>0</v>
+      </c>
+      <c r="R27" s="28">
+        <v>0</v>
+      </c>
+      <c r="S27" s="17">
+        <f t="shared" si="2"/>
+        <v>228</v>
+      </c>
+      <c r="T27" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>E4</v>
+      </c>
+    </row>
+    <row r="28" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H28" s="38">
+        <v>8</v>
+      </c>
+      <c r="I28" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J28" s="28">
+        <v>56</v>
+      </c>
+      <c r="K28" s="38">
+        <v>1</v>
+      </c>
+      <c r="L28" s="28">
+        <v>1</v>
+      </c>
+      <c r="M28" s="28">
+        <v>1</v>
+      </c>
+      <c r="N28" s="28">
+        <v>1</v>
+      </c>
+      <c r="O28" s="28">
+        <v>1</v>
+      </c>
+      <c r="P28" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="28">
+        <v>1</v>
+      </c>
+      <c r="R28" s="28">
+        <v>0</v>
+      </c>
+      <c r="S28" s="17">
+        <f t="shared" si="2"/>
+        <v>254</v>
+      </c>
+      <c r="T28" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>FE</v>
+      </c>
+    </row>
+    <row r="29" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H29" s="39">
+        <v>9</v>
+      </c>
+      <c r="I29" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J29" s="62">
+        <v>57</v>
+      </c>
+      <c r="K29" s="39">
+        <v>1</v>
+      </c>
+      <c r="L29" s="29">
+        <v>1</v>
+      </c>
+      <c r="M29" s="29">
+        <v>1</v>
+      </c>
+      <c r="N29" s="29">
+        <v>1</v>
+      </c>
+      <c r="O29" s="29">
+        <v>0</v>
+      </c>
+      <c r="P29" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="29">
+        <v>1</v>
+      </c>
+      <c r="R29" s="29">
+        <v>0</v>
+      </c>
+      <c r="S29" s="18">
+        <f t="shared" si="2"/>
+        <v>246</v>
+      </c>
+      <c r="T29" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>F6</v>
+      </c>
+    </row>
+    <row r="30" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H30" s="38">
+        <v>10</v>
+      </c>
+      <c r="I30" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="J30" s="28">
+        <v>65</v>
+      </c>
+      <c r="K30" s="38">
+        <v>1</v>
+      </c>
+      <c r="L30" s="28">
+        <v>1</v>
+      </c>
+      <c r="M30" s="28">
+        <v>1</v>
+      </c>
+      <c r="N30" s="28">
+        <v>0</v>
+      </c>
+      <c r="O30" s="28">
+        <v>1</v>
+      </c>
+      <c r="P30" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="28">
+        <v>1</v>
+      </c>
+      <c r="R30" s="28">
+        <v>0</v>
+      </c>
+      <c r="S30" s="17">
+        <f t="shared" si="2"/>
+        <v>238</v>
+      </c>
+      <c r="T30" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="31" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H31" s="38">
+        <v>11</v>
+      </c>
+      <c r="I31" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="J31" s="28">
+        <v>66</v>
+      </c>
+      <c r="K31" s="38">
+        <v>0</v>
+      </c>
+      <c r="L31" s="28">
+        <v>0</v>
+      </c>
+      <c r="M31" s="28">
+        <v>1</v>
+      </c>
+      <c r="N31" s="28">
+        <v>1</v>
+      </c>
+      <c r="O31" s="28">
+        <v>1</v>
+      </c>
+      <c r="P31" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="28">
+        <v>1</v>
+      </c>
+      <c r="R31" s="28">
+        <v>0</v>
+      </c>
+      <c r="S31" s="17">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="T31" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>3E</v>
+      </c>
+    </row>
+    <row r="32" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H32" s="38">
+        <v>12</v>
+      </c>
+      <c r="I32" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+      <c r="J32" s="28">
+        <v>67</v>
+      </c>
+      <c r="K32" s="38">
+        <v>1</v>
+      </c>
+      <c r="L32" s="28">
+        <v>0</v>
+      </c>
+      <c r="M32" s="28">
+        <v>0</v>
+      </c>
+      <c r="N32" s="28">
+        <v>1</v>
+      </c>
+      <c r="O32" s="28">
+        <v>1</v>
+      </c>
+      <c r="P32" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="28">
+        <v>0</v>
+      </c>
+      <c r="R32" s="28">
+        <v>0</v>
+      </c>
+      <c r="S32" s="17">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="T32" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>9C</v>
+      </c>
+    </row>
+    <row r="33" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H33" s="38">
+        <v>13</v>
+      </c>
+      <c r="I33" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="J33" s="28">
+        <v>68</v>
+      </c>
+      <c r="K33" s="38">
+        <v>0</v>
+      </c>
+      <c r="L33" s="28">
+        <v>1</v>
+      </c>
+      <c r="M33" s="28">
+        <v>1</v>
+      </c>
+      <c r="N33" s="28">
+        <v>1</v>
+      </c>
+      <c r="O33" s="28">
+        <v>1</v>
+      </c>
+      <c r="P33" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="28">
+        <v>1</v>
+      </c>
+      <c r="R33" s="28">
+        <v>0</v>
+      </c>
+      <c r="S33" s="17">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="T33" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>7A</v>
+      </c>
+    </row>
+    <row r="34" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H34" s="38">
+        <v>14</v>
+      </c>
+      <c r="I34" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>E</v>
+      </c>
+      <c r="J34" s="28">
+        <v>69</v>
+      </c>
+      <c r="K34" s="38">
+        <v>1</v>
+      </c>
+      <c r="L34" s="28">
+        <v>0</v>
+      </c>
+      <c r="M34" s="28">
+        <v>0</v>
+      </c>
+      <c r="N34" s="28">
+        <v>1</v>
+      </c>
+      <c r="O34" s="28">
+        <v>1</v>
+      </c>
+      <c r="P34" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="28">
+        <v>1</v>
+      </c>
+      <c r="R34" s="28">
+        <v>0</v>
+      </c>
+      <c r="S34" s="17">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="T34" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>9E</v>
+      </c>
+    </row>
+    <row r="35" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H35" s="39">
+        <v>15</v>
+      </c>
+      <c r="I35" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="J35" s="62">
+        <v>70</v>
+      </c>
+      <c r="K35" s="39">
+        <v>1</v>
+      </c>
+      <c r="L35" s="29">
+        <v>0</v>
+      </c>
+      <c r="M35" s="29">
+        <v>0</v>
+      </c>
+      <c r="N35" s="29">
+        <v>0</v>
+      </c>
+      <c r="O35" s="29">
+        <v>1</v>
+      </c>
+      <c r="P35" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="29">
+        <v>1</v>
+      </c>
+      <c r="R35" s="29">
+        <v>0</v>
+      </c>
+      <c r="S35" s="18">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="T35" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>8E</v>
+      </c>
+    </row>
+    <row r="36" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H36" s="40">
+        <v>16</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J36" s="63">
+        <v>71</v>
+      </c>
+      <c r="K36" s="50">
+        <v>1</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>1</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+      <c r="P36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="59">
+        <v>0</v>
+      </c>
+      <c r="S36" s="16">
+        <f t="shared" ref="S36:S55" si="4">SUMPRODUCT($K$19:$R$19,K36:R36)</f>
+        <v>188</v>
+      </c>
+      <c r="T36" s="45" t="str">
+        <f t="shared" si="3"/>
+        <v>BC</v>
+      </c>
+    </row>
+    <row r="37" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H37" s="38">
+        <v>17</v>
+      </c>
+      <c r="I37" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="J37" s="64">
+        <v>72</v>
+      </c>
+      <c r="K37" s="66">
+        <v>0</v>
+      </c>
+      <c r="L37" s="26">
+        <v>0</v>
+      </c>
+      <c r="M37" s="26">
+        <v>1</v>
+      </c>
+      <c r="N37" s="26">
+        <v>0</v>
+      </c>
+      <c r="O37" s="26">
+        <v>1</v>
+      </c>
+      <c r="P37" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="26">
+        <v>1</v>
+      </c>
+      <c r="R37" s="60">
+        <v>0</v>
+      </c>
+      <c r="S37" s="17">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="T37" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>2E</v>
+      </c>
+    </row>
+    <row r="38" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H38" s="38">
+        <v>18</v>
+      </c>
+      <c r="I38" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="J38" s="64">
+        <v>73</v>
+      </c>
+      <c r="K38" s="66">
+        <v>0</v>
+      </c>
+      <c r="L38" s="26">
+        <v>0</v>
+      </c>
+      <c r="M38" s="26">
+        <v>1</v>
+      </c>
+      <c r="N38" s="26">
+        <v>0</v>
+      </c>
+      <c r="O38" s="26">
+        <v>0</v>
+      </c>
+      <c r="P38" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="26">
+        <v>0</v>
+      </c>
+      <c r="R38" s="60">
+        <v>0</v>
+      </c>
+      <c r="S38" s="17">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="T38" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H39" s="38">
+        <v>19</v>
+      </c>
+      <c r="I39" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="J39" s="64">
+        <v>74</v>
+      </c>
+      <c r="K39" s="66">
+        <v>0</v>
+      </c>
+      <c r="L39" s="26">
+        <v>1</v>
+      </c>
+      <c r="M39" s="26">
+        <v>1</v>
+      </c>
+      <c r="N39" s="26">
+        <v>1</v>
+      </c>
+      <c r="O39" s="26">
+        <v>1</v>
+      </c>
+      <c r="P39" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="26">
+        <v>0</v>
+      </c>
+      <c r="R39" s="60">
+        <v>0</v>
+      </c>
+      <c r="S39" s="17">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="T39" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H40" s="38">
+        <v>20</v>
+      </c>
+      <c r="I40" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="J40" s="64">
+        <v>75</v>
+      </c>
+      <c r="K40" s="66">
+        <v>1</v>
+      </c>
+      <c r="L40" s="26">
+        <v>0</v>
+      </c>
+      <c r="M40" s="26">
+        <v>1</v>
+      </c>
+      <c r="N40" s="26">
+        <v>0</v>
+      </c>
+      <c r="O40" s="26">
+        <v>1</v>
+      </c>
+      <c r="P40" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="26">
+        <v>1</v>
+      </c>
+      <c r="R40" s="60">
+        <v>0</v>
+      </c>
+      <c r="S40" s="17">
+        <f t="shared" si="4"/>
+        <v>174</v>
+      </c>
+      <c r="T40" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>AE</v>
+      </c>
+    </row>
+    <row r="41" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H41" s="38">
+        <v>21</v>
+      </c>
+      <c r="I41" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="J41" s="64">
+        <v>76</v>
+      </c>
+      <c r="K41" s="66">
+        <v>0</v>
+      </c>
+      <c r="L41" s="26">
+        <v>0</v>
+      </c>
+      <c r="M41" s="26">
+        <v>0</v>
+      </c>
+      <c r="N41" s="26">
+        <v>1</v>
+      </c>
+      <c r="O41" s="26">
+        <v>1</v>
+      </c>
+      <c r="P41" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="26">
+        <v>0</v>
+      </c>
+      <c r="R41" s="60">
+        <v>0</v>
+      </c>
+      <c r="S41" s="17">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="T41" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>1C</v>
+      </c>
+    </row>
+    <row r="42" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H42" s="38">
+        <v>22</v>
+      </c>
+      <c r="I42" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="J42" s="64">
+        <v>77</v>
+      </c>
+      <c r="K42" s="66">
+        <v>1</v>
+      </c>
+      <c r="L42" s="26">
+        <v>1</v>
+      </c>
+      <c r="M42" s="26">
+        <v>1</v>
+      </c>
+      <c r="N42" s="26">
+        <v>0</v>
+      </c>
+      <c r="O42" s="26">
+        <v>1</v>
+      </c>
+      <c r="P42" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="26">
+        <v>0</v>
+      </c>
+      <c r="R42" s="60">
+        <v>0</v>
+      </c>
+      <c r="S42" s="17">
+        <f t="shared" si="4"/>
+        <v>236</v>
+      </c>
+      <c r="T42" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>EC</v>
+      </c>
+    </row>
+    <row r="43" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H43" s="38">
+        <v>23</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="J43" s="64">
+        <v>78</v>
+      </c>
+      <c r="K43" s="66">
+        <v>0</v>
+      </c>
+      <c r="L43" s="26">
+        <v>0</v>
+      </c>
+      <c r="M43" s="26">
+        <v>1</v>
+      </c>
+      <c r="N43" s="26">
+        <v>0</v>
+      </c>
+      <c r="O43" s="26">
+        <v>1</v>
+      </c>
+      <c r="P43" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="26">
+        <v>1</v>
+      </c>
+      <c r="R43" s="60">
+        <v>0</v>
+      </c>
+      <c r="S43" s="17">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="T43" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>2A</v>
+      </c>
+    </row>
+    <row r="44" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H44" s="38">
+        <v>24</v>
+      </c>
+      <c r="I44" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="J44" s="64">
+        <v>79</v>
+      </c>
+      <c r="K44" s="66">
+        <v>0</v>
+      </c>
+      <c r="L44" s="26">
+        <v>0</v>
+      </c>
+      <c r="M44" s="26">
+        <v>1</v>
+      </c>
+      <c r="N44" s="26">
+        <v>1</v>
+      </c>
+      <c r="O44" s="26">
+        <v>1</v>
+      </c>
+      <c r="P44" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="26">
+        <v>1</v>
+      </c>
+      <c r="R44" s="60">
+        <v>0</v>
+      </c>
+      <c r="S44" s="17">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="T44" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>3A</v>
+      </c>
+    </row>
+    <row r="45" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H45" s="38">
+        <v>25</v>
+      </c>
+      <c r="I45" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="J45" s="64">
+        <v>80</v>
+      </c>
+      <c r="K45" s="66">
+        <v>1</v>
+      </c>
+      <c r="L45" s="26">
+        <v>1</v>
+      </c>
+      <c r="M45" s="26">
+        <v>0</v>
+      </c>
+      <c r="N45" s="26">
+        <v>0</v>
+      </c>
+      <c r="O45" s="26">
+        <v>1</v>
+      </c>
+      <c r="P45" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="26">
+        <v>1</v>
+      </c>
+      <c r="R45" s="60">
+        <v>0</v>
+      </c>
+      <c r="S45" s="17">
+        <f t="shared" si="4"/>
+        <v>206</v>
+      </c>
+      <c r="T45" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>CE</v>
+      </c>
+    </row>
+    <row r="46" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H46" s="38">
+        <v>26</v>
+      </c>
+      <c r="I46" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="J46" s="64">
+        <v>81</v>
+      </c>
+      <c r="K46" s="66">
+        <v>1</v>
+      </c>
+      <c r="L46" s="26">
+        <v>1</v>
+      </c>
+      <c r="M46" s="26">
+        <v>0</v>
+      </c>
+      <c r="N46" s="26">
+        <v>1</v>
+      </c>
+      <c r="O46" s="26">
+        <v>1</v>
+      </c>
+      <c r="P46" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="26">
+        <v>1</v>
+      </c>
+      <c r="R46" s="60">
+        <v>0</v>
+      </c>
+      <c r="S46" s="17">
+        <f t="shared" si="4"/>
+        <v>222</v>
+      </c>
+      <c r="T46" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>DE</v>
+      </c>
+    </row>
+    <row r="47" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H47" s="38">
+        <v>27</v>
+      </c>
+      <c r="I47" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="J47" s="64">
+        <v>82</v>
+      </c>
+      <c r="K47" s="66">
+        <v>0</v>
+      </c>
+      <c r="L47" s="26">
+        <v>0</v>
+      </c>
+      <c r="M47" s="26">
+        <v>0</v>
+      </c>
+      <c r="N47" s="26">
+        <v>0</v>
+      </c>
+      <c r="O47" s="26">
+        <v>1</v>
+      </c>
+      <c r="P47" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="26">
+        <v>1</v>
+      </c>
+      <c r="R47" s="60">
+        <v>0</v>
+      </c>
+      <c r="S47" s="17">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="T47" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>0A</v>
+      </c>
+    </row>
+    <row r="48" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H48" s="38">
+        <v>28</v>
+      </c>
+      <c r="I48" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="J48" s="64">
+        <v>83</v>
+      </c>
+      <c r="K48" s="66">
+        <v>0</v>
+      </c>
+      <c r="L48" s="26">
+        <v>0</v>
+      </c>
+      <c r="M48" s="26">
+        <v>1</v>
+      </c>
+      <c r="N48" s="26">
+        <v>1</v>
+      </c>
+      <c r="O48" s="26">
+        <v>0</v>
+      </c>
+      <c r="P48" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="26">
+        <v>1</v>
+      </c>
+      <c r="R48" s="60">
+        <v>0</v>
+      </c>
+      <c r="S48" s="17">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="T48" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H49" s="38">
+        <v>29</v>
+      </c>
+      <c r="I49" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="J49" s="64">
+        <v>84</v>
+      </c>
+      <c r="K49" s="66">
+        <v>0</v>
+      </c>
+      <c r="L49" s="26">
+        <v>0</v>
+      </c>
+      <c r="M49" s="26">
+        <v>0</v>
+      </c>
+      <c r="N49" s="26">
+        <v>1</v>
+      </c>
+      <c r="O49" s="26">
+        <v>1</v>
+      </c>
+      <c r="P49" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="26">
+        <v>1</v>
+      </c>
+      <c r="R49" s="60">
+        <v>0</v>
+      </c>
+      <c r="S49" s="17">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="T49" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>1E</v>
+      </c>
+    </row>
+    <row r="50" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H50" s="38">
+        <v>30</v>
+      </c>
+      <c r="I50" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="J50" s="64">
+        <v>85</v>
+      </c>
+      <c r="K50" s="66">
+        <v>0</v>
+      </c>
+      <c r="L50" s="26">
+        <v>0</v>
+      </c>
+      <c r="M50" s="26">
+        <v>1</v>
+      </c>
+      <c r="N50" s="26">
+        <v>1</v>
+      </c>
+      <c r="O50" s="26">
+        <v>1</v>
+      </c>
+      <c r="P50" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="26">
+        <v>0</v>
+      </c>
+      <c r="R50" s="60">
+        <v>0</v>
+      </c>
+      <c r="S50" s="17">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="T50" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H51" s="38">
+        <v>31</v>
+      </c>
+      <c r="I51" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="J51" s="64">
+        <v>86</v>
+      </c>
+      <c r="K51" s="66">
+        <v>0</v>
+      </c>
+      <c r="L51" s="26">
+        <v>1</v>
+      </c>
+      <c r="M51" s="26">
+        <v>1</v>
+      </c>
+      <c r="N51" s="26">
+        <v>1</v>
+      </c>
+      <c r="O51" s="26">
+        <v>1</v>
+      </c>
+      <c r="P51" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="26">
+        <v>0</v>
+      </c>
+      <c r="R51" s="60">
+        <v>0</v>
+      </c>
+      <c r="S51" s="17">
+        <f t="shared" si="4"/>
+        <v>124</v>
+      </c>
+      <c r="T51" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>7C</v>
+      </c>
+    </row>
+    <row r="52" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H52" s="38">
+        <v>32</v>
+      </c>
+      <c r="I52" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="J52" s="64">
+        <v>87</v>
+      </c>
+      <c r="K52" s="66">
+        <v>0</v>
+      </c>
+      <c r="L52" s="26">
+        <v>1</v>
+      </c>
+      <c r="M52" s="26">
+        <v>1</v>
+      </c>
+      <c r="N52" s="26">
+        <v>1</v>
+      </c>
+      <c r="O52" s="26">
+        <v>1</v>
+      </c>
+      <c r="P52" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="26">
+        <v>1</v>
+      </c>
+      <c r="R52" s="60">
+        <v>0</v>
+      </c>
+      <c r="S52" s="17">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="T52" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>7E</v>
+      </c>
+    </row>
+    <row r="53" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H53" s="38">
+        <v>33</v>
+      </c>
+      <c r="I53" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="J53" s="64">
+        <v>88</v>
+      </c>
+      <c r="K53" s="66">
+        <v>0</v>
+      </c>
+      <c r="L53" s="26">
+        <v>1</v>
+      </c>
+      <c r="M53" s="26">
+        <v>1</v>
+      </c>
+      <c r="N53" s="26">
+        <v>0</v>
+      </c>
+      <c r="O53" s="26">
+        <v>1</v>
+      </c>
+      <c r="P53" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="26">
+        <v>1</v>
+      </c>
+      <c r="R53" s="60">
+        <v>0</v>
+      </c>
+      <c r="S53" s="17">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="T53" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>6E</v>
+      </c>
+    </row>
+    <row r="54" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H54" s="38">
+        <v>34</v>
+      </c>
+      <c r="I54" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="J54" s="64">
+        <v>89</v>
+      </c>
+      <c r="K54" s="66">
+        <v>0</v>
+      </c>
+      <c r="L54" s="26">
+        <v>1</v>
+      </c>
+      <c r="M54" s="26">
+        <v>1</v>
+      </c>
+      <c r="N54" s="26">
+        <v>1</v>
+      </c>
+      <c r="O54" s="26">
+        <v>0</v>
+      </c>
+      <c r="P54" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="26">
+        <v>1</v>
+      </c>
+      <c r="R54" s="60">
+        <v>0</v>
+      </c>
+      <c r="S54" s="17">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="T54" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H55" s="39">
+        <v>35</v>
+      </c>
+      <c r="I55" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="J55" s="62">
+        <v>90</v>
+      </c>
+      <c r="K55" s="67">
+        <v>1</v>
+      </c>
+      <c r="L55" s="65">
+        <v>1</v>
+      </c>
+      <c r="M55" s="65">
+        <v>0</v>
+      </c>
+      <c r="N55" s="65">
+        <v>1</v>
+      </c>
+      <c r="O55" s="65">
+        <v>1</v>
+      </c>
+      <c r="P55" s="65">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="65">
+        <v>1</v>
+      </c>
+      <c r="R55" s="61">
+        <v>0</v>
+      </c>
+      <c r="S55" s="18">
+        <f t="shared" si="4"/>
+        <v>218</v>
+      </c>
+      <c r="T55" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>DA</v>
       </c>
     </row>
   </sheetData>
@@ -4984,7 +7041,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F4:F117">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="1" operator="lessThan">
       <formula>65536</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4994,10 +7051,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D7C117-B4B2-47C0-B0AF-1CFFFE3B1DA2}">
-  <dimension ref="B2:AE118"/>
+  <dimension ref="B2:AP219"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U112" sqref="U112"/>
+    <sheetView topLeftCell="A77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X113" sqref="X113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5019,7 +7076,9 @@
     <col min="28" max="28" width="2.625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="2.5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="2.875" customWidth="1"/>
+    <col min="32" max="32" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.15">
@@ -5874,7 +7933,7 @@
       </c>
       <c r="F63" s="11"/>
     </row>
-    <row r="65" spans="2:20" s="4" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:42" s="4" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3"/>
       <c r="C65"/>
       <c r="D65" s="11">
@@ -5893,7 +7952,7 @@
       <c r="O65"/>
       <c r="P65"/>
     </row>
-    <row r="66" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:42" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
         <v>22</v>
       </c>
@@ -5952,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:20" s="4" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:42" s="4" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="3"/>
       <c r="C67"/>
       <c r="D67" s="11">
@@ -5971,7 +8030,7 @@
       <c r="O67"/>
       <c r="P67"/>
     </row>
-    <row r="68" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:42" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="3"/>
       <c r="C68" s="11">
         <v>1</v>
@@ -5992,14 +8051,14 @@
       <c r="O68"/>
       <c r="P68"/>
     </row>
-    <row r="69" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D69" s="11"/>
       <c r="F69" s="11"/>
     </row>
-    <row r="71" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D71" s="11"/>
     </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B72" s="3" t="s">
         <v>32</v>
       </c>
@@ -6052,31 +8111,211 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:20" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:42" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D73" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="AE73" s="22"/>
+      <c r="AF73" s="14"/>
+      <c r="AG73" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH73" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI73" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ73" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK73" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL73" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM73" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN73" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="AO73" s="16"/>
+    </row>
+    <row r="74" spans="2:42" x14ac:dyDescent="0.15">
       <c r="C74" s="11">
         <v>1</v>
       </c>
       <c r="E74" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE74" s="23"/>
+      <c r="AF74" s="12"/>
+      <c r="AG74" s="39">
+        <f t="shared" ref="AG74:AK74" si="0">AH74*2</f>
+        <v>128</v>
+      </c>
+      <c r="AH74" s="29">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="AI74" s="29">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="AJ74" s="29">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AK74" s="29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AL74" s="29">
+        <f>AM74*2</f>
+        <v>4</v>
+      </c>
+      <c r="AM74" s="29">
+        <f>AN74*2</f>
+        <v>2</v>
+      </c>
+      <c r="AN74" s="29">
+        <v>1</v>
+      </c>
+      <c r="AO74" s="18"/>
+    </row>
+    <row r="75" spans="2:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D75" s="11">
         <v>1</v>
       </c>
       <c r="F75" s="11"/>
-    </row>
-    <row r="77" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE75" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="28" t="str">
+        <f>DEC2HEX(AE75,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AG75" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH75" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI75" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ75" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK75" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL75" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM75" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN75" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO75" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG75:AN75)</f>
+        <v>252</v>
+      </c>
+      <c r="AP75" s="45" t="str">
+        <f>DEC2HEX(AO75,2)</f>
+        <v>FC</v>
+      </c>
+    </row>
+    <row r="76" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="AE76" s="38">
+        <v>1</v>
+      </c>
+      <c r="AF76" s="28" t="str">
+        <f t="shared" ref="AF76:AF90" si="1">DEC2HEX(AE76,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AG76" s="38">
+        <v>0</v>
+      </c>
+      <c r="AH76" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI76" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ76" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK76" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL76" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM76" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN76" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO76" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG76:AN76)</f>
+        <v>96</v>
+      </c>
+      <c r="AP76" s="47" t="str">
+        <f t="shared" ref="AP76:AP90" si="2">DEC2HEX(AO76,2)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="2:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D77" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="AE77" s="38">
+        <v>2</v>
+      </c>
+      <c r="AF77" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AG77" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH77" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI77" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ77" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK77" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL77" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM77" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN77" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO77" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG77:AN77)</f>
+        <v>218</v>
+      </c>
+      <c r="AP77" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="78" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B78" s="3" t="s">
         <v>27</v>
       </c>
@@ -6128,26 +8367,262 @@
       <c r="T78" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE78" s="38">
+        <v>3</v>
+      </c>
+      <c r="AF78" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AG78" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH78" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI78" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ78" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK78" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL78" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM78" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN78" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO78" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG78:AN78)</f>
+        <v>242</v>
+      </c>
+      <c r="AP78" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>F2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:42" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D79" s="11"/>
-    </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="AE79" s="38">
+        <v>4</v>
+      </c>
+      <c r="AF79" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AG79" s="38">
+        <v>0</v>
+      </c>
+      <c r="AH79" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI79" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ79" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK79" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL79" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM79" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN79" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO79" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG79:AN79)</f>
+        <v>102</v>
+      </c>
+      <c r="AP79" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="2:42" x14ac:dyDescent="0.15">
       <c r="C80" s="11">
         <v>1</v>
       </c>
       <c r="E80" s="11"/>
-    </row>
-    <row r="81" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE80" s="38">
+        <v>5</v>
+      </c>
+      <c r="AF80" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AG80" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH80" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI80" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ80" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK80" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL80" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM80" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN80" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO80" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG80:AN80)</f>
+        <v>182</v>
+      </c>
+      <c r="AP80" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>B6</v>
+      </c>
+    </row>
+    <row r="81" spans="2:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D81" s="11">
         <v>1</v>
       </c>
       <c r="F81" s="11"/>
-    </row>
-    <row r="83" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE81" s="38">
+        <v>6</v>
+      </c>
+      <c r="AF81" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AG81" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH81" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI81" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ81" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK81" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL81" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM81" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN81" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO81" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG81:AN81)</f>
+        <v>190</v>
+      </c>
+      <c r="AP81" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>BE</v>
+      </c>
+    </row>
+    <row r="82" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="AE82" s="38">
+        <v>7</v>
+      </c>
+      <c r="AF82" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AG82" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH82" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI82" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ82" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK82" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL82" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM82" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN82" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO82" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG82:AN82)</f>
+        <v>228</v>
+      </c>
+      <c r="AP82" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>E4</v>
+      </c>
+    </row>
+    <row r="83" spans="2:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D83" s="11"/>
-    </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="AE83" s="38">
+        <v>8</v>
+      </c>
+      <c r="AF83" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AG83" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH83" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI83" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ83" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK83" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL83" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM83" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN83" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO83" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG83:AN83)</f>
+        <v>254</v>
+      </c>
+      <c r="AP83" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>FE</v>
+      </c>
+    </row>
+    <row r="84" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B84" s="3" t="s">
         <v>34</v>
       </c>
@@ -6199,32 +8674,268 @@
       <c r="T84" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="2:20" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE84" s="38">
+        <v>9</v>
+      </c>
+      <c r="AF84" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AG84" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH84" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI84" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ84" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK84" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL84" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM84" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN84" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO84" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG84:AN84)</f>
+        <v>246</v>
+      </c>
+      <c r="AP84" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>F6</v>
+      </c>
+    </row>
+    <row r="85" spans="2:42" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D85" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="AE85" s="38">
+        <v>10</v>
+      </c>
+      <c r="AF85" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="AG85" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH85" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI85" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ85" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK85" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL85" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM85" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN85" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO85" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG85:AN85)</f>
+        <v>238</v>
+      </c>
+      <c r="AP85" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="86" spans="2:42" x14ac:dyDescent="0.15">
       <c r="C86" s="11">
         <v>1</v>
       </c>
       <c r="E86" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE86" s="38">
+        <v>11</v>
+      </c>
+      <c r="AF86" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="AG86" s="38">
+        <v>0</v>
+      </c>
+      <c r="AH86" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI86" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ86" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK86" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL86" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM86" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN86" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO86" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG86:AN86)</f>
+        <v>62</v>
+      </c>
+      <c r="AP86" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>3E</v>
+      </c>
+    </row>
+    <row r="87" spans="2:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D87" s="11">
         <v>1</v>
       </c>
       <c r="F87" s="11"/>
-    </row>
-    <row r="89" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE87" s="38">
+        <v>12</v>
+      </c>
+      <c r="AF87" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+      <c r="AG87" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH87" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI87" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ87" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK87" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL87" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM87" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN87" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO87" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG87:AN87)</f>
+        <v>156</v>
+      </c>
+      <c r="AP87" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>9C</v>
+      </c>
+    </row>
+    <row r="88" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="AE88" s="38">
+        <v>13</v>
+      </c>
+      <c r="AF88" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="AG88" s="38">
+        <v>0</v>
+      </c>
+      <c r="AH88" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI88" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ88" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK88" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL88" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM88" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN88" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO88" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG88:AN88)</f>
+        <v>122</v>
+      </c>
+      <c r="AP88" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>7A</v>
+      </c>
+    </row>
+    <row r="89" spans="2:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D89" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="AE89" s="38">
+        <v>14</v>
+      </c>
+      <c r="AF89" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>E</v>
+      </c>
+      <c r="AG89" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH89" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI89" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ89" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK89" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL89" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM89" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN89" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO89" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG89:AN89)</f>
+        <v>158</v>
+      </c>
+      <c r="AP89" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>9E</v>
+      </c>
+    </row>
+    <row r="90" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B90" s="3" t="s">
         <v>24</v>
       </c>
@@ -6276,30 +8987,69 @@
       <c r="T90" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:20" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE90" s="39">
+        <v>15</v>
+      </c>
+      <c r="AF90" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="AG90" s="39">
+        <v>1</v>
+      </c>
+      <c r="AH90" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI90" s="29">
+        <v>0</v>
+      </c>
+      <c r="AJ90" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK90" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL90" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM90" s="29">
+        <v>1</v>
+      </c>
+      <c r="AN90" s="29">
+        <v>0</v>
+      </c>
+      <c r="AO90" s="18">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG90:AN90)</f>
+        <v>142</v>
+      </c>
+      <c r="AP90" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>8E</v>
+      </c>
+    </row>
+    <row r="91" spans="2:42" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D91" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:42" x14ac:dyDescent="0.15">
       <c r="C92" s="11">
         <v>1</v>
       </c>
       <c r="E92" s="11"/>
     </row>
-    <row r="93" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D93" s="11">
         <v>1</v>
       </c>
       <c r="F93" s="11"/>
     </row>
-    <row r="95" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D95" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B96" s="3" t="s">
         <v>21</v>
       </c>
@@ -6352,752 +9102,2947 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="3:31" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D97" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C98" s="11">
         <v>1</v>
       </c>
       <c r="E98" s="11"/>
     </row>
-    <row r="99" spans="3:31" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D99" s="11"/>
       <c r="F99" s="11"/>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="V101" s="22"/>
-      <c r="W101" s="14"/>
-      <c r="X101" s="40" t="s">
+    <row r="101" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D101" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B102" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C102" s="11">
+        <v>1</v>
+      </c>
+      <c r="E102" s="11">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <f>D101</f>
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <f>E102</f>
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <f>E104</f>
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <f>D105</f>
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <f>C104</f>
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <f>C102</f>
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <f>D103</f>
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <f>F105</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D103" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C104" s="11">
+        <v>1</v>
+      </c>
+      <c r="E104" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D105" s="11">
+        <v>1</v>
+      </c>
+      <c r="F105" s="11"/>
+    </row>
+    <row r="107" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D107" s="11"/>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B108" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C108" s="11">
+        <v>1</v>
+      </c>
+      <c r="E108" s="11">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <f>D107</f>
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <f>E108</f>
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <f>E110</f>
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <f>D111</f>
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <f>C110</f>
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <f>C108</f>
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <f>D109</f>
+        <v>1</v>
+      </c>
+      <c r="O108">
+        <f>F111</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D109" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C110" s="11">
+        <v>1</v>
+      </c>
+      <c r="E110" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D111" s="11"/>
+      <c r="F111" s="11"/>
+    </row>
+    <row r="113" spans="2:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D113" s="11"/>
+    </row>
+    <row r="114" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B114" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="H114">
+        <f>D113</f>
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <f>E114</f>
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <f>E116</f>
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <f>D117</f>
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <f>C116</f>
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <f>C114</f>
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <f>D115</f>
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <f>F117</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:16" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D115" s="11"/>
+    </row>
+    <row r="116" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="C116" s="11"/>
+      <c r="E116" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D117" s="11"/>
+      <c r="F117" s="11"/>
+    </row>
+    <row r="119" spans="2:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D119" s="11"/>
+    </row>
+    <row r="120" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B120" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C120" s="11"/>
+      <c r="E120" s="11">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <f>D119</f>
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <f>E120</f>
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <f>E122</f>
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <f>D123</f>
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <f>C122</f>
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <f>C120</f>
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <f>D121</f>
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <f>F123</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:16" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D121" s="11"/>
+    </row>
+    <row r="122" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="C122" s="11">
+        <v>1</v>
+      </c>
+      <c r="E122" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D123" s="11">
+        <v>1</v>
+      </c>
+      <c r="F123" s="11"/>
+    </row>
+    <row r="125" spans="2:16" s="4" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B125" s="3"/>
+      <c r="C125"/>
+      <c r="D125" s="11">
+        <v>1</v>
+      </c>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125"/>
+      <c r="H125"/>
+      <c r="I125"/>
+      <c r="J125"/>
+      <c r="K125"/>
+      <c r="L125"/>
+      <c r="M125"/>
+      <c r="N125"/>
+      <c r="O125"/>
+      <c r="P125"/>
+    </row>
+    <row r="126" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B126" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C126" s="11">
+        <v>1</v>
+      </c>
+      <c r="D126"/>
+      <c r="E126" s="11"/>
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126">
+        <f>D125</f>
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <f>E126</f>
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <f>E128</f>
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <f>D129</f>
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <f>C128</f>
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <f>C126</f>
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <f>D127</f>
+        <v>1</v>
+      </c>
+      <c r="O126">
+        <f>F129</f>
+        <v>0</v>
+      </c>
+      <c r="P126"/>
+    </row>
+    <row r="127" spans="2:16" s="4" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B127" s="3"/>
+      <c r="C127"/>
+      <c r="D127" s="11">
+        <v>1</v>
+      </c>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="I127"/>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127"/>
+      <c r="N127"/>
+      <c r="O127"/>
+      <c r="P127"/>
+    </row>
+    <row r="128" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B128" s="3"/>
+      <c r="C128" s="11">
+        <v>1</v>
+      </c>
+      <c r="D128"/>
+      <c r="E128" s="11">
+        <v>1</v>
+      </c>
+      <c r="F128"/>
+      <c r="G128"/>
+      <c r="H128"/>
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+      <c r="O128"/>
+      <c r="P128"/>
+    </row>
+    <row r="129" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D129" s="11"/>
+      <c r="F129" s="11"/>
+    </row>
+    <row r="131" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D131" s="11"/>
+    </row>
+    <row r="132" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B132" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C132" s="11">
+        <v>1</v>
+      </c>
+      <c r="E132" s="11"/>
+      <c r="H132">
+        <f>D131</f>
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <f>E132</f>
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <f>E134</f>
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <f>D135</f>
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <f>C134</f>
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <f>C132</f>
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <f>D133</f>
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <f>F135</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D133" s="11"/>
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C134" s="11">
+        <v>1</v>
+      </c>
+      <c r="E134" s="11"/>
+    </row>
+    <row r="135" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D135" s="11">
+        <v>1</v>
+      </c>
+      <c r="F135" s="11"/>
+    </row>
+    <row r="137" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D137" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B138" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C138" s="11">
+        <v>1</v>
+      </c>
+      <c r="E138" s="11">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <f>D137</f>
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <f>E138</f>
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <f>E140</f>
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <f>D141</f>
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <f>C140</f>
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <f>C138</f>
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <f>D139</f>
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <f>F141</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D139" s="11"/>
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C140" s="11">
+        <v>1</v>
+      </c>
+      <c r="E140" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D141" s="11"/>
+      <c r="F141" s="11"/>
+    </row>
+    <row r="143" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D143" s="11"/>
+    </row>
+    <row r="144" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B144" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="H144">
+        <f>D143</f>
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <f>E144</f>
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <f>E146</f>
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <f>D147</f>
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <f>C146</f>
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <f>C144</f>
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <f>D145</f>
+        <v>1</v>
+      </c>
+      <c r="O144">
+        <f>F147</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D145" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C146" s="11">
+        <v>1</v>
+      </c>
+      <c r="E146" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D147" s="11"/>
+      <c r="F147" s="11"/>
+    </row>
+    <row r="149" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D149" s="11"/>
+    </row>
+    <row r="150" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B150" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="H150">
+        <f>D149</f>
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <f>E150</f>
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <f>E152</f>
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <f>D153</f>
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <f>C152</f>
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <f>C150</f>
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <f>D151</f>
+        <v>1</v>
+      </c>
+      <c r="O150">
+        <f>F153</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D151" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C152" s="11">
+        <v>1</v>
+      </c>
+      <c r="E152" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D153" s="11">
+        <v>1</v>
+      </c>
+      <c r="F153" s="11"/>
+    </row>
+    <row r="155" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D155" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B156" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C156" s="11">
+        <v>1</v>
+      </c>
+      <c r="E156" s="11">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <f>D155</f>
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <f>E156</f>
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <f>E158</f>
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <f>D159</f>
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <f>C158</f>
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <f>C156</f>
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <f>D157</f>
+        <v>1</v>
+      </c>
+      <c r="O156">
+        <f>F159</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D157" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C158" s="11">
+        <v>1</v>
+      </c>
+      <c r="E158" s="11"/>
+    </row>
+    <row r="159" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D159" s="11"/>
+      <c r="F159" s="11"/>
+    </row>
+    <row r="161" spans="2:42" s="4" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B161" s="3"/>
+      <c r="C161"/>
+      <c r="D161" s="11">
+        <v>1</v>
+      </c>
+      <c r="E161"/>
+      <c r="F161"/>
+      <c r="G161"/>
+      <c r="H161"/>
+      <c r="I161"/>
+      <c r="J161"/>
+      <c r="K161"/>
+      <c r="L161"/>
+      <c r="M161"/>
+      <c r="N161"/>
+      <c r="O161"/>
+      <c r="P161"/>
+    </row>
+    <row r="162" spans="2:42" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B162" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C162" s="11">
+        <v>1</v>
+      </c>
+      <c r="D162"/>
+      <c r="E162" s="11">
+        <v>1</v>
+      </c>
+      <c r="F162"/>
+      <c r="G162"/>
+      <c r="H162">
+        <f>D161</f>
+        <v>1</v>
+      </c>
+      <c r="I162">
+        <f>E162</f>
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <f>E164</f>
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <f>D165</f>
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <f>C164</f>
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <f>C162</f>
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <f>D163</f>
+        <v>1</v>
+      </c>
+      <c r="O162">
+        <f>F165</f>
+        <v>0</v>
+      </c>
+      <c r="P162"/>
+    </row>
+    <row r="163" spans="2:42" s="4" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B163" s="3"/>
+      <c r="C163"/>
+      <c r="D163" s="11">
+        <v>1</v>
+      </c>
+      <c r="E163"/>
+      <c r="F163"/>
+      <c r="G163"/>
+      <c r="H163"/>
+      <c r="I163"/>
+      <c r="J163"/>
+      <c r="K163"/>
+      <c r="L163"/>
+      <c r="M163"/>
+      <c r="N163"/>
+      <c r="O163"/>
+      <c r="P163"/>
+    </row>
+    <row r="164" spans="2:42" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B164" s="3"/>
+      <c r="C164" s="11">
+        <v>1</v>
+      </c>
+      <c r="D164"/>
+      <c r="E164" s="11"/>
+      <c r="F164"/>
+      <c r="G164"/>
+      <c r="H164"/>
+      <c r="I164"/>
+      <c r="J164"/>
+      <c r="K164"/>
+      <c r="L164"/>
+      <c r="M164"/>
+      <c r="N164"/>
+      <c r="O164"/>
+      <c r="P164"/>
+    </row>
+    <row r="165" spans="2:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D165" s="11">
+        <v>1</v>
+      </c>
+      <c r="F165" s="11"/>
+    </row>
+    <row r="167" spans="2:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D167" s="11"/>
+    </row>
+    <row r="168" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B168" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="H168">
+        <f>D167</f>
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <f>E168</f>
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <f>E170</f>
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <f>D171</f>
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <f>C170</f>
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <f>C168</f>
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <f>D169</f>
+        <v>1</v>
+      </c>
+      <c r="O168">
+        <f>F171</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:42" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D169" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE169" s="22"/>
+      <c r="AF169" s="14"/>
+      <c r="AG169" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="Y101" s="41" t="s">
+      <c r="AH169" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="Z101" s="41" t="s">
+      <c r="AI169" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="AA101" s="41" t="s">
+      <c r="AJ169" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AB101" s="41" t="s">
+      <c r="AK169" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="AC101" s="41" t="s">
+      <c r="AL169" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AD101" s="41" t="s">
+      <c r="AM169" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="AE101" s="16"/>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="V102" s="23"/>
-      <c r="W102" s="12"/>
-      <c r="X102" s="39">
-        <f t="shared" ref="X102:AB102" si="0">Y102*2</f>
+      <c r="AN169" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="AO169" s="16"/>
+    </row>
+    <row r="170" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="C170" s="11">
+        <v>1</v>
+      </c>
+      <c r="E170" s="11"/>
+      <c r="AE170" s="23"/>
+      <c r="AF170" s="12"/>
+      <c r="AG170" s="39">
+        <f t="shared" ref="AG170" si="3">AH170*2</f>
         <v>128</v>
       </c>
-      <c r="Y102" s="29">
-        <f t="shared" si="0"/>
+      <c r="AH170" s="29">
+        <f t="shared" ref="AH170" si="4">AI170*2</f>
         <v>64</v>
       </c>
-      <c r="Z102" s="29">
-        <f t="shared" si="0"/>
+      <c r="AI170" s="29">
+        <f t="shared" ref="AI170" si="5">AJ170*2</f>
         <v>32</v>
       </c>
-      <c r="AA102" s="29">
-        <f t="shared" si="0"/>
+      <c r="AJ170" s="29">
+        <f t="shared" ref="AJ170" si="6">AK170*2</f>
         <v>16</v>
       </c>
-      <c r="AB102" s="29">
-        <f t="shared" si="0"/>
+      <c r="AK170" s="29">
+        <f t="shared" ref="AK170" si="7">AL170*2</f>
         <v>8</v>
       </c>
-      <c r="AC102" s="29">
-        <f>AD102*2</f>
+      <c r="AL170" s="29">
+        <f>AM170*2</f>
         <v>4</v>
       </c>
-      <c r="AD102" s="29">
+      <c r="AM170" s="29">
+        <f>AN170*2</f>
         <v>2</v>
       </c>
-      <c r="AE102" s="18"/>
-    </row>
-    <row r="103" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="V103" s="38">
-        <v>0</v>
-      </c>
-      <c r="W103" s="28" t="str">
-        <f>DEC2HEX(V103,1)</f>
-        <v>0</v>
-      </c>
-      <c r="X103" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y103" s="28">
-        <v>1</v>
-      </c>
-      <c r="Z103" s="28">
-        <v>1</v>
-      </c>
-      <c r="AA103" s="28">
-        <v>1</v>
-      </c>
-      <c r="AB103" s="28">
-        <v>1</v>
-      </c>
-      <c r="AC103" s="28">
-        <v>1</v>
-      </c>
-      <c r="AD103" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE103" s="17">
-        <f>SUMPRODUCT($X$102:$AD$102,X103:AD103)</f>
+      <c r="AN170" s="29">
+        <v>1</v>
+      </c>
+      <c r="AO170" s="18"/>
+    </row>
+    <row r="171" spans="2:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D171" s="11"/>
+      <c r="F171" s="11"/>
+      <c r="AE171" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF171" s="28" t="str">
+        <f>DEC2HEX(AE171,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AG171" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH171" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI171" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ171" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK171" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL171" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM171" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN171" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO171" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG171:AN171)</f>
         <v>252</v>
       </c>
-    </row>
-    <row r="104" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="V104" s="38">
-        <v>1</v>
-      </c>
-      <c r="W104" s="28" t="str">
-        <f t="shared" ref="W104:W118" si="1">DEC2HEX(V104,1)</f>
-        <v>1</v>
-      </c>
-      <c r="X104" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y104" s="28">
-        <v>1</v>
-      </c>
-      <c r="Z104" s="28">
-        <v>1</v>
-      </c>
-      <c r="AA104" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB104" s="28">
-        <v>0</v>
-      </c>
-      <c r="AC104" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD104" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE104" s="17">
-        <f t="shared" ref="AE104:AE118" si="2">SUMPRODUCT($X$102:$AD$102,X104:AD104)</f>
+      <c r="AP171" s="45" t="str">
+        <f>DEC2HEX(AO171,2)</f>
+        <v>FC</v>
+      </c>
+    </row>
+    <row r="172" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="AE172" s="38">
+        <v>1</v>
+      </c>
+      <c r="AF172" s="28" t="str">
+        <f t="shared" ref="AF172:AF186" si="8">DEC2HEX(AE172,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AG172" s="38">
+        <v>0</v>
+      </c>
+      <c r="AH172" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI172" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ172" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK172" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL172" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM172" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN172" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO172" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG172:AN172)</f>
         <v>96</v>
       </c>
-    </row>
-    <row r="105" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="V105" s="38">
+      <c r="AP172" s="47" t="str">
+        <f t="shared" ref="AP172:AP186" si="9">DEC2HEX(AO172,2)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="173" spans="2:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D173" s="11"/>
+      <c r="AE173" s="38">
         <v>2</v>
       </c>
-      <c r="W105" s="28" t="str">
-        <f t="shared" si="1"/>
+      <c r="AF173" s="28" t="str">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="X105" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y105" s="28">
-        <v>1</v>
-      </c>
-      <c r="Z105" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA105" s="28">
-        <v>1</v>
-      </c>
-      <c r="AB105" s="28">
-        <v>1</v>
-      </c>
-      <c r="AC105" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD105" s="28">
-        <v>1</v>
-      </c>
-      <c r="AE105" s="17">
-        <f t="shared" si="2"/>
+      <c r="AG173" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH173" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI173" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ173" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK173" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL173" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM173" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN173" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO173" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG173:AN173)</f>
         <v>218</v>
       </c>
-    </row>
-    <row r="106" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="V106" s="38">
+      <c r="AP173" s="47" t="str">
+        <f t="shared" si="9"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="174" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B174" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C174" s="11">
+        <v>1</v>
+      </c>
+      <c r="E174" s="11"/>
+      <c r="H174">
+        <f>D173</f>
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <f>E174</f>
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <f>E176</f>
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <f>D177</f>
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <f>C176</f>
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <f>C174</f>
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <f>D175</f>
+        <v>1</v>
+      </c>
+      <c r="O174">
+        <f>F177</f>
+        <v>0</v>
+      </c>
+      <c r="AE174" s="38">
         <v>3</v>
       </c>
-      <c r="W106" s="28" t="str">
-        <f t="shared" si="1"/>
+      <c r="AF174" s="28" t="str">
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="X106" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y106" s="28">
-        <v>1</v>
-      </c>
-      <c r="Z106" s="28">
-        <v>1</v>
-      </c>
-      <c r="AA106" s="28">
-        <v>1</v>
-      </c>
-      <c r="AB106" s="28">
-        <v>0</v>
-      </c>
-      <c r="AC106" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD106" s="28">
-        <v>1</v>
-      </c>
-      <c r="AE106" s="17">
-        <f t="shared" si="2"/>
+      <c r="AG174" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH174" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI174" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ174" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK174" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL174" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM174" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN174" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO174" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG174:AN174)</f>
         <v>242</v>
       </c>
-    </row>
-    <row r="107" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="V107" s="38">
+      <c r="AP174" s="47" t="str">
+        <f t="shared" si="9"/>
+        <v>F2</v>
+      </c>
+    </row>
+    <row r="175" spans="2:42" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D175" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE175" s="38">
         <v>4</v>
       </c>
-      <c r="W107" s="28" t="str">
-        <f t="shared" si="1"/>
+      <c r="AF175" s="28" t="str">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="X107" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y107" s="28">
-        <v>1</v>
-      </c>
-      <c r="Z107" s="28">
-        <v>1</v>
-      </c>
-      <c r="AA107" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB107" s="28">
-        <v>0</v>
-      </c>
-      <c r="AC107" s="28">
-        <v>1</v>
-      </c>
-      <c r="AD107" s="28">
-        <v>1</v>
-      </c>
-      <c r="AE107" s="17">
-        <f t="shared" si="2"/>
+      <c r="AG175" s="38">
+        <v>0</v>
+      </c>
+      <c r="AH175" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI175" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ175" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK175" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL175" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM175" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN175" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO175" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG175:AN175)</f>
         <v>102</v>
       </c>
-    </row>
-    <row r="108" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="V108" s="38">
+      <c r="AP175" s="47" t="str">
+        <f t="shared" si="9"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="176" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="C176" s="11"/>
+      <c r="E176" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE176" s="38">
         <v>5</v>
       </c>
-      <c r="W108" s="28" t="str">
-        <f t="shared" si="1"/>
+      <c r="AF176" s="28" t="str">
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="X108" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y108" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z108" s="28">
-        <v>1</v>
-      </c>
-      <c r="AA108" s="28">
-        <v>1</v>
-      </c>
-      <c r="AB108" s="28">
-        <v>0</v>
-      </c>
-      <c r="AC108" s="28">
-        <v>1</v>
-      </c>
-      <c r="AD108" s="28">
-        <v>1</v>
-      </c>
-      <c r="AE108" s="17">
-        <f t="shared" si="2"/>
+      <c r="AG176" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH176" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI176" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ176" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK176" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL176" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM176" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN176" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO176" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG176:AN176)</f>
         <v>182</v>
       </c>
-    </row>
-    <row r="109" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="V109" s="38">
+      <c r="AP176" s="47" t="str">
+        <f t="shared" si="9"/>
+        <v>B6</v>
+      </c>
+    </row>
+    <row r="177" spans="2:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D177" s="11">
+        <v>1</v>
+      </c>
+      <c r="F177" s="11"/>
+      <c r="AE177" s="38">
         <v>6</v>
       </c>
-      <c r="W109" s="28" t="str">
-        <f t="shared" si="1"/>
+      <c r="AF177" s="28" t="str">
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="X109" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y109" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z109" s="28">
-        <v>1</v>
-      </c>
-      <c r="AA109" s="28">
-        <v>1</v>
-      </c>
-      <c r="AB109" s="28">
-        <v>1</v>
-      </c>
-      <c r="AC109" s="28">
-        <v>1</v>
-      </c>
-      <c r="AD109" s="28">
-        <v>1</v>
-      </c>
-      <c r="AE109" s="17">
-        <f t="shared" si="2"/>
+      <c r="AG177" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH177" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI177" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ177" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK177" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL177" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM177" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN177" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO177" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG177:AN177)</f>
         <v>190</v>
       </c>
-    </row>
-    <row r="110" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="V110" s="38">
+      <c r="AP177" s="47" t="str">
+        <f t="shared" si="9"/>
+        <v>BE</v>
+      </c>
+    </row>
+    <row r="178" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="AE178" s="38">
         <v>7</v>
       </c>
-      <c r="W110" s="28" t="str">
-        <f t="shared" si="1"/>
+      <c r="AF178" s="28" t="str">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="X110" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y110" s="28">
-        <v>1</v>
-      </c>
-      <c r="Z110" s="28">
-        <v>1</v>
-      </c>
-      <c r="AA110" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB110" s="28">
-        <v>0</v>
-      </c>
-      <c r="AC110" s="28">
-        <v>1</v>
-      </c>
-      <c r="AD110" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE110" s="17">
-        <f t="shared" si="2"/>
+      <c r="AG178" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH178" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI178" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ178" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK178" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL178" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM178" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN178" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO178" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG178:AN178)</f>
         <v>228</v>
       </c>
-    </row>
-    <row r="111" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="V111" s="38">
+      <c r="AP178" s="47" t="str">
+        <f t="shared" si="9"/>
+        <v>E4</v>
+      </c>
+    </row>
+    <row r="179" spans="2:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D179" s="11"/>
+      <c r="AE179" s="38">
         <v>8</v>
       </c>
-      <c r="W111" s="28" t="str">
-        <f t="shared" si="1"/>
+      <c r="AF179" s="28" t="str">
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="X111" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y111" s="28">
-        <v>1</v>
-      </c>
-      <c r="Z111" s="28">
-        <v>1</v>
-      </c>
-      <c r="AA111" s="28">
-        <v>1</v>
-      </c>
-      <c r="AB111" s="28">
-        <v>1</v>
-      </c>
-      <c r="AC111" s="28">
-        <v>1</v>
-      </c>
-      <c r="AD111" s="28">
-        <v>1</v>
-      </c>
-      <c r="AE111" s="17">
-        <f t="shared" si="2"/>
+      <c r="AG179" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH179" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI179" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ179" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK179" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL179" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM179" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN179" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO179" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG179:AN179)</f>
         <v>254</v>
       </c>
-    </row>
-    <row r="112" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="V112" s="38">
+      <c r="AP179" s="47" t="str">
+        <f t="shared" si="9"/>
+        <v>FE</v>
+      </c>
+    </row>
+    <row r="180" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B180" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C180" s="11">
+        <v>1</v>
+      </c>
+      <c r="E180" s="11"/>
+      <c r="H180">
+        <f>D179</f>
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <f>E180</f>
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <f>E182</f>
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <f>D183</f>
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <f>C182</f>
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <f>C180</f>
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <f>D181</f>
+        <v>1</v>
+      </c>
+      <c r="O180">
+        <f>F183</f>
+        <v>0</v>
+      </c>
+      <c r="AE180" s="38">
         <v>9</v>
       </c>
-      <c r="W112" s="28" t="str">
-        <f t="shared" si="1"/>
+      <c r="AF180" s="28" t="str">
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="X112" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y112" s="28">
-        <v>1</v>
-      </c>
-      <c r="Z112" s="28">
-        <v>1</v>
-      </c>
-      <c r="AA112" s="28">
-        <v>1</v>
-      </c>
-      <c r="AB112" s="28">
-        <v>0</v>
-      </c>
-      <c r="AC112" s="28">
-        <v>1</v>
-      </c>
-      <c r="AD112" s="28">
-        <v>1</v>
-      </c>
-      <c r="AE112" s="17">
-        <f t="shared" si="2"/>
+      <c r="AG180" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH180" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI180" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ180" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK180" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL180" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM180" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN180" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO180" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG180:AN180)</f>
         <v>246</v>
       </c>
-    </row>
-    <row r="113" spans="22:31" x14ac:dyDescent="0.15">
-      <c r="V113" s="38">
+      <c r="AP180" s="47" t="str">
+        <f t="shared" si="9"/>
+        <v>F6</v>
+      </c>
+    </row>
+    <row r="181" spans="2:42" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D181" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE181" s="38">
         <v>10</v>
       </c>
-      <c r="W113" s="28" t="str">
-        <f t="shared" si="1"/>
+      <c r="AF181" s="28" t="str">
+        <f t="shared" si="8"/>
         <v>A</v>
       </c>
-      <c r="X113" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y113" s="28">
-        <v>1</v>
-      </c>
-      <c r="Z113" s="28">
-        <v>1</v>
-      </c>
-      <c r="AA113" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB113" s="28">
-        <v>1</v>
-      </c>
-      <c r="AC113" s="28">
-        <v>1</v>
-      </c>
-      <c r="AD113" s="28">
-        <v>1</v>
-      </c>
-      <c r="AE113" s="17">
-        <f t="shared" si="2"/>
+      <c r="AG181" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH181" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI181" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ181" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK181" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL181" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM181" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN181" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO181" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG181:AN181)</f>
         <v>238</v>
       </c>
-    </row>
-    <row r="114" spans="22:31" x14ac:dyDescent="0.15">
-      <c r="V114" s="38">
+      <c r="AP181" s="47" t="str">
+        <f t="shared" si="9"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="182" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="C182" s="11">
+        <v>1</v>
+      </c>
+      <c r="E182" s="11"/>
+      <c r="AE182" s="38">
         <v>11</v>
       </c>
-      <c r="W114" s="28" t="str">
-        <f t="shared" si="1"/>
+      <c r="AF182" s="28" t="str">
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
-      <c r="X114" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y114" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z114" s="28">
-        <v>1</v>
-      </c>
-      <c r="AA114" s="28">
-        <v>1</v>
-      </c>
-      <c r="AB114" s="28">
-        <v>1</v>
-      </c>
-      <c r="AC114" s="28">
-        <v>1</v>
-      </c>
-      <c r="AD114" s="28">
-        <v>1</v>
-      </c>
-      <c r="AE114" s="17">
-        <f t="shared" si="2"/>
+      <c r="AG182" s="38">
+        <v>0</v>
+      </c>
+      <c r="AH182" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI182" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ182" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK182" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL182" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM182" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN182" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO182" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG182:AN182)</f>
         <v>62</v>
       </c>
-    </row>
-    <row r="115" spans="22:31" x14ac:dyDescent="0.15">
-      <c r="V115" s="38">
+      <c r="AP182" s="47" t="str">
+        <f t="shared" si="9"/>
+        <v>3E</v>
+      </c>
+    </row>
+    <row r="183" spans="2:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D183" s="11">
+        <v>1</v>
+      </c>
+      <c r="F183" s="11"/>
+      <c r="AE183" s="38">
         <v>12</v>
       </c>
-      <c r="W115" s="28" t="str">
-        <f t="shared" si="1"/>
+      <c r="AF183" s="28" t="str">
+        <f t="shared" si="8"/>
         <v>C</v>
       </c>
-      <c r="X115" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y115" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z115" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA115" s="28">
-        <v>1</v>
-      </c>
-      <c r="AB115" s="28">
-        <v>1</v>
-      </c>
-      <c r="AC115" s="28">
-        <v>1</v>
-      </c>
-      <c r="AD115" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE115" s="17">
-        <f t="shared" si="2"/>
+      <c r="AG183" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH183" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI183" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ183" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK183" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL183" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM183" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN183" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO183" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG183:AN183)</f>
         <v>156</v>
       </c>
-    </row>
-    <row r="116" spans="22:31" x14ac:dyDescent="0.15">
-      <c r="V116" s="38">
+      <c r="AP183" s="47" t="str">
+        <f t="shared" si="9"/>
+        <v>9C</v>
+      </c>
+    </row>
+    <row r="184" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="AE184" s="38">
         <v>13</v>
       </c>
-      <c r="W116" s="28" t="str">
-        <f t="shared" si="1"/>
+      <c r="AF184" s="28" t="str">
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
-      <c r="X116" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y116" s="28">
-        <v>1</v>
-      </c>
-      <c r="Z116" s="28">
-        <v>1</v>
-      </c>
-      <c r="AA116" s="28">
-        <v>1</v>
-      </c>
-      <c r="AB116" s="28">
-        <v>1</v>
-      </c>
-      <c r="AC116" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD116" s="28">
-        <v>1</v>
-      </c>
-      <c r="AE116" s="17">
-        <f t="shared" si="2"/>
+      <c r="AG184" s="38">
+        <v>0</v>
+      </c>
+      <c r="AH184" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI184" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ184" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK184" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL184" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM184" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN184" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO184" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG184:AN184)</f>
         <v>122</v>
       </c>
-    </row>
-    <row r="117" spans="22:31" x14ac:dyDescent="0.15">
-      <c r="V117" s="38">
+      <c r="AP184" s="47" t="str">
+        <f t="shared" si="9"/>
+        <v>7A</v>
+      </c>
+    </row>
+    <row r="185" spans="2:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D185" s="11"/>
+      <c r="AE185" s="38">
         <v>14</v>
       </c>
-      <c r="W117" s="28" t="str">
-        <f t="shared" si="1"/>
+      <c r="AF185" s="28" t="str">
+        <f t="shared" si="8"/>
         <v>E</v>
       </c>
-      <c r="X117" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y117" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z117" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA117" s="28">
-        <v>1</v>
-      </c>
-      <c r="AB117" s="28">
-        <v>1</v>
-      </c>
-      <c r="AC117" s="28">
-        <v>1</v>
-      </c>
-      <c r="AD117" s="28">
-        <v>1</v>
-      </c>
-      <c r="AE117" s="17">
-        <f t="shared" si="2"/>
+      <c r="AG185" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH185" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI185" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ185" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK185" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL185" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM185" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN185" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO185" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG185:AN185)</f>
         <v>158</v>
       </c>
-    </row>
-    <row r="118" spans="22:31" x14ac:dyDescent="0.15">
-      <c r="V118" s="39">
+      <c r="AP185" s="47" t="str">
+        <f t="shared" si="9"/>
+        <v>9E</v>
+      </c>
+    </row>
+    <row r="186" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B186" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C186" s="11"/>
+      <c r="E186" s="11"/>
+      <c r="H186">
+        <f>D185</f>
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <f>E186</f>
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <f>E188</f>
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <f>D189</f>
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <f>C188</f>
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <f>C186</f>
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <f>D187</f>
+        <v>0</v>
+      </c>
+      <c r="O186">
+        <f>F189</f>
+        <v>0</v>
+      </c>
+      <c r="AE186" s="39">
         <v>15</v>
       </c>
-      <c r="W118" s="29" t="str">
-        <f t="shared" si="1"/>
+      <c r="AF186" s="29" t="str">
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
-      <c r="X118" s="39">
-        <v>1</v>
-      </c>
-      <c r="Y118" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z118" s="29">
-        <v>0</v>
-      </c>
-      <c r="AA118" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB118" s="29">
-        <v>1</v>
-      </c>
-      <c r="AC118" s="29">
-        <v>1</v>
-      </c>
-      <c r="AD118" s="29">
-        <v>1</v>
-      </c>
-      <c r="AE118" s="18">
-        <f t="shared" si="2"/>
+      <c r="AG186" s="39">
+        <v>1</v>
+      </c>
+      <c r="AH186" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI186" s="29">
+        <v>0</v>
+      </c>
+      <c r="AJ186" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK186" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL186" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM186" s="29">
+        <v>1</v>
+      </c>
+      <c r="AN186" s="29">
+        <v>0</v>
+      </c>
+      <c r="AO186" s="18">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG186:AN186)</f>
         <v>142</v>
+      </c>
+      <c r="AP186" s="48" t="str">
+        <f t="shared" si="9"/>
+        <v>8E</v>
+      </c>
+    </row>
+    <row r="187" spans="2:42" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D187" s="11"/>
+    </row>
+    <row r="188" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="C188" s="11">
+        <v>1</v>
+      </c>
+      <c r="E188" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="2:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D189" s="11">
+        <v>1</v>
+      </c>
+      <c r="F189" s="11"/>
+    </row>
+    <row r="191" spans="2:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D191" s="11"/>
+    </row>
+    <row r="192" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B192" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C192" s="11">
+        <v>1</v>
+      </c>
+      <c r="E192" s="11">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <f>D191</f>
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <f>E192</f>
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <f>E194</f>
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <f>D195</f>
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <f>C194</f>
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <f>C192</f>
+        <v>1</v>
+      </c>
+      <c r="N192">
+        <f>D193</f>
+        <v>0</v>
+      </c>
+      <c r="O192">
+        <f>F195</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:42" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D193" s="11"/>
+    </row>
+    <row r="194" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="C194" s="11">
+        <v>1</v>
+      </c>
+      <c r="E194" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="2:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D195" s="11">
+        <v>1</v>
+      </c>
+      <c r="F195" s="11"/>
+    </row>
+    <row r="197" spans="2:42" s="4" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B197" s="3"/>
+      <c r="C197"/>
+      <c r="D197" s="11"/>
+      <c r="E197"/>
+      <c r="F197"/>
+      <c r="G197"/>
+      <c r="H197"/>
+      <c r="I197"/>
+      <c r="J197"/>
+      <c r="K197"/>
+      <c r="L197"/>
+      <c r="M197"/>
+      <c r="N197"/>
+      <c r="O197"/>
+      <c r="P197"/>
+    </row>
+    <row r="198" spans="2:42" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B198" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C198" s="11">
+        <v>1</v>
+      </c>
+      <c r="D198"/>
+      <c r="E198" s="11">
+        <v>1</v>
+      </c>
+      <c r="F198"/>
+      <c r="G198"/>
+      <c r="H198">
+        <f>D197</f>
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <f>E198</f>
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <f>E200</f>
+        <v>1</v>
+      </c>
+      <c r="K198">
+        <f>D201</f>
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <f>C200</f>
+        <v>1</v>
+      </c>
+      <c r="M198">
+        <f>C198</f>
+        <v>1</v>
+      </c>
+      <c r="N198">
+        <f>D199</f>
+        <v>1</v>
+      </c>
+      <c r="O198">
+        <f>F201</f>
+        <v>0</v>
+      </c>
+      <c r="P198"/>
+    </row>
+    <row r="199" spans="2:42" s="4" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B199" s="3"/>
+      <c r="C199"/>
+      <c r="D199" s="11">
+        <v>1</v>
+      </c>
+      <c r="E199"/>
+      <c r="F199"/>
+      <c r="G199"/>
+      <c r="H199"/>
+      <c r="I199"/>
+      <c r="J199"/>
+      <c r="K199"/>
+      <c r="L199"/>
+      <c r="M199"/>
+      <c r="N199"/>
+      <c r="O199"/>
+      <c r="P199"/>
+    </row>
+    <row r="200" spans="2:42" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B200" s="3"/>
+      <c r="C200" s="11">
+        <v>1</v>
+      </c>
+      <c r="D200"/>
+      <c r="E200" s="11">
+        <v>1</v>
+      </c>
+      <c r="F200"/>
+      <c r="G200"/>
+      <c r="H200"/>
+      <c r="I200"/>
+      <c r="J200"/>
+      <c r="K200"/>
+      <c r="L200"/>
+      <c r="M200"/>
+      <c r="N200"/>
+      <c r="O200"/>
+      <c r="P200"/>
+    </row>
+    <row r="201" spans="2:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D201" s="11">
+        <v>1</v>
+      </c>
+      <c r="F201" s="11"/>
+    </row>
+    <row r="203" spans="2:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D203" s="11"/>
+    </row>
+    <row r="204" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B204" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C204" s="11">
+        <v>1</v>
+      </c>
+      <c r="E204" s="11">
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <f>D203</f>
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <f>E204</f>
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <f>E206</f>
+        <v>1</v>
+      </c>
+      <c r="K204">
+        <f>D207</f>
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <f>C206</f>
+        <v>1</v>
+      </c>
+      <c r="M204">
+        <f>C204</f>
+        <v>1</v>
+      </c>
+      <c r="N204">
+        <f>D205</f>
+        <v>1</v>
+      </c>
+      <c r="O204">
+        <f>F207</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:42" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D205" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE205" s="22"/>
+      <c r="AF205" s="14"/>
+      <c r="AG205" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH205" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI205" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ205" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK205" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL205" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM205" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN205" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="AO205" s="16"/>
+    </row>
+    <row r="206" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="C206" s="11">
+        <v>1</v>
+      </c>
+      <c r="E206" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE206" s="23"/>
+      <c r="AF206" s="12"/>
+      <c r="AG206" s="39">
+        <f t="shared" ref="AG206" si="10">AH206*2</f>
+        <v>128</v>
+      </c>
+      <c r="AH206" s="29">
+        <f t="shared" ref="AH206" si="11">AI206*2</f>
+        <v>64</v>
+      </c>
+      <c r="AI206" s="29">
+        <f t="shared" ref="AI206" si="12">AJ206*2</f>
+        <v>32</v>
+      </c>
+      <c r="AJ206" s="29">
+        <f t="shared" ref="AJ206" si="13">AK206*2</f>
+        <v>16</v>
+      </c>
+      <c r="AK206" s="29">
+        <f t="shared" ref="AK206" si="14">AL206*2</f>
+        <v>8</v>
+      </c>
+      <c r="AL206" s="29">
+        <f>AM206*2</f>
+        <v>4</v>
+      </c>
+      <c r="AM206" s="29">
+        <f>AN206*2</f>
+        <v>2</v>
+      </c>
+      <c r="AN206" s="29">
+        <v>1</v>
+      </c>
+      <c r="AO206" s="18"/>
+    </row>
+    <row r="207" spans="2:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D207" s="11"/>
+      <c r="F207" s="11"/>
+      <c r="AE207" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF207" s="28" t="str">
+        <f>DEC2HEX(AE207,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AG207" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH207" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI207" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ207" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK207" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL207" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM207" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN207" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO207" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG207:AN207)</f>
+        <v>252</v>
+      </c>
+      <c r="AP207" s="45" t="str">
+        <f>DEC2HEX(AO207,2)</f>
+        <v>FC</v>
+      </c>
+    </row>
+    <row r="208" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="AE208" s="38">
+        <v>1</v>
+      </c>
+      <c r="AF208" s="28" t="str">
+        <f t="shared" ref="AF208:AF219" si="15">DEC2HEX(AE208,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AG208" s="38">
+        <v>0</v>
+      </c>
+      <c r="AH208" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI208" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ208" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK208" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL208" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM208" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN208" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO208" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG208:AN208)</f>
+        <v>96</v>
+      </c>
+      <c r="AP208" s="47" t="str">
+        <f t="shared" ref="AP208:AP219" si="16">DEC2HEX(AO208,2)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="209" spans="2:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D209" s="11"/>
+      <c r="AE209" s="38">
+        <v>2</v>
+      </c>
+      <c r="AF209" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="AG209" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH209" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI209" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ209" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK209" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL209" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM209" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN209" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO209" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG209:AN209)</f>
+        <v>218</v>
+      </c>
+      <c r="AP209" s="47" t="str">
+        <f t="shared" si="16"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="210" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B210" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C210" s="11">
+        <v>1</v>
+      </c>
+      <c r="E210" s="11">
+        <v>1</v>
+      </c>
+      <c r="H210">
+        <f>D209</f>
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <f>E210</f>
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <f>E212</f>
+        <v>1</v>
+      </c>
+      <c r="K210">
+        <f>D213</f>
+        <v>1</v>
+      </c>
+      <c r="L210">
+        <f>C212</f>
+        <v>0</v>
+      </c>
+      <c r="M210">
+        <f>C210</f>
+        <v>1</v>
+      </c>
+      <c r="N210">
+        <f>D211</f>
+        <v>1</v>
+      </c>
+      <c r="O210">
+        <f>F213</f>
+        <v>0</v>
+      </c>
+      <c r="AE210" s="38">
+        <v>3</v>
+      </c>
+      <c r="AF210" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AG210" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH210" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI210" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ210" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK210" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL210" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM210" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN210" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO210" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG210:AN210)</f>
+        <v>242</v>
+      </c>
+      <c r="AP210" s="47" t="str">
+        <f t="shared" si="16"/>
+        <v>F2</v>
+      </c>
+    </row>
+    <row r="211" spans="2:42" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D211" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE211" s="38">
+        <v>4</v>
+      </c>
+      <c r="AF211" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="AG211" s="38">
+        <v>0</v>
+      </c>
+      <c r="AH211" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI211" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ211" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK211" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL211" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM211" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN211" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO211" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG211:AN211)</f>
+        <v>102</v>
+      </c>
+      <c r="AP211" s="47" t="str">
+        <f t="shared" si="16"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="212" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="C212" s="11"/>
+      <c r="E212" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE212" s="38">
+        <v>5</v>
+      </c>
+      <c r="AF212" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="AG212" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH212" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI212" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ212" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK212" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL212" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM212" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN212" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO212" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG212:AN212)</f>
+        <v>182</v>
+      </c>
+      <c r="AP212" s="47" t="str">
+        <f t="shared" si="16"/>
+        <v>B6</v>
+      </c>
+    </row>
+    <row r="213" spans="2:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D213" s="11">
+        <v>1</v>
+      </c>
+      <c r="F213" s="11"/>
+      <c r="AE213" s="38">
+        <v>6</v>
+      </c>
+      <c r="AF213" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="AG213" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH213" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI213" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ213" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK213" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL213" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM213" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN213" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO213" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG213:AN213)</f>
+        <v>190</v>
+      </c>
+      <c r="AP213" s="47" t="str">
+        <f t="shared" si="16"/>
+        <v>BE</v>
+      </c>
+    </row>
+    <row r="214" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="AE214" s="38">
+        <v>7</v>
+      </c>
+      <c r="AF214" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="AG214" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH214" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI214" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ214" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK214" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL214" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM214" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN214" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO214" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG214:AN214)</f>
+        <v>228</v>
+      </c>
+      <c r="AP214" s="47" t="str">
+        <f t="shared" si="16"/>
+        <v>E4</v>
+      </c>
+    </row>
+    <row r="215" spans="2:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D215" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE215" s="38">
+        <v>8</v>
+      </c>
+      <c r="AF215" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="AG215" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH215" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI215" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ215" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK215" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL215" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM215" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN215" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO215" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG215:AN215)</f>
+        <v>254</v>
+      </c>
+      <c r="AP215" s="47" t="str">
+        <f t="shared" si="16"/>
+        <v>FE</v>
+      </c>
+    </row>
+    <row r="216" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B216" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C216" s="11"/>
+      <c r="E216" s="11">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <f>D215</f>
+        <v>1</v>
+      </c>
+      <c r="I216">
+        <f>E216</f>
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <f>E218</f>
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <f>D219</f>
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <f>C218</f>
+        <v>1</v>
+      </c>
+      <c r="M216">
+        <f>C216</f>
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <f>D217</f>
+        <v>1</v>
+      </c>
+      <c r="O216">
+        <f>F219</f>
+        <v>0</v>
+      </c>
+      <c r="AE216" s="38">
+        <v>9</v>
+      </c>
+      <c r="AF216" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="AG216" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH216" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI216" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ216" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK216" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL216" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM216" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN216" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO216" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG216:AN216)</f>
+        <v>246</v>
+      </c>
+      <c r="AP216" s="47" t="str">
+        <f t="shared" si="16"/>
+        <v>F6</v>
+      </c>
+    </row>
+    <row r="217" spans="2:42" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D217" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE217" s="38">
+        <v>10</v>
+      </c>
+      <c r="AF217" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v>A</v>
+      </c>
+      <c r="AG217" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH217" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI217" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ217" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK217" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL217" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM217" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN217" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO217" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG217:AN217)</f>
+        <v>238</v>
+      </c>
+      <c r="AP217" s="47" t="str">
+        <f t="shared" si="16"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="218" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="C218" s="11">
+        <v>1</v>
+      </c>
+      <c r="E218" s="11"/>
+      <c r="AE218" s="38">
+        <v>11</v>
+      </c>
+      <c r="AF218" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v>B</v>
+      </c>
+      <c r="AG218" s="38">
+        <v>0</v>
+      </c>
+      <c r="AH218" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI218" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ218" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK218" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL218" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM218" s="28">
+        <v>1</v>
+      </c>
+      <c r="AN218" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO218" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG218:AN218)</f>
+        <v>62</v>
+      </c>
+      <c r="AP218" s="47" t="str">
+        <f t="shared" si="16"/>
+        <v>3E</v>
+      </c>
+    </row>
+    <row r="219" spans="2:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D219" s="11">
+        <v>1</v>
+      </c>
+      <c r="F219" s="11"/>
+      <c r="AE219" s="38">
+        <v>12</v>
+      </c>
+      <c r="AF219" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v>C</v>
+      </c>
+      <c r="AG219" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH219" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI219" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ219" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK219" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL219" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM219" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN219" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO219" s="17">
+        <f>SUMPRODUCT($AG$74:$AN$74,AG219:AN219)</f>
+        <v>156</v>
+      </c>
+      <c r="AP219" s="47" t="str">
+        <f t="shared" si="16"/>
+        <v>9C</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C4:F10 C100:F1048576">
-    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
+  <conditionalFormatting sqref="C4:F10 C100:F100 C220:F1048576">
+    <cfRule type="cellIs" dxfId="58" priority="72" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:F16">
-    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="71" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:F64">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="63" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:F22">
-    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:F28">
-    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="69" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:F34">
-    <cfRule type="cellIs" dxfId="20" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="68" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:F40">
-    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="67" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:F46">
-    <cfRule type="cellIs" dxfId="18" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:F52">
-    <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="65" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:F58">
-    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="64" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:T60 H65:T96">
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q59:T64">
-    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="61" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C95:F95 C99 E99:F99 F98 C98:D98 C97:F97 C96:D96 F96">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="55" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65:F70">
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="60" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:F76">
-    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="59" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:F82">
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C85:F88 C83 E83:F83 D84:F84">
-    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="57" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89:F89 C91:F91 C90:D90 F90 C93:F94 C92:D92 F92">
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q95:T99">
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="53" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C84">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="46" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C101:F106 C196:F196">
+    <cfRule type="cellIs" dxfId="32" priority="41" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107:F112">
+    <cfRule type="cellIs" dxfId="31" priority="40" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C155:F160">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C113:F118">
+    <cfRule type="cellIs" dxfId="29" priority="39" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119:F124">
+    <cfRule type="cellIs" dxfId="28" priority="38" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C125:F130">
+    <cfRule type="cellIs" dxfId="27" priority="37" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131:F136">
+    <cfRule type="cellIs" dxfId="26" priority="36" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C137:F142">
+    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C143:F148">
+    <cfRule type="cellIs" dxfId="24" priority="34" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149:F154">
+    <cfRule type="cellIs" dxfId="23" priority="33" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H102:T156 H161:T192">
+    <cfRule type="cellIs" dxfId="22" priority="31" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q155:T160">
+    <cfRule type="cellIs" dxfId="21" priority="30" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C191:F191 C195 E195:F195 F194 C194:D194 C193:F193 C192:D192 F192">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C161:F166">
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167:F172">
+    <cfRule type="cellIs" dxfId="18" priority="28" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C173:F178">
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C181:F184 C179 E179:F179 D180:F180">
+    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C185:F185 C187:F187 C186:D186 F186 C189:F190 C188:D188 F188">
+    <cfRule type="cellIs" dxfId="15" priority="25" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q191:T195">
+    <cfRule type="cellIs" dxfId="14" priority="23" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D179">
+    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C180">
+    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E186">
+    <cfRule type="cellIs" dxfId="11" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E188">
+    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D195">
+    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E194">
+    <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E192">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H197:T219">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C197:F202">
+    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C203:F208">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C209:F214">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C217:F219 C215 E215:F215 D216:F216">
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D215">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C216">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/I2C27SEG2.xlsx
+++ b/I2C27SEG2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cxwao\Documents\GitHub2\GreenPAK_I2C27SEG2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B6E5C3-7DA9-47F3-9F58-686026F7E0FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB86370B-CE15-4F9D-9DEB-F12C695B9BA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="1125" windowWidth="19440" windowHeight="14835" tabRatio="634" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14355" yWindow="0" windowWidth="13575" windowHeight="14835" tabRatio="634" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5621AS" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="380">
   <si>
     <t>VDD</t>
     <phoneticPr fontId="1"/>
@@ -226,15 +226,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OUT3/INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>INOUT0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OUT4/SPK</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -975,14 +967,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PU100kΩ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PD10kΩ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>address</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1027,10 +1011,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[3:0]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0x75</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1056,25 +1036,6 @@
   </si>
   <si>
     <t>[7]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Interrupt flag mode select
-1:Interrupt flag mode , 1:OUT3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Speaker mode select
-1:Speaker ON, 0:OUT4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GPIO control
-[4]:OUT4 0:output Low, 1:output &amp; Pull-up
-[3]:OUT3 0:output Low, 1:output &amp; Pull-up
-[2]:INOUT2 0:input &amp; Pull-down, 1:output High
-[1]:INOUT1 0:input &amp; Pull-down, 1:output High
-[0]:INOUT1 0:input &amp; Pull-down, 1:output High</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1335,6 +1296,53 @@
   <si>
     <t>Software reset
 0x02:reset</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PU1MΩ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I/O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OUT3/BEEP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OUT4/INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Interrupt flag mode select
+0:OUT4, 1:Interrupt flag mode , </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Speaker mode select
+0:OUT3 1:Speaker ON,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPO, GPIO control
+[4]:OUT4 0:output Low, 1:output &amp; Pull-up
+[3]:OUT3 0:output Low, 1:output &amp; Pull-up
+[2]:INOUT2 0:input &amp; Pull-up, 1:output Low
+[1]:INOUT1 0:input &amp; Pull-up, 1:output Low
+[0]:INOUT0 0:input &amp; Pull-up, 1:output Low</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2298,8 +2306,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139212</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>158948</xdr:rowOff>
     </xdr:to>
@@ -2658,10 +2666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:S33"/>
+  <dimension ref="B2:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2669,28 +2677,30 @@
     <col min="2" max="2" width="10.125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="8" max="8" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B2" s="13" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -2700,21 +2710,27 @@
       <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="E3" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="I3" s="5">
         <v>20</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="22" t="s">
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>27</v>
       </c>
@@ -2725,22 +2741,28 @@
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>372</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I4" s="2">
         <v>19</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="J4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="K4" s="23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
@@ -2751,22 +2773,28 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>372</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I5" s="2">
         <v>18</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="J5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="K5" s="23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
         <v>29</v>
       </c>
@@ -2777,22 +2805,28 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="G6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I6" s="2">
         <v>17</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="J6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="K6" s="23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
         <v>41</v>
       </c>
@@ -2803,22 +2837,28 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="G7" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I7" s="2">
         <v>16</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="J7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="K7" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
         <v>36</v>
       </c>
@@ -2829,24 +2869,30 @@
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>372</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I8" s="2">
         <v>15</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="J8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="K8" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>12</v>
@@ -2855,20 +2901,26 @@
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+        <v>373</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I9" s="2">
         <v>14</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="J9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="K9" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B10" s="40" t="s">
         <v>14</v>
       </c>
@@ -2878,21 +2930,27 @@
       <c r="D10" s="2">
         <v>8</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="E10" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I10" s="2">
         <v>13</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="J10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="K10" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B11" s="40" t="s">
         <v>16</v>
       </c>
@@ -2902,21 +2960,27 @@
       <c r="D11" s="2">
         <v>9</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I11" s="2">
         <v>12</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="J11" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="K11" s="23" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B12" s="10" t="s">
-        <v>54</v>
+        <v>376</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>18</v>
@@ -2925,117 +2989,128 @@
         <v>10</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="I12" s="6">
         <v>11</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="J12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="K12" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B14" s="13"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="Q18" s="4"/>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="F17" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.15">
       <c r="S18" s="4"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="U18" s="4"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="I26">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="K26">
         <v>7</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
         <v>50</v>
       </c>
-      <c r="K26" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="I27">
+      <c r="M26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="K27">
         <v>6</v>
       </c>
-      <c r="J27" t="s">
+      <c r="L27" t="s">
+        <v>287</v>
+      </c>
+      <c r="M27" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28" t="s">
+        <v>51</v>
+      </c>
+      <c r="M28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29" t="s">
+        <v>286</v>
+      </c>
+      <c r="M29" t="s">
         <v>289</v>
       </c>
-      <c r="K27" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="I28">
-        <v>5</v>
-      </c>
-      <c r="J28" t="s">
-        <v>51</v>
-      </c>
-      <c r="K28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="I29">
-        <v>4</v>
-      </c>
-      <c r="J29" t="s">
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30" t="s">
+        <v>285</v>
+      </c>
+      <c r="M30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31" t="s">
+        <v>53</v>
+      </c>
+      <c r="M31" t="s">
         <v>288</v>
       </c>
-      <c r="K29" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="I30">
-        <v>3</v>
-      </c>
-      <c r="J30" t="s">
-        <v>287</v>
-      </c>
-      <c r="K30" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31" t="s">
-        <v>53</v>
-      </c>
-      <c r="K31" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32" t="s">
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
         <v>52</v>
       </c>
-      <c r="K32" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.15">
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
-        <v>55</v>
-      </c>
-      <c r="K33" t="s">
-        <v>290</v>
+      <c r="M32" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M33" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3051,7 +3126,7 @@
   <dimension ref="B2:T60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3072,36 +3147,36 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="42" t="s">
         <v>296</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" s="43" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C3" s="48" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="E3" s="43" t="s">
         <v>309</v>
       </c>
-      <c r="D3" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>314</v>
-      </c>
       <c r="F3" s="52" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
@@ -3109,10 +3184,10 @@
       <c r="C4" s="50"/>
       <c r="D4" s="51"/>
       <c r="E4" s="45" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
@@ -3120,27 +3195,27 @@
       <c r="C5" s="50"/>
       <c r="D5" s="15"/>
       <c r="E5" s="45" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" s="43" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
@@ -3148,10 +3223,10 @@
       <c r="C7" s="50"/>
       <c r="D7" s="51"/>
       <c r="E7" s="45" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
@@ -3159,27 +3234,27 @@
       <c r="C8" s="21"/>
       <c r="D8" s="16"/>
       <c r="E8" s="46" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B9" s="43" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>315</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="27" x14ac:dyDescent="0.15">
@@ -3187,10 +3262,10 @@
       <c r="C10" s="45"/>
       <c r="D10" s="45"/>
       <c r="E10" s="41" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="27" x14ac:dyDescent="0.15">
@@ -3198,10 +3273,10 @@
       <c r="C11" s="45"/>
       <c r="D11" s="45"/>
       <c r="E11" s="41" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>316</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="81" x14ac:dyDescent="0.15">
@@ -3209,102 +3284,102 @@
       <c r="C12" s="45"/>
       <c r="D12" s="46"/>
       <c r="E12" s="41" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>317</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B13" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="C13" s="41" t="s">
-        <v>302</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>305</v>
-      </c>
       <c r="E13" s="41" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B14" s="47" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B15" s="41" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B16" s="47" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="27" x14ac:dyDescent="0.15">
       <c r="B17" s="41" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F17" s="44" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.15">
       <c r="H18" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.15">
@@ -3333,13 +3408,13 @@
         <v>35</v>
       </c>
       <c r="R19" s="39" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="S19" s="43" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="T19" s="57" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.15">
@@ -3383,7 +3458,7 @@
     <row r="21" spans="2:20" x14ac:dyDescent="0.15">
       <c r="H21" s="50"/>
       <c r="I21" s="24" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="J21" s="24">
         <v>32</v>
@@ -3424,7 +3499,7 @@
     <row r="22" spans="2:20" x14ac:dyDescent="0.15">
       <c r="H22" s="50"/>
       <c r="I22" s="24" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="J22" s="24">
         <v>45</v>
@@ -3465,7 +3540,7 @@
     <row r="23" spans="2:20" x14ac:dyDescent="0.15">
       <c r="H23" s="50"/>
       <c r="I23" s="24" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="J23" s="24">
         <v>126</v>
@@ -3506,7 +3581,7 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.15">
       <c r="H24" s="50"/>
       <c r="I24" s="24" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="J24" s="24">
         <v>95</v>
@@ -4253,7 +4328,7 @@
         <v>16</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="J41" s="61">
         <v>71</v>
@@ -4296,7 +4371,7 @@
         <v>17</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="J42" s="62">
         <v>72</v>
@@ -4339,7 +4414,7 @@
         <v>18</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="J43" s="62">
         <v>73</v>
@@ -4382,7 +4457,7 @@
         <v>19</v>
       </c>
       <c r="I44" s="24" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="J44" s="62">
         <v>74</v>
@@ -4425,7 +4500,7 @@
         <v>20</v>
       </c>
       <c r="I45" s="24" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="J45" s="62">
         <v>75</v>
@@ -4468,7 +4543,7 @@
         <v>21</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="J46" s="62">
         <v>76</v>
@@ -4511,7 +4586,7 @@
         <v>22</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="J47" s="62">
         <v>77</v>
@@ -4554,7 +4629,7 @@
         <v>23</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="J48" s="62">
         <v>78</v>
@@ -4597,7 +4672,7 @@
         <v>24</v>
       </c>
       <c r="I49" s="24" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="J49" s="62">
         <v>79</v>
@@ -4640,7 +4715,7 @@
         <v>25</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="J50" s="62">
         <v>80</v>
@@ -4683,7 +4758,7 @@
         <v>26</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="J51" s="62">
         <v>81</v>
@@ -4726,7 +4801,7 @@
         <v>27</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="J52" s="62">
         <v>82</v>
@@ -4769,7 +4844,7 @@
         <v>28</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="J53" s="62">
         <v>83</v>
@@ -4812,7 +4887,7 @@
         <v>29</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="J54" s="62">
         <v>84</v>
@@ -4855,7 +4930,7 @@
         <v>30</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="J55" s="62">
         <v>85</v>
@@ -4898,7 +4973,7 @@
         <v>31</v>
       </c>
       <c r="I56" s="24" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="J56" s="62">
         <v>86</v>
@@ -4941,7 +5016,7 @@
         <v>32</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="J57" s="62">
         <v>87</v>
@@ -4984,7 +5059,7 @@
         <v>33</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="J58" s="62">
         <v>88</v>
@@ -5027,7 +5102,7 @@
         <v>34</v>
       </c>
       <c r="I59" s="24" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="J59" s="62">
         <v>89</v>
@@ -5070,7 +5145,7 @@
         <v>35</v>
       </c>
       <c r="I60" s="63" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="J60" s="60">
         <v>90</v>
@@ -5132,7 +5207,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E2" s="29" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F2" s="30">
         <f>25000000/2</f>
@@ -5141,16 +5216,16 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
@@ -5162,10 +5237,10 @@
         <v>27.499999999999936</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4" s="32">
         <f>FLOOR($F$2/2/C4+0.5,1)-1</f>
@@ -5181,10 +5256,10 @@
         <v>29.135235094880553</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F5" s="32">
         <f t="shared" ref="F5:F68" si="1">FLOOR($F$2/2/C5+0.5,1)-1</f>
@@ -5200,10 +5275,10 @@
         <v>30.867706328507687</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F6" s="32">
         <f t="shared" si="1"/>
@@ -5219,10 +5294,10 @@
         <v>32.703195662574757</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F7" s="32">
         <f t="shared" si="1"/>
@@ -5238,10 +5313,10 @@
         <v>34.647828872108938</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F8" s="32">
         <f t="shared" si="1"/>
@@ -5257,10 +5332,10 @@
         <v>36.708095989675869</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F9" s="32">
         <f t="shared" si="1"/>
@@ -5276,10 +5351,10 @@
         <v>38.890872965260037</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10" s="32">
         <f t="shared" si="1"/>
@@ -5295,10 +5370,10 @@
         <v>41.203444614108662</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F11" s="32">
         <f t="shared" si="1"/>
@@ -5314,10 +5389,10 @@
         <v>43.6535289291254</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F12" s="32">
         <f t="shared" si="1"/>
@@ -5333,10 +5408,10 @@
         <v>46.249302838954215</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="32">
         <f t="shared" si="1"/>
@@ -5352,10 +5427,10 @@
         <v>48.999429497718573</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F14" s="32">
         <f t="shared" si="1"/>
@@ -5371,10 +5446,10 @@
         <v>51.913087197493049</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F15" s="32">
         <f t="shared" si="1"/>
@@ -5390,10 +5465,10 @@
         <v>54.999999999999901</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16" s="32">
         <f t="shared" si="1"/>
@@ -5409,10 +5484,10 @@
         <v>58.270470189761134</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F17" s="32">
         <f t="shared" si="1"/>
@@ -5428,10 +5503,10 @@
         <v>61.735412657015402</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F18" s="32">
         <f t="shared" si="1"/>
@@ -5447,10 +5522,10 @@
         <v>65.406391325149542</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F19" s="32">
         <f t="shared" si="1"/>
@@ -5466,10 +5541,10 @@
         <v>69.295657744217905</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F20" s="32">
         <f t="shared" si="1"/>
@@ -5485,10 +5560,10 @@
         <v>73.416191979351765</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F21" s="32">
         <f t="shared" si="1"/>
@@ -5504,10 +5579,10 @@
         <v>77.781745930520103</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F22" s="32">
         <f t="shared" si="1"/>
@@ -5523,10 +5598,10 @@
         <v>82.406889228217352</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F23" s="32">
         <f t="shared" si="1"/>
@@ -5542,10 +5617,10 @@
         <v>87.307057858250843</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F24" s="32">
         <f t="shared" si="1"/>
@@ -5561,10 +5636,10 @@
         <v>92.498605677908472</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F25" s="32">
         <f t="shared" si="1"/>
@@ -5580,10 +5655,10 @@
         <v>97.998858995437189</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F26" s="32">
         <f t="shared" si="1"/>
@@ -5599,10 +5674,10 @@
         <v>103.82617439498615</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F27" s="32">
         <f t="shared" si="1"/>
@@ -5618,10 +5693,10 @@
         <v>109.99999999999987</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F28" s="32">
         <f t="shared" si="1"/>
@@ -5637,10 +5712,10 @@
         <v>116.54094037952235</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F29" s="32">
         <f t="shared" si="1"/>
@@ -5656,10 +5731,10 @@
         <v>123.4708253140309</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F30" s="32">
         <f t="shared" si="1"/>
@@ -5675,10 +5750,10 @@
         <v>130.8127826502992</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F31" s="32">
         <f t="shared" si="1"/>
@@ -5694,10 +5769,10 @@
         <v>138.59131548843592</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F32" s="32">
         <f t="shared" si="1"/>
@@ -5713,10 +5788,10 @@
         <v>146.83238395870364</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F33" s="32">
         <f t="shared" si="1"/>
@@ -5732,10 +5807,10 @@
         <v>155.56349186104032</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F34" s="32">
         <f t="shared" si="1"/>
@@ -5751,10 +5826,10 @@
         <v>164.81377845643482</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F35" s="32">
         <f t="shared" si="1"/>
@@ -5770,10 +5845,10 @@
         <v>174.6141157165018</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F36" s="32">
         <f t="shared" si="1"/>
@@ -5789,10 +5864,10 @@
         <v>184.99721135581706</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F37" s="32">
         <f t="shared" si="1"/>
@@ -5808,10 +5883,10 @@
         <v>195.99771799087449</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F38" s="32">
         <f t="shared" si="1"/>
@@ -5827,10 +5902,10 @@
         <v>207.65234878997242</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F39" s="32">
         <f t="shared" si="1"/>
@@ -5846,10 +5921,10 @@
         <v>219.99999999999986</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F40" s="32">
         <f t="shared" si="1"/>
@@ -5865,10 +5940,10 @@
         <v>233.08188075904482</v>
       </c>
       <c r="D41" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E41" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F41" s="32">
         <f t="shared" si="1"/>
@@ -5884,10 +5959,10 @@
         <v>246.94165062806192</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F42" s="32">
         <f t="shared" si="1"/>
@@ -5903,10 +5978,10 @@
         <v>261.62556530059851</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E43" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F43" s="32">
         <f t="shared" si="1"/>
@@ -5922,10 +5997,10 @@
         <v>277.18263097687196</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F44" s="32">
         <f t="shared" si="1"/>
@@ -5941,10 +6016,10 @@
         <v>293.66476791740746</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E45" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F45" s="32">
         <f t="shared" si="1"/>
@@ -5960,10 +6035,10 @@
         <v>311.12698372208081</v>
       </c>
       <c r="D46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E46" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F46" s="32">
         <f t="shared" si="1"/>
@@ -5979,10 +6054,10 @@
         <v>329.62755691286986</v>
       </c>
       <c r="D47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F47" s="32">
         <f t="shared" si="1"/>
@@ -5998,10 +6073,10 @@
         <v>349.22823143300383</v>
       </c>
       <c r="D48" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E48" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F48" s="32">
         <f t="shared" si="1"/>
@@ -6017,10 +6092,10 @@
         <v>369.99442271163434</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F49" s="32">
         <f t="shared" si="1"/>
@@ -6036,10 +6111,10 @@
         <v>391.99543598174927</v>
       </c>
       <c r="D50" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E50" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F50" s="32">
         <f t="shared" si="1"/>
@@ -6055,10 +6130,10 @@
         <v>415.30469757994513</v>
       </c>
       <c r="D51" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F51" s="32">
         <f t="shared" si="1"/>
@@ -6073,10 +6148,10 @@
         <v>440</v>
       </c>
       <c r="D52" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E52" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F52" s="32">
         <f t="shared" si="1"/>
@@ -6092,10 +6167,10 @@
         <v>466.16376151808993</v>
       </c>
       <c r="D53" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F53" s="32">
         <f t="shared" si="1"/>
@@ -6111,10 +6186,10 @@
         <v>493.88330125612413</v>
       </c>
       <c r="D54" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E54" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F54" s="32">
         <f t="shared" si="1"/>
@@ -6130,10 +6205,10 @@
         <v>523.25113060119736</v>
       </c>
       <c r="D55" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E55" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F55" s="32">
         <f t="shared" si="1"/>
@@ -6149,10 +6224,10 @@
         <v>554.36526195374427</v>
       </c>
       <c r="D56" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E56" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F56" s="32">
         <f t="shared" si="1"/>
@@ -6168,10 +6243,10 @@
         <v>587.32953583481526</v>
       </c>
       <c r="D57" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E57" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F57" s="32">
         <f t="shared" si="1"/>
@@ -6187,10 +6262,10 @@
         <v>622.25396744416196</v>
       </c>
       <c r="D58" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E58" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F58" s="32">
         <f t="shared" si="1"/>
@@ -6206,10 +6281,10 @@
         <v>659.25511382574007</v>
       </c>
       <c r="D59" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E59" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F59" s="32">
         <f t="shared" si="1"/>
@@ -6225,10 +6300,10 @@
         <v>698.456462866008</v>
       </c>
       <c r="D60" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E60" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F60" s="32">
         <f t="shared" si="1"/>
@@ -6244,10 +6319,10 @@
         <v>739.98884542326903</v>
       </c>
       <c r="D61" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E61" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F61" s="32">
         <f t="shared" si="1"/>
@@ -6263,10 +6338,10 @@
         <v>783.99087196349888</v>
       </c>
       <c r="D62" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E62" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F62" s="32">
         <f t="shared" si="1"/>
@@ -6282,10 +6357,10 @@
         <v>830.6093951598906</v>
       </c>
       <c r="D63" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E63" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F63" s="32">
         <f t="shared" si="1"/>
@@ -6301,10 +6376,10 @@
         <v>880.00000000000034</v>
       </c>
       <c r="D64" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E64" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F64" s="32">
         <f t="shared" si="1"/>
@@ -6320,10 +6395,10 @@
         <v>932.3275230361802</v>
       </c>
       <c r="D65" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E65" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F65" s="32">
         <f t="shared" si="1"/>
@@ -6339,10 +6414,10 @@
         <v>987.7666025122486</v>
       </c>
       <c r="D66" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F66" s="32">
         <f t="shared" si="1"/>
@@ -6358,10 +6433,10 @@
         <v>1046.5022612023949</v>
       </c>
       <c r="D67" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E67" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F67" s="32">
         <f t="shared" si="1"/>
@@ -6377,10 +6452,10 @@
         <v>1108.7305239074888</v>
       </c>
       <c r="D68" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E68" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F68" s="32">
         <f t="shared" si="1"/>
@@ -6396,10 +6471,10 @@
         <v>1174.6590716696307</v>
       </c>
       <c r="D69" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E69" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F69" s="32">
         <f t="shared" ref="F69:F91" si="3">FLOOR($F$2/2/C69+0.5,1)-1</f>
@@ -6415,10 +6490,10 @@
         <v>1244.5079348883241</v>
       </c>
       <c r="D70" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E70" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F70" s="32">
         <f t="shared" si="3"/>
@@ -6434,10 +6509,10 @@
         <v>1318.5102276514804</v>
       </c>
       <c r="D71" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E71" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F71" s="32">
         <f t="shared" si="3"/>
@@ -6453,10 +6528,10 @@
         <v>1396.9129257320162</v>
       </c>
       <c r="D72" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E72" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F72" s="32">
         <f t="shared" si="3"/>
@@ -6472,10 +6547,10 @@
         <v>1479.9776908465383</v>
       </c>
       <c r="D73" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E73" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F73" s="32">
         <f t="shared" si="3"/>
@@ -6491,10 +6566,10 @@
         <v>1567.981743926998</v>
       </c>
       <c r="D74" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E74" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F74" s="32">
         <f t="shared" si="3"/>
@@ -6510,10 +6585,10 @@
         <v>1661.2187903197814</v>
       </c>
       <c r="D75" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E75" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F75" s="32">
         <f t="shared" si="3"/>
@@ -6529,10 +6604,10 @@
         <v>1760.0000000000009</v>
       </c>
       <c r="D76" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E76" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F76" s="32">
         <f t="shared" si="3"/>
@@ -6548,10 +6623,10 @@
         <v>1864.6550460723606</v>
       </c>
       <c r="D77" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E77" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F77" s="32">
         <f t="shared" si="3"/>
@@ -6567,10 +6642,10 @@
         <v>1975.5332050244976</v>
       </c>
       <c r="D78" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E78" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F78" s="32">
         <f t="shared" si="3"/>
@@ -6586,10 +6661,10 @@
         <v>2093.0045224047904</v>
       </c>
       <c r="D79" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E79" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F79" s="32">
         <f t="shared" si="3"/>
@@ -6605,10 +6680,10 @@
         <v>2217.4610478149784</v>
       </c>
       <c r="D80" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E80" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F80" s="32">
         <f t="shared" si="3"/>
@@ -6624,10 +6699,10 @@
         <v>2349.3181433392624</v>
       </c>
       <c r="D81" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E81" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F81" s="32">
         <f t="shared" si="3"/>
@@ -6643,10 +6718,10 @@
         <v>2489.0158697766497</v>
       </c>
       <c r="D82" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E82" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F82" s="32">
         <f t="shared" si="3"/>
@@ -6662,10 +6737,10 @@
         <v>2637.0204553029621</v>
       </c>
       <c r="D83" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E83" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F83" s="32">
         <f t="shared" si="3"/>
@@ -6681,10 +6756,10 @@
         <v>2793.8258514640338</v>
       </c>
       <c r="D84" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E84" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F84" s="32">
         <f t="shared" si="3"/>
@@ -6700,10 +6775,10 @@
         <v>2959.9553816930784</v>
       </c>
       <c r="D85" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E85" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F85" s="32">
         <f t="shared" si="3"/>
@@ -6719,10 +6794,10 @@
         <v>3135.9634878539978</v>
       </c>
       <c r="D86" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E86" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F86" s="32">
         <f t="shared" si="3"/>
@@ -6738,10 +6813,10 @@
         <v>3322.4375806395647</v>
       </c>
       <c r="D87" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E87" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F87" s="32">
         <f t="shared" si="3"/>
@@ -6757,10 +6832,10 @@
         <v>3520.0000000000041</v>
       </c>
       <c r="D88" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E88" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F88" s="32">
         <f t="shared" si="3"/>
@@ -6776,10 +6851,10 @@
         <v>3729.310092144724</v>
       </c>
       <c r="D89" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E89" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F89" s="32">
         <f t="shared" si="3"/>
@@ -6795,10 +6870,10 @@
         <v>3951.066410048998</v>
       </c>
       <c r="D90" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E90" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F90" s="32">
         <f t="shared" si="3"/>
@@ -6814,10 +6889,10 @@
         <v>4186.0090448095834</v>
       </c>
       <c r="D91" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E91" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F91" s="32">
         <f t="shared" si="3"/>
@@ -6833,10 +6908,10 @@
         <v>4434.9220956299596</v>
       </c>
       <c r="D92" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E92" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F92" s="32">
         <f t="shared" ref="F92:F109" si="5">FLOOR($F$2/2/C92+0.5,1)-1</f>
@@ -6852,10 +6927,10 @@
         <v>4698.6362866785275</v>
       </c>
       <c r="D93" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E93" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F93" s="32">
         <f t="shared" si="5"/>
@@ -6871,10 +6946,10 @@
         <v>4978.031739553302</v>
       </c>
       <c r="D94" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E94" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F94" s="32">
         <f t="shared" si="5"/>
@@ -6890,10 +6965,10 @@
         <v>5274.0409106059269</v>
       </c>
       <c r="D95" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E95" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F95" s="32">
         <f t="shared" si="5"/>
@@ -6909,10 +6984,10 @@
         <v>5587.6517029280712</v>
       </c>
       <c r="D96" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E96" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F96" s="32">
         <f t="shared" si="5"/>
@@ -6928,10 +7003,10 @@
         <v>5919.9107633861604</v>
       </c>
       <c r="D97" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E97" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F97" s="32">
         <f t="shared" si="5"/>
@@ -6947,10 +7022,10 @@
         <v>6271.9269757079992</v>
       </c>
       <c r="D98" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E98" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F98" s="32">
         <f t="shared" si="5"/>
@@ -6966,10 +7041,10 @@
         <v>6644.8751612791339</v>
       </c>
       <c r="D99" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E99" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F99" s="32">
         <f t="shared" si="5"/>
@@ -6985,10 +7060,10 @@
         <v>7040.0000000000127</v>
       </c>
       <c r="D100" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E100" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F100" s="32">
         <f t="shared" si="5"/>
@@ -7004,10 +7079,10 @@
         <v>7458.6201842894525</v>
       </c>
       <c r="D101" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E101" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F101" s="32">
         <f t="shared" si="5"/>
@@ -7023,10 +7098,10 @@
         <v>7902.1328200980006</v>
       </c>
       <c r="D102" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E102" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F102" s="32">
         <f t="shared" si="5"/>
@@ -7042,10 +7117,10 @@
         <v>8372.0180896191723</v>
       </c>
       <c r="D103" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E103" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F103" s="32">
         <f t="shared" si="5"/>
@@ -7061,10 +7136,10 @@
         <v>8869.8441912599246</v>
       </c>
       <c r="D104" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E104" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F104" s="32">
         <f t="shared" si="5"/>
@@ -7080,10 +7155,10 @@
         <v>9397.2725733570605</v>
       </c>
       <c r="D105" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E105" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F105" s="32">
         <f t="shared" si="5"/>
@@ -7099,10 +7174,10 @@
         <v>9956.0634791066095</v>
       </c>
       <c r="D106" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E106" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F106" s="32">
         <f t="shared" si="5"/>
@@ -7118,10 +7193,10 @@
         <v>10548.081821211859</v>
       </c>
       <c r="D107" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E107" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F107" s="32">
         <f t="shared" si="5"/>
@@ -7137,10 +7212,10 @@
         <v>11175.303405856148</v>
       </c>
       <c r="D108" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E108" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F108" s="32">
         <f t="shared" si="5"/>
@@ -7156,10 +7231,10 @@
         <v>11839.821526772326</v>
       </c>
       <c r="D109" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E109" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F109" s="32">
         <f t="shared" si="5"/>
@@ -7175,10 +7250,10 @@
         <v>12543.853951416006</v>
       </c>
       <c r="D110" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E110" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F110" s="32">
         <f t="shared" ref="F110:F115" si="7">FLOOR($F$2/2/C110+0.5,1)-1</f>
@@ -7194,10 +7269,10 @@
         <v>13289.750322558275</v>
       </c>
       <c r="D111" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E111" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F111" s="32">
         <f t="shared" si="7"/>
@@ -7213,10 +7288,10 @@
         <v>14080.000000000033</v>
       </c>
       <c r="D112" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E112" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F112" s="32">
         <f t="shared" si="7"/>
@@ -7232,10 +7307,10 @@
         <v>14917.240368578912</v>
       </c>
       <c r="D113" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E113" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F113" s="32">
         <f t="shared" si="7"/>
@@ -7251,10 +7326,10 @@
         <v>15804.265640196008</v>
       </c>
       <c r="D114" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E114" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F114" s="32">
         <f t="shared" si="7"/>
@@ -7270,10 +7345,10 @@
         <v>16744.036179238352</v>
       </c>
       <c r="D115" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E115" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F115" s="32">
         <f t="shared" si="7"/>
@@ -7387,7 +7462,7 @@
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B6" s="66" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C6" s="11"/>
       <c r="E6" s="11"/>
@@ -7456,7 +7531,7 @@
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C12" s="11"/>
       <c r="E12" s="11"/>
@@ -7521,7 +7596,7 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B18" s="66" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C18" s="11"/>
       <c r="E18" s="11"/>
@@ -8878,7 +8953,7 @@
     </row>
     <row r="120" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B120" s="3" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C120" s="11">
         <v>1</v>
@@ -8943,7 +9018,7 @@
     </row>
     <row r="126" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B126" s="3" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C126" s="11">
         <v>1</v>
@@ -9006,7 +9081,7 @@
     </row>
     <row r="132" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B132" s="3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C132" s="11"/>
       <c r="E132" s="11"/>
@@ -9061,7 +9136,7 @@
     </row>
     <row r="138" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B138" s="3" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C138" s="11"/>
       <c r="E138" s="11">
@@ -9138,7 +9213,7 @@
     </row>
     <row r="144" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B144" s="3" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C144" s="11">
         <v>1</v>
@@ -9230,7 +9305,7 @@
     </row>
     <row r="150" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B150" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C150" s="11">
         <v>1</v>
@@ -9291,7 +9366,7 @@
     </row>
     <row r="156" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B156" s="3" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C156" s="11">
         <v>1</v>
@@ -9352,7 +9427,7 @@
     </row>
     <row r="162" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B162" s="3" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C162" s="11"/>
       <c r="E162" s="11"/>
@@ -9411,7 +9486,7 @@
     </row>
     <row r="168" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B168" s="3" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C168" s="11"/>
       <c r="E168" s="11"/>
@@ -9474,7 +9549,7 @@
     </row>
     <row r="174" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B174" s="3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C174" s="11">
         <v>1</v>
@@ -9551,7 +9626,7 @@
     </row>
     <row r="180" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B180" s="3" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C180" s="11">
         <v>1</v>
@@ -9645,7 +9720,7 @@
     </row>
     <row r="186" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B186" s="3" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C186" s="11"/>
       <c r="E186" s="11"/>
@@ -9702,7 +9777,7 @@
     </row>
     <row r="192" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B192" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C192" s="11">
         <v>1</v>
@@ -9763,7 +9838,7 @@
     </row>
     <row r="198" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B198" s="3" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C198" s="11">
         <v>1</v>
@@ -9824,7 +9899,7 @@
     </row>
     <row r="204" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B204" s="3" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C204" s="11"/>
       <c r="E204" s="11"/>
@@ -9883,7 +9958,7 @@
     </row>
     <row r="210" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B210" s="3" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C210" s="11">
         <v>1</v>
@@ -9960,7 +10035,7 @@
     </row>
     <row r="216" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B216" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C216" s="11">
         <v>1</v>
@@ -10056,7 +10131,7 @@
     </row>
     <row r="222" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B222" s="3" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C222" s="11">
         <v>1</v>
@@ -10119,7 +10194,7 @@
     </row>
     <row r="228" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B228" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C228" s="11">
         <v>1</v>
@@ -10184,7 +10259,7 @@
     </row>
     <row r="234" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B234" s="3" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C234" s="11"/>
       <c r="E234" s="11">

--- a/I2C27SEG2.xlsx
+++ b/I2C27SEG2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cxwao\Documents\GitHub2\GreenPAK_I2C27SEG2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB86370B-CE15-4F9D-9DEB-F12C695B9BA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1979F5AA-B297-404B-912E-E18A11F8CDC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14355" yWindow="0" windowWidth="13575" windowHeight="14835" tabRatio="634" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11985" yWindow="0" windowWidth="13575" windowHeight="14835" tabRatio="634" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5621AS" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="391">
   <si>
     <t>VDD</t>
     <phoneticPr fontId="1"/>
@@ -1039,11 +1039,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Interrupt flag reset
-0→1 or 1→0 toggle for reset</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0x74</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1077,20 +1072,6 @@
   <si>
     <t>Speaker frequency data
 data[15:8]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x37</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x7C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Speaker frequency data. Default:440Hz
-data = 25,000,000/2/frequency[Hz]-1
-data[7:0]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1315,10 +1296,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OUT3/BEEP</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1327,22 +1304,100 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Interrupt flag mode select
-0:OUT4, 1:Interrupt flag mode , </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Speaker mode select
-0:OUT3 1:Speaker ON,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GPO, GPIO control
-[4]:OUT4 0:output Low, 1:output &amp; Pull-up
-[3]:OUT3 0:output Low, 1:output &amp; Pull-up
-[2]:INOUT2 0:input &amp; Pull-up, 1:output Low
-[1]:INOUT1 0:input &amp; Pull-up, 1:output Low
-[0]:INOUT0 0:input &amp; Pull-up, 1:output Low</t>
+    <t>predivider</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[3]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OUT4 port mode select
+[7] 0:Normal mode, 1:Interrupt flag mode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OUT4 port control
+IF Normal mode
+ 0:output Low, 1:output &amp; Pull-up
+IF Interrupt flag mode
+ 0→1 or 1→0 toggle for reset</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[4]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HEX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x34</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x5D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OUT3 port control
+IF Normal mode
+ 0:output Low, 1:output &amp; Pull-up
+IF Beep mode
+ 0:Beep OFF, 1:Beep ON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INOUT0 port control
+ 0:input &amp; Pull-up, 1:output Low</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INOUT1 port control
+ 0:input &amp; Pull-up, 1:output Low</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INOUT2 port control
+IF Normal mode
+ 0:input &amp; Pull-up, 1:output Low
+IF Beep mode
+ 0:Beep OFF, 1:Beep ON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[2]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[6:5]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OUT3 and INOUT2 port mode select
+00:Normal mode 
+01:Beep mode use OUT3
+10:Beep mode use INOUT2
+11:Beep mode use OUT3 and INOUT2 (Differential)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Speaker frequency data. Default:440Hz
+data = 25000000/4/frequency[Hz]-2
+data[7:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INOUT2/BEEPN</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1616,7 +1671,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1817,6 +1872,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2302,13 +2369,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>139212</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>158948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2666,10 +2733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:U33"/>
+  <dimension ref="B2:M28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2683,7 +2750,7 @@
     <col min="8" max="8" width="4.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.5" bestFit="1" customWidth="1"/>
@@ -2711,14 +2778,14 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
         <v>48</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I3" s="5">
         <v>20</v>
@@ -2727,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
@@ -2741,7 +2808,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>48</v>
@@ -2750,7 +2817,7 @@
         <v>48</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I4" s="2">
         <v>19</v>
@@ -2773,7 +2840,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>48</v>
@@ -2782,7 +2849,7 @@
         <v>48</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I5" s="2">
         <v>18</v>
@@ -2805,16 +2872,16 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>48</v>
+        <v>366</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I6" s="2">
         <v>17</v>
@@ -2837,16 +2904,16 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>370</v>
+        <v>48</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I7" s="2">
         <v>16</v>
@@ -2869,7 +2936,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>48</v>
@@ -2878,7 +2945,7 @@
         <v>48</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I8" s="2">
         <v>15</v>
@@ -2901,14 +2968,14 @@
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I9" s="2">
         <v>14</v>
@@ -2931,14 +2998,14 @@
         <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I10" s="2">
         <v>13</v>
@@ -2947,7 +3014,7 @@
         <v>15</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>52</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
@@ -2961,12 +3028,12 @@
         <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I11" s="2">
         <v>12</v>
@@ -2975,12 +3042,12 @@
         <v>17</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B12" s="10" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>18</v>
@@ -2989,14 +3056,14 @@
         <v>10</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I12" s="6">
         <v>11</v>
@@ -3008,108 +3075,96 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B14" s="13"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="F17" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="S18" s="4"/>
-      <c r="U18" s="4"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K21">
+        <v>7</v>
+      </c>
+      <c r="L21" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K22">
+        <v>6</v>
+      </c>
+      <c r="L22" t="s">
+        <v>287</v>
+      </c>
+      <c r="M22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23" t="s">
+        <v>51</v>
+      </c>
+      <c r="M23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24" t="s">
+        <v>286</v>
+      </c>
+      <c r="M24" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25" t="s">
+        <v>285</v>
+      </c>
+      <c r="M25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K26">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M26" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>287</v>
+        <v>52</v>
       </c>
       <c r="M27" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="K29">
-        <v>4</v>
-      </c>
-      <c r="L29" t="s">
-        <v>286</v>
-      </c>
-      <c r="M29" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30" t="s">
-        <v>285</v>
-      </c>
-      <c r="M30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31" t="s">
-        <v>53</v>
-      </c>
-      <c r="M31" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M32" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="33" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33" t="s">
-        <v>54</v>
-      </c>
-      <c r="M33" t="s">
         <v>288</v>
       </c>
     </row>
@@ -3123,10 +3178,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2BAE2D-83DF-4F5D-95C8-E4EA3135B38D}">
-  <dimension ref="B2:T60"/>
+  <dimension ref="B2:T63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3164,7 +3219,7 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" s="43" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>304</v>
@@ -3176,7 +3231,7 @@
         <v>309</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
@@ -3187,7 +3242,7 @@
         <v>308</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
@@ -3195,10 +3250,10 @@
       <c r="C5" s="50"/>
       <c r="D5" s="15"/>
       <c r="E5" s="45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
@@ -3226,7 +3281,7 @@
         <v>307</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
@@ -3234,7 +3289,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="16"/>
       <c r="E8" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F8" s="55" t="s">
         <v>299</v>
@@ -3254,1931 +3309,1964 @@
         <v>309</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
       <c r="D10" s="45"/>
       <c r="E10" s="41" t="s">
-        <v>308</v>
+        <v>387</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B11" s="45"/>
       <c r="C11" s="45"/>
       <c r="D11" s="45"/>
       <c r="E11" s="41" t="s">
-        <v>307</v>
+        <v>376</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="81" x14ac:dyDescent="0.15">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B12" s="45"/>
       <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="41" t="s">
-        <v>317</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C16" s="41" t="s">
         <v>298</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D16" s="41" t="s">
         <v>301</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="47" t="s">
-        <v>318</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>298</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>301</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B15" s="41" t="s">
-        <v>323</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>321</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B16" s="47" t="s">
-        <v>324</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>298</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>320</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>300</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" ht="27" x14ac:dyDescent="0.15">
-      <c r="B17" s="41" t="s">
-        <v>368</v>
-      </c>
-      <c r="C17" s="41" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="C17" s="43" t="s">
         <v>298</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="47" t="s">
         <v>301</v>
       </c>
       <c r="E17" s="41" t="s">
         <v>300</v>
       </c>
       <c r="F17" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="I17"/>
-      <c r="J17"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="H18" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="H19" s="20"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="38" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="27" x14ac:dyDescent="0.15">
+      <c r="B19" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="27" x14ac:dyDescent="0.15">
+      <c r="B20" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>365</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="H21" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="H22" s="20"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="L19" s="39" t="s">
+      <c r="L22" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="M19" s="39" t="s">
+      <c r="M22" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="N19" s="39" t="s">
+      <c r="N22" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="O19" s="39" t="s">
+      <c r="O22" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P19" s="39" t="s">
+      <c r="P22" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="Q19" s="39" t="s">
+      <c r="Q22" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="R19" s="39" t="s">
+      <c r="R22" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="S22" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="T22" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="S19" s="43" t="s">
-        <v>330</v>
-      </c>
-      <c r="T19" s="57" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="H20" s="21"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="37">
-        <f t="shared" ref="K20:O20" si="0">L20*2</f>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="H23" s="21"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="37">
+        <f t="shared" ref="K23:O23" si="0">L23*2</f>
         <v>128</v>
       </c>
-      <c r="L20" s="27">
+      <c r="L23" s="27">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="M20" s="27">
+      <c r="M23" s="27">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="N20" s="27">
+      <c r="N23" s="27">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="O20" s="27">
+      <c r="O23" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="P20" s="27">
-        <f>Q20*2</f>
+      <c r="P23" s="27">
+        <f>Q23*2</f>
         <v>4</v>
       </c>
-      <c r="Q20" s="27">
-        <f>R20*2</f>
+      <c r="Q23" s="27">
+        <f>R23*2</f>
         <v>2</v>
       </c>
-      <c r="R20" s="27">
-        <v>1</v>
-      </c>
-      <c r="S20" s="16"/>
-      <c r="T20" s="56"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="H21" s="50"/>
-      <c r="I21" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="J21" s="24">
-        <v>32</v>
-      </c>
-      <c r="K21" s="36">
-        <v>0</v>
-      </c>
-      <c r="L21" s="26">
-        <v>0</v>
-      </c>
-      <c r="M21" s="26">
-        <v>0</v>
-      </c>
-      <c r="N21" s="26">
-        <v>0</v>
-      </c>
-      <c r="O21" s="26">
-        <v>0</v>
-      </c>
-      <c r="P21" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="26">
-        <v>0</v>
-      </c>
-      <c r="R21" s="26">
-        <v>0</v>
-      </c>
-      <c r="S21" s="15">
-        <f t="shared" ref="S21:S24" si="1">SUMPRODUCT($K$20:$R$20,K21:R21)</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="45" t="str">
-        <f t="shared" ref="T21:T24" si="2">DEC2HEX(S21,2)</f>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="H22" s="50"/>
-      <c r="I22" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="J22" s="24">
-        <v>45</v>
-      </c>
-      <c r="K22" s="36">
-        <v>0</v>
-      </c>
-      <c r="L22" s="26">
-        <v>0</v>
-      </c>
-      <c r="M22" s="26">
-        <v>0</v>
-      </c>
-      <c r="N22" s="26">
-        <v>0</v>
-      </c>
-      <c r="O22" s="26">
-        <v>0</v>
-      </c>
-      <c r="P22" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="26">
-        <v>1</v>
-      </c>
-      <c r="R22" s="26">
-        <v>0</v>
-      </c>
-      <c r="S22" s="15">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="T22" s="45" t="str">
-        <f t="shared" si="2"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="H23" s="50"/>
-      <c r="I23" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="J23" s="24">
-        <v>126</v>
-      </c>
-      <c r="K23" s="36">
-        <v>1</v>
-      </c>
-      <c r="L23" s="26">
-        <v>0</v>
-      </c>
-      <c r="M23" s="26">
-        <v>0</v>
-      </c>
-      <c r="N23" s="26">
-        <v>0</v>
-      </c>
-      <c r="O23" s="26">
-        <v>0</v>
-      </c>
-      <c r="P23" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="26">
-        <v>0</v>
-      </c>
-      <c r="R23" s="26">
-        <v>0</v>
-      </c>
-      <c r="S23" s="15">
-        <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="T23" s="45" t="str">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
+      <c r="R23" s="27">
+        <v>1</v>
+      </c>
+      <c r="S23" s="16"/>
+      <c r="T23" s="56"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.15">
       <c r="H24" s="50"/>
       <c r="I24" s="24" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J24" s="24">
+        <v>32</v>
+      </c>
+      <c r="K24" s="36">
+        <v>0</v>
+      </c>
+      <c r="L24" s="26">
+        <v>0</v>
+      </c>
+      <c r="M24" s="26">
+        <v>0</v>
+      </c>
+      <c r="N24" s="26">
+        <v>0</v>
+      </c>
+      <c r="O24" s="26">
+        <v>0</v>
+      </c>
+      <c r="P24" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="26">
+        <v>0</v>
+      </c>
+      <c r="R24" s="26">
+        <v>0</v>
+      </c>
+      <c r="S24" s="15">
+        <f t="shared" ref="S24:S27" si="1">SUMPRODUCT($K$23:$R$23,K24:R24)</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="45" t="str">
+        <f t="shared" ref="T24:T27" si="2">DEC2HEX(S24,2)</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="H25" s="50"/>
+      <c r="I25" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="J25" s="24">
+        <v>45</v>
+      </c>
+      <c r="K25" s="36">
+        <v>0</v>
+      </c>
+      <c r="L25" s="26">
+        <v>0</v>
+      </c>
+      <c r="M25" s="26">
+        <v>0</v>
+      </c>
+      <c r="N25" s="26">
+        <v>0</v>
+      </c>
+      <c r="O25" s="26">
+        <v>0</v>
+      </c>
+      <c r="P25" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="26">
+        <v>1</v>
+      </c>
+      <c r="R25" s="26">
+        <v>0</v>
+      </c>
+      <c r="S25" s="15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T25" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="H26" s="50"/>
+      <c r="I26" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="J26" s="24">
+        <v>126</v>
+      </c>
+      <c r="K26" s="36">
+        <v>1</v>
+      </c>
+      <c r="L26" s="26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="26">
+        <v>0</v>
+      </c>
+      <c r="N26" s="26">
+        <v>0</v>
+      </c>
+      <c r="O26" s="26">
+        <v>0</v>
+      </c>
+      <c r="P26" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="26">
+        <v>0</v>
+      </c>
+      <c r="R26" s="26">
+        <v>0</v>
+      </c>
+      <c r="S26" s="15">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="T26" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="H27" s="50"/>
+      <c r="I27" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="J27" s="24">
         <v>95</v>
       </c>
-      <c r="K24" s="36">
-        <v>0</v>
-      </c>
-      <c r="L24" s="26">
-        <v>0</v>
-      </c>
-      <c r="M24" s="26">
-        <v>0</v>
-      </c>
-      <c r="N24" s="26">
-        <v>1</v>
-      </c>
-      <c r="O24" s="26">
-        <v>0</v>
-      </c>
-      <c r="P24" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="26">
-        <v>0</v>
-      </c>
-      <c r="R24" s="26">
-        <v>0</v>
-      </c>
-      <c r="S24" s="15">
+      <c r="K27" s="36">
+        <v>0</v>
+      </c>
+      <c r="L27" s="26">
+        <v>0</v>
+      </c>
+      <c r="M27" s="26">
+        <v>0</v>
+      </c>
+      <c r="N27" s="26">
+        <v>1</v>
+      </c>
+      <c r="O27" s="26">
+        <v>0</v>
+      </c>
+      <c r="P27" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="26">
+        <v>0</v>
+      </c>
+      <c r="R27" s="26">
+        <v>0</v>
+      </c>
+      <c r="S27" s="15">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="T24" s="45" t="str">
+      <c r="T27" s="45" t="str">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="H25" s="36">
-        <v>0</v>
-      </c>
-      <c r="I25" s="26" t="str">
-        <f>DEC2HEX(H25,1)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="26">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="H28" s="36">
+        <v>0</v>
+      </c>
+      <c r="I28" s="26" t="str">
+        <f>DEC2HEX(H28,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="26">
         <v>48</v>
       </c>
-      <c r="K25" s="36">
-        <v>1</v>
-      </c>
-      <c r="L25" s="26">
-        <v>1</v>
-      </c>
-      <c r="M25" s="26">
-        <v>1</v>
-      </c>
-      <c r="N25" s="26">
-        <v>1</v>
-      </c>
-      <c r="O25" s="26">
-        <v>1</v>
-      </c>
-      <c r="P25" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="26">
-        <v>0</v>
-      </c>
-      <c r="R25" s="26">
-        <v>0</v>
-      </c>
-      <c r="S25" s="15">
-        <f>SUMPRODUCT($K$20:$R$20,K25:R25)</f>
+      <c r="K28" s="36">
+        <v>1</v>
+      </c>
+      <c r="L28" s="26">
+        <v>1</v>
+      </c>
+      <c r="M28" s="26">
+        <v>1</v>
+      </c>
+      <c r="N28" s="26">
+        <v>1</v>
+      </c>
+      <c r="O28" s="26">
+        <v>1</v>
+      </c>
+      <c r="P28" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="26">
+        <v>0</v>
+      </c>
+      <c r="R28" s="26">
+        <v>0</v>
+      </c>
+      <c r="S28" s="15">
+        <f>SUMPRODUCT($K$23:$R$23,K28:R28)</f>
         <v>252</v>
       </c>
-      <c r="T25" s="45" t="str">
-        <f>DEC2HEX(S25,2)</f>
+      <c r="T28" s="45" t="str">
+        <f>DEC2HEX(S28,2)</f>
         <v>FC</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="H26" s="36">
-        <v>1</v>
-      </c>
-      <c r="I26" s="26" t="str">
-        <f t="shared" ref="I26:I40" si="3">DEC2HEX(H26,1)</f>
-        <v>1</v>
-      </c>
-      <c r="J26" s="26">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="H29" s="36">
+        <v>1</v>
+      </c>
+      <c r="I29" s="26" t="str">
+        <f t="shared" ref="I29:I43" si="3">DEC2HEX(H29,1)</f>
+        <v>1</v>
+      </c>
+      <c r="J29" s="26">
         <v>49</v>
       </c>
-      <c r="K26" s="36">
-        <v>0</v>
-      </c>
-      <c r="L26" s="26">
-        <v>1</v>
-      </c>
-      <c r="M26" s="26">
-        <v>1</v>
-      </c>
-      <c r="N26" s="26">
-        <v>0</v>
-      </c>
-      <c r="O26" s="26">
-        <v>0</v>
-      </c>
-      <c r="P26" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="26">
-        <v>0</v>
-      </c>
-      <c r="R26" s="26">
-        <v>0</v>
-      </c>
-      <c r="S26" s="15">
-        <f t="shared" ref="S26:S40" si="4">SUMPRODUCT($K$20:$R$20,K26:R26)</f>
+      <c r="K29" s="36">
+        <v>0</v>
+      </c>
+      <c r="L29" s="26">
+        <v>1</v>
+      </c>
+      <c r="M29" s="26">
+        <v>1</v>
+      </c>
+      <c r="N29" s="26">
+        <v>0</v>
+      </c>
+      <c r="O29" s="26">
+        <v>0</v>
+      </c>
+      <c r="P29" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="26">
+        <v>0</v>
+      </c>
+      <c r="R29" s="26">
+        <v>0</v>
+      </c>
+      <c r="S29" s="15">
+        <f t="shared" ref="S29:S43" si="4">SUMPRODUCT($K$23:$R$23,K29:R29)</f>
         <v>96</v>
       </c>
-      <c r="T26" s="45" t="str">
-        <f t="shared" ref="T26:T60" si="5">DEC2HEX(S26,2)</f>
+      <c r="T29" s="45" t="str">
+        <f t="shared" ref="T29:T63" si="5">DEC2HEX(S29,2)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="H27" s="36">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="H30" s="36">
         <v>2</v>
       </c>
-      <c r="I27" s="26" t="str">
+      <c r="I30" s="26" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="J27" s="26">
+      <c r="J30" s="26">
         <v>50</v>
       </c>
-      <c r="K27" s="36">
-        <v>1</v>
-      </c>
-      <c r="L27" s="26">
-        <v>1</v>
-      </c>
-      <c r="M27" s="26">
-        <v>0</v>
-      </c>
-      <c r="N27" s="26">
-        <v>1</v>
-      </c>
-      <c r="O27" s="26">
-        <v>1</v>
-      </c>
-      <c r="P27" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="26">
-        <v>1</v>
-      </c>
-      <c r="R27" s="26">
-        <v>0</v>
-      </c>
-      <c r="S27" s="15">
+      <c r="K30" s="36">
+        <v>1</v>
+      </c>
+      <c r="L30" s="26">
+        <v>1</v>
+      </c>
+      <c r="M30" s="26">
+        <v>0</v>
+      </c>
+      <c r="N30" s="26">
+        <v>1</v>
+      </c>
+      <c r="O30" s="26">
+        <v>1</v>
+      </c>
+      <c r="P30" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="26">
+        <v>1</v>
+      </c>
+      <c r="R30" s="26">
+        <v>0</v>
+      </c>
+      <c r="S30" s="15">
         <f t="shared" si="4"/>
         <v>218</v>
       </c>
-      <c r="T27" s="45" t="str">
+      <c r="T30" s="45" t="str">
         <f t="shared" si="5"/>
         <v>DA</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="H28" s="36">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="H31" s="36">
         <v>3</v>
       </c>
-      <c r="I28" s="26" t="str">
+      <c r="I31" s="26" t="str">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="J28" s="26">
+      <c r="J31" s="26">
         <v>51</v>
       </c>
-      <c r="K28" s="36">
-        <v>1</v>
-      </c>
-      <c r="L28" s="26">
-        <v>1</v>
-      </c>
-      <c r="M28" s="26">
-        <v>1</v>
-      </c>
-      <c r="N28" s="26">
-        <v>1</v>
-      </c>
-      <c r="O28" s="26">
-        <v>0</v>
-      </c>
-      <c r="P28" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="26">
-        <v>1</v>
-      </c>
-      <c r="R28" s="26">
-        <v>0</v>
-      </c>
-      <c r="S28" s="15">
+      <c r="K31" s="36">
+        <v>1</v>
+      </c>
+      <c r="L31" s="26">
+        <v>1</v>
+      </c>
+      <c r="M31" s="26">
+        <v>1</v>
+      </c>
+      <c r="N31" s="26">
+        <v>1</v>
+      </c>
+      <c r="O31" s="26">
+        <v>0</v>
+      </c>
+      <c r="P31" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="26">
+        <v>1</v>
+      </c>
+      <c r="R31" s="26">
+        <v>0</v>
+      </c>
+      <c r="S31" s="15">
         <f t="shared" si="4"/>
         <v>242</v>
       </c>
-      <c r="T28" s="45" t="str">
+      <c r="T31" s="45" t="str">
         <f t="shared" si="5"/>
         <v>F2</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="H29" s="36">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="H32" s="36">
         <v>4</v>
       </c>
-      <c r="I29" s="26" t="str">
+      <c r="I32" s="26" t="str">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J29" s="26">
+      <c r="J32" s="26">
         <v>52</v>
       </c>
-      <c r="K29" s="36">
-        <v>0</v>
-      </c>
-      <c r="L29" s="26">
-        <v>1</v>
-      </c>
-      <c r="M29" s="26">
-        <v>1</v>
-      </c>
-      <c r="N29" s="26">
-        <v>0</v>
-      </c>
-      <c r="O29" s="26">
-        <v>0</v>
-      </c>
-      <c r="P29" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="26">
-        <v>1</v>
-      </c>
-      <c r="R29" s="26">
-        <v>0</v>
-      </c>
-      <c r="S29" s="15">
+      <c r="K32" s="36">
+        <v>0</v>
+      </c>
+      <c r="L32" s="26">
+        <v>1</v>
+      </c>
+      <c r="M32" s="26">
+        <v>1</v>
+      </c>
+      <c r="N32" s="26">
+        <v>0</v>
+      </c>
+      <c r="O32" s="26">
+        <v>0</v>
+      </c>
+      <c r="P32" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="26">
+        <v>1</v>
+      </c>
+      <c r="R32" s="26">
+        <v>0</v>
+      </c>
+      <c r="S32" s="15">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
-      <c r="T29" s="45" t="str">
+      <c r="T32" s="45" t="str">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="H30" s="36">
+    <row r="33" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H33" s="36">
         <v>5</v>
       </c>
-      <c r="I30" s="26" t="str">
+      <c r="I33" s="26" t="str">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="J30" s="26">
+      <c r="J33" s="26">
         <v>53</v>
       </c>
-      <c r="K30" s="36">
-        <v>1</v>
-      </c>
-      <c r="L30" s="26">
-        <v>0</v>
-      </c>
-      <c r="M30" s="26">
-        <v>1</v>
-      </c>
-      <c r="N30" s="26">
-        <v>1</v>
-      </c>
-      <c r="O30" s="26">
-        <v>0</v>
-      </c>
-      <c r="P30" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="26">
-        <v>1</v>
-      </c>
-      <c r="R30" s="26">
-        <v>0</v>
-      </c>
-      <c r="S30" s="15">
+      <c r="K33" s="36">
+        <v>1</v>
+      </c>
+      <c r="L33" s="26">
+        <v>0</v>
+      </c>
+      <c r="M33" s="26">
+        <v>1</v>
+      </c>
+      <c r="N33" s="26">
+        <v>1</v>
+      </c>
+      <c r="O33" s="26">
+        <v>0</v>
+      </c>
+      <c r="P33" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="26">
+        <v>1</v>
+      </c>
+      <c r="R33" s="26">
+        <v>0</v>
+      </c>
+      <c r="S33" s="15">
         <f t="shared" si="4"/>
         <v>182</v>
       </c>
-      <c r="T30" s="45" t="str">
+      <c r="T33" s="45" t="str">
         <f t="shared" si="5"/>
         <v>B6</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="H31" s="36">
+    <row r="34" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H34" s="36">
         <v>6</v>
       </c>
-      <c r="I31" s="26" t="str">
+      <c r="I34" s="26" t="str">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="J31" s="26">
+      <c r="J34" s="26">
         <v>54</v>
       </c>
-      <c r="K31" s="36">
-        <v>1</v>
-      </c>
-      <c r="L31" s="26">
-        <v>0</v>
-      </c>
-      <c r="M31" s="26">
-        <v>1</v>
-      </c>
-      <c r="N31" s="26">
-        <v>1</v>
-      </c>
-      <c r="O31" s="26">
-        <v>1</v>
-      </c>
-      <c r="P31" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="26">
-        <v>1</v>
-      </c>
-      <c r="R31" s="26">
-        <v>0</v>
-      </c>
-      <c r="S31" s="15">
+      <c r="K34" s="36">
+        <v>1</v>
+      </c>
+      <c r="L34" s="26">
+        <v>0</v>
+      </c>
+      <c r="M34" s="26">
+        <v>1</v>
+      </c>
+      <c r="N34" s="26">
+        <v>1</v>
+      </c>
+      <c r="O34" s="26">
+        <v>1</v>
+      </c>
+      <c r="P34" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="26">
+        <v>1</v>
+      </c>
+      <c r="R34" s="26">
+        <v>0</v>
+      </c>
+      <c r="S34" s="15">
         <f t="shared" si="4"/>
         <v>190</v>
       </c>
-      <c r="T31" s="45" t="str">
+      <c r="T34" s="45" t="str">
         <f t="shared" si="5"/>
         <v>BE</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="H32" s="36">
+    <row r="35" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H35" s="36">
         <v>7</v>
       </c>
-      <c r="I32" s="26" t="str">
+      <c r="I35" s="26" t="str">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="J32" s="26">
+      <c r="J35" s="26">
         <v>55</v>
       </c>
-      <c r="K32" s="36">
-        <v>1</v>
-      </c>
-      <c r="L32" s="26">
-        <v>1</v>
-      </c>
-      <c r="M32" s="26">
-        <v>1</v>
-      </c>
-      <c r="N32" s="26">
-        <v>0</v>
-      </c>
-      <c r="O32" s="26">
-        <v>0</v>
-      </c>
-      <c r="P32" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="26">
-        <v>0</v>
-      </c>
-      <c r="R32" s="26">
-        <v>0</v>
-      </c>
-      <c r="S32" s="15">
+      <c r="K35" s="36">
+        <v>1</v>
+      </c>
+      <c r="L35" s="26">
+        <v>1</v>
+      </c>
+      <c r="M35" s="26">
+        <v>1</v>
+      </c>
+      <c r="N35" s="26">
+        <v>0</v>
+      </c>
+      <c r="O35" s="26">
+        <v>0</v>
+      </c>
+      <c r="P35" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="26">
+        <v>0</v>
+      </c>
+      <c r="R35" s="26">
+        <v>0</v>
+      </c>
+      <c r="S35" s="15">
         <f t="shared" si="4"/>
         <v>228</v>
       </c>
-      <c r="T32" s="45" t="str">
+      <c r="T35" s="45" t="str">
         <f t="shared" si="5"/>
         <v>E4</v>
       </c>
     </row>
-    <row r="33" spans="8:20" x14ac:dyDescent="0.15">
-      <c r="H33" s="36">
+    <row r="36" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H36" s="36">
         <v>8</v>
       </c>
-      <c r="I33" s="26" t="str">
+      <c r="I36" s="26" t="str">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="J33" s="26">
+      <c r="J36" s="26">
         <v>56</v>
       </c>
-      <c r="K33" s="36">
-        <v>1</v>
-      </c>
-      <c r="L33" s="26">
-        <v>1</v>
-      </c>
-      <c r="M33" s="26">
-        <v>1</v>
-      </c>
-      <c r="N33" s="26">
-        <v>1</v>
-      </c>
-      <c r="O33" s="26">
-        <v>1</v>
-      </c>
-      <c r="P33" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="26">
-        <v>1</v>
-      </c>
-      <c r="R33" s="26">
-        <v>0</v>
-      </c>
-      <c r="S33" s="15">
+      <c r="K36" s="36">
+        <v>1</v>
+      </c>
+      <c r="L36" s="26">
+        <v>1</v>
+      </c>
+      <c r="M36" s="26">
+        <v>1</v>
+      </c>
+      <c r="N36" s="26">
+        <v>1</v>
+      </c>
+      <c r="O36" s="26">
+        <v>1</v>
+      </c>
+      <c r="P36" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="26">
+        <v>1</v>
+      </c>
+      <c r="R36" s="26">
+        <v>0</v>
+      </c>
+      <c r="S36" s="15">
         <f t="shared" si="4"/>
         <v>254</v>
       </c>
-      <c r="T33" s="45" t="str">
+      <c r="T36" s="45" t="str">
         <f t="shared" si="5"/>
         <v>FE</v>
       </c>
     </row>
-    <row r="34" spans="8:20" x14ac:dyDescent="0.15">
-      <c r="H34" s="37">
+    <row r="37" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H37" s="37">
         <v>9</v>
       </c>
-      <c r="I34" s="27" t="str">
+      <c r="I37" s="27" t="str">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J34" s="60">
+      <c r="J37" s="60">
         <v>57</v>
       </c>
-      <c r="K34" s="37">
-        <v>1</v>
-      </c>
-      <c r="L34" s="27">
-        <v>1</v>
-      </c>
-      <c r="M34" s="27">
-        <v>1</v>
-      </c>
-      <c r="N34" s="27">
-        <v>1</v>
-      </c>
-      <c r="O34" s="27">
-        <v>0</v>
-      </c>
-      <c r="P34" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="27">
-        <v>1</v>
-      </c>
-      <c r="R34" s="27">
-        <v>0</v>
-      </c>
-      <c r="S34" s="16">
+      <c r="K37" s="37">
+        <v>1</v>
+      </c>
+      <c r="L37" s="27">
+        <v>1</v>
+      </c>
+      <c r="M37" s="27">
+        <v>1</v>
+      </c>
+      <c r="N37" s="27">
+        <v>1</v>
+      </c>
+      <c r="O37" s="27">
+        <v>0</v>
+      </c>
+      <c r="P37" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="27">
+        <v>1</v>
+      </c>
+      <c r="R37" s="27">
+        <v>0</v>
+      </c>
+      <c r="S37" s="16">
         <f t="shared" si="4"/>
         <v>246</v>
       </c>
-      <c r="T34" s="46" t="str">
+      <c r="T37" s="46" t="str">
         <f t="shared" si="5"/>
         <v>F6</v>
       </c>
     </row>
-    <row r="35" spans="8:20" x14ac:dyDescent="0.15">
-      <c r="H35" s="36">
+    <row r="38" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H38" s="36">
         <v>10</v>
       </c>
-      <c r="I35" s="26" t="str">
+      <c r="I38" s="26" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
-      <c r="J35" s="26">
+      <c r="J38" s="26">
         <v>65</v>
       </c>
-      <c r="K35" s="36">
-        <v>1</v>
-      </c>
-      <c r="L35" s="26">
-        <v>1</v>
-      </c>
-      <c r="M35" s="26">
-        <v>1</v>
-      </c>
-      <c r="N35" s="26">
-        <v>0</v>
-      </c>
-      <c r="O35" s="26">
-        <v>1</v>
-      </c>
-      <c r="P35" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="26">
-        <v>1</v>
-      </c>
-      <c r="R35" s="26">
-        <v>0</v>
-      </c>
-      <c r="S35" s="15">
+      <c r="K38" s="36">
+        <v>1</v>
+      </c>
+      <c r="L38" s="26">
+        <v>1</v>
+      </c>
+      <c r="M38" s="26">
+        <v>1</v>
+      </c>
+      <c r="N38" s="26">
+        <v>0</v>
+      </c>
+      <c r="O38" s="26">
+        <v>1</v>
+      </c>
+      <c r="P38" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="26">
+        <v>1</v>
+      </c>
+      <c r="R38" s="26">
+        <v>0</v>
+      </c>
+      <c r="S38" s="15">
         <f t="shared" si="4"/>
         <v>238</v>
       </c>
-      <c r="T35" s="45" t="str">
+      <c r="T38" s="45" t="str">
         <f t="shared" si="5"/>
         <v>EE</v>
       </c>
     </row>
-    <row r="36" spans="8:20" x14ac:dyDescent="0.15">
-      <c r="H36" s="36">
+    <row r="39" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H39" s="36">
         <v>11</v>
       </c>
-      <c r="I36" s="26" t="str">
+      <c r="I39" s="26" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
-      <c r="J36" s="26">
+      <c r="J39" s="26">
         <v>66</v>
       </c>
-      <c r="K36" s="36">
-        <v>0</v>
-      </c>
-      <c r="L36" s="26">
-        <v>0</v>
-      </c>
-      <c r="M36" s="26">
-        <v>1</v>
-      </c>
-      <c r="N36" s="26">
-        <v>1</v>
-      </c>
-      <c r="O36" s="26">
-        <v>1</v>
-      </c>
-      <c r="P36" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="26">
-        <v>1</v>
-      </c>
-      <c r="R36" s="26">
-        <v>0</v>
-      </c>
-      <c r="S36" s="15">
+      <c r="K39" s="36">
+        <v>0</v>
+      </c>
+      <c r="L39" s="26">
+        <v>0</v>
+      </c>
+      <c r="M39" s="26">
+        <v>1</v>
+      </c>
+      <c r="N39" s="26">
+        <v>1</v>
+      </c>
+      <c r="O39" s="26">
+        <v>1</v>
+      </c>
+      <c r="P39" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="26">
+        <v>1</v>
+      </c>
+      <c r="R39" s="26">
+        <v>0</v>
+      </c>
+      <c r="S39" s="15">
         <f t="shared" si="4"/>
         <v>62</v>
       </c>
-      <c r="T36" s="45" t="str">
+      <c r="T39" s="45" t="str">
         <f t="shared" si="5"/>
         <v>3E</v>
       </c>
     </row>
-    <row r="37" spans="8:20" x14ac:dyDescent="0.15">
-      <c r="H37" s="36">
+    <row r="40" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H40" s="36">
         <v>12</v>
       </c>
-      <c r="I37" s="26" t="str">
+      <c r="I40" s="26" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
-      <c r="J37" s="26">
+      <c r="J40" s="26">
         <v>67</v>
       </c>
-      <c r="K37" s="36">
-        <v>1</v>
-      </c>
-      <c r="L37" s="26">
-        <v>0</v>
-      </c>
-      <c r="M37" s="26">
-        <v>0</v>
-      </c>
-      <c r="N37" s="26">
-        <v>1</v>
-      </c>
-      <c r="O37" s="26">
-        <v>1</v>
-      </c>
-      <c r="P37" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="26">
-        <v>0</v>
-      </c>
-      <c r="R37" s="26">
-        <v>0</v>
-      </c>
-      <c r="S37" s="15">
+      <c r="K40" s="36">
+        <v>1</v>
+      </c>
+      <c r="L40" s="26">
+        <v>0</v>
+      </c>
+      <c r="M40" s="26">
+        <v>0</v>
+      </c>
+      <c r="N40" s="26">
+        <v>1</v>
+      </c>
+      <c r="O40" s="26">
+        <v>1</v>
+      </c>
+      <c r="P40" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="26">
+        <v>0</v>
+      </c>
+      <c r="R40" s="26">
+        <v>0</v>
+      </c>
+      <c r="S40" s="15">
         <f t="shared" si="4"/>
         <v>156</v>
       </c>
-      <c r="T37" s="45" t="str">
+      <c r="T40" s="45" t="str">
         <f t="shared" si="5"/>
         <v>9C</v>
       </c>
     </row>
-    <row r="38" spans="8:20" x14ac:dyDescent="0.15">
-      <c r="H38" s="36">
+    <row r="41" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H41" s="36">
         <v>13</v>
       </c>
-      <c r="I38" s="26" t="str">
+      <c r="I41" s="26" t="str">
         <f t="shared" si="3"/>
         <v>D</v>
       </c>
-      <c r="J38" s="26">
+      <c r="J41" s="26">
         <v>68</v>
       </c>
-      <c r="K38" s="36">
-        <v>0</v>
-      </c>
-      <c r="L38" s="26">
-        <v>1</v>
-      </c>
-      <c r="M38" s="26">
-        <v>1</v>
-      </c>
-      <c r="N38" s="26">
-        <v>1</v>
-      </c>
-      <c r="O38" s="26">
-        <v>1</v>
-      </c>
-      <c r="P38" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="26">
-        <v>1</v>
-      </c>
-      <c r="R38" s="26">
-        <v>0</v>
-      </c>
-      <c r="S38" s="15">
+      <c r="K41" s="36">
+        <v>0</v>
+      </c>
+      <c r="L41" s="26">
+        <v>1</v>
+      </c>
+      <c r="M41" s="26">
+        <v>1</v>
+      </c>
+      <c r="N41" s="26">
+        <v>1</v>
+      </c>
+      <c r="O41" s="26">
+        <v>1</v>
+      </c>
+      <c r="P41" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="26">
+        <v>1</v>
+      </c>
+      <c r="R41" s="26">
+        <v>0</v>
+      </c>
+      <c r="S41" s="15">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="T38" s="45" t="str">
+      <c r="T41" s="45" t="str">
         <f t="shared" si="5"/>
         <v>7A</v>
       </c>
     </row>
-    <row r="39" spans="8:20" x14ac:dyDescent="0.15">
-      <c r="H39" s="36">
+    <row r="42" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H42" s="36">
         <v>14</v>
       </c>
-      <c r="I39" s="26" t="str">
+      <c r="I42" s="26" t="str">
         <f t="shared" si="3"/>
         <v>E</v>
       </c>
-      <c r="J39" s="26">
+      <c r="J42" s="26">
         <v>69</v>
       </c>
-      <c r="K39" s="36">
-        <v>1</v>
-      </c>
-      <c r="L39" s="26">
-        <v>0</v>
-      </c>
-      <c r="M39" s="26">
-        <v>0</v>
-      </c>
-      <c r="N39" s="26">
-        <v>1</v>
-      </c>
-      <c r="O39" s="26">
-        <v>1</v>
-      </c>
-      <c r="P39" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="26">
-        <v>1</v>
-      </c>
-      <c r="R39" s="26">
-        <v>0</v>
-      </c>
-      <c r="S39" s="15">
+      <c r="K42" s="36">
+        <v>1</v>
+      </c>
+      <c r="L42" s="26">
+        <v>0</v>
+      </c>
+      <c r="M42" s="26">
+        <v>0</v>
+      </c>
+      <c r="N42" s="26">
+        <v>1</v>
+      </c>
+      <c r="O42" s="26">
+        <v>1</v>
+      </c>
+      <c r="P42" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="26">
+        <v>1</v>
+      </c>
+      <c r="R42" s="26">
+        <v>0</v>
+      </c>
+      <c r="S42" s="15">
         <f t="shared" si="4"/>
         <v>158</v>
       </c>
-      <c r="T39" s="45" t="str">
+      <c r="T42" s="45" t="str">
         <f t="shared" si="5"/>
         <v>9E</v>
       </c>
     </row>
-    <row r="40" spans="8:20" x14ac:dyDescent="0.15">
-      <c r="H40" s="37">
+    <row r="43" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H43" s="37">
         <v>15</v>
       </c>
-      <c r="I40" s="27" t="str">
+      <c r="I43" s="27" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="J40" s="60">
+      <c r="J43" s="60">
         <v>70</v>
       </c>
-      <c r="K40" s="37">
-        <v>1</v>
-      </c>
-      <c r="L40" s="27">
-        <v>0</v>
-      </c>
-      <c r="M40" s="27">
-        <v>0</v>
-      </c>
-      <c r="N40" s="27">
-        <v>0</v>
-      </c>
-      <c r="O40" s="27">
-        <v>1</v>
-      </c>
-      <c r="P40" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="27">
-        <v>1</v>
-      </c>
-      <c r="R40" s="27">
-        <v>0</v>
-      </c>
-      <c r="S40" s="16">
+      <c r="K43" s="37">
+        <v>1</v>
+      </c>
+      <c r="L43" s="27">
+        <v>0</v>
+      </c>
+      <c r="M43" s="27">
+        <v>0</v>
+      </c>
+      <c r="N43" s="27">
+        <v>0</v>
+      </c>
+      <c r="O43" s="27">
+        <v>1</v>
+      </c>
+      <c r="P43" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="27">
+        <v>1</v>
+      </c>
+      <c r="R43" s="27">
+        <v>0</v>
+      </c>
+      <c r="S43" s="16">
         <f t="shared" si="4"/>
         <v>142</v>
       </c>
-      <c r="T40" s="46" t="str">
+      <c r="T43" s="46" t="str">
         <f t="shared" si="5"/>
         <v>8E</v>
       </c>
     </row>
-    <row r="41" spans="8:20" x14ac:dyDescent="0.15">
-      <c r="H41" s="38">
+    <row r="44" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H44" s="38">
         <v>16</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J41" s="61">
+      <c r="I44" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J44" s="61">
         <v>71</v>
       </c>
-      <c r="K41" s="48">
-        <v>1</v>
-      </c>
-      <c r="L41" s="1">
-        <v>0</v>
-      </c>
-      <c r="M41" s="1">
-        <v>1</v>
-      </c>
-      <c r="N41" s="1">
-        <v>1</v>
-      </c>
-      <c r="O41" s="1">
-        <v>1</v>
-      </c>
-      <c r="P41" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>0</v>
-      </c>
-      <c r="R41" s="57">
-        <v>0</v>
-      </c>
-      <c r="S41" s="14">
-        <f t="shared" ref="S41:S60" si="6">SUMPRODUCT($K$20:$R$20,K41:R41)</f>
+      <c r="K44" s="48">
+        <v>1</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1</v>
+      </c>
+      <c r="N44" s="1">
+        <v>1</v>
+      </c>
+      <c r="O44" s="1">
+        <v>1</v>
+      </c>
+      <c r="P44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0</v>
+      </c>
+      <c r="R44" s="57">
+        <v>0</v>
+      </c>
+      <c r="S44" s="14">
+        <f t="shared" ref="S44:S63" si="6">SUMPRODUCT($K$23:$R$23,K44:R44)</f>
         <v>188</v>
       </c>
-      <c r="T41" s="43" t="str">
+      <c r="T44" s="43" t="str">
         <f t="shared" si="5"/>
         <v>BC</v>
       </c>
     </row>
-    <row r="42" spans="8:20" x14ac:dyDescent="0.15">
-      <c r="H42" s="36">
+    <row r="45" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H45" s="36">
         <v>17</v>
       </c>
-      <c r="I42" s="24" t="s">
-        <v>349</v>
-      </c>
-      <c r="J42" s="62">
+      <c r="I45" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="J45" s="62">
         <v>72</v>
       </c>
-      <c r="K42" s="64">
-        <v>0</v>
-      </c>
-      <c r="L42" s="24">
-        <v>0</v>
-      </c>
-      <c r="M42" s="24">
-        <v>1</v>
-      </c>
-      <c r="N42" s="24">
-        <v>0</v>
-      </c>
-      <c r="O42" s="24">
-        <v>1</v>
-      </c>
-      <c r="P42" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="24">
-        <v>1</v>
-      </c>
-      <c r="R42" s="58">
-        <v>0</v>
-      </c>
-      <c r="S42" s="15">
+      <c r="K45" s="64">
+        <v>0</v>
+      </c>
+      <c r="L45" s="24">
+        <v>0</v>
+      </c>
+      <c r="M45" s="24">
+        <v>1</v>
+      </c>
+      <c r="N45" s="24">
+        <v>0</v>
+      </c>
+      <c r="O45" s="24">
+        <v>1</v>
+      </c>
+      <c r="P45" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="24">
+        <v>1</v>
+      </c>
+      <c r="R45" s="58">
+        <v>0</v>
+      </c>
+      <c r="S45" s="15">
         <f t="shared" si="6"/>
         <v>46</v>
       </c>
-      <c r="T42" s="45" t="str">
+      <c r="T45" s="45" t="str">
         <f t="shared" si="5"/>
         <v>2E</v>
       </c>
     </row>
-    <row r="43" spans="8:20" x14ac:dyDescent="0.15">
-      <c r="H43" s="36">
+    <row r="46" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H46" s="36">
         <v>18</v>
       </c>
-      <c r="I43" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="J43" s="62">
+      <c r="I46" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="J46" s="62">
         <v>73</v>
       </c>
-      <c r="K43" s="64">
-        <v>0</v>
-      </c>
-      <c r="L43" s="24">
-        <v>0</v>
-      </c>
-      <c r="M43" s="24">
-        <v>1</v>
-      </c>
-      <c r="N43" s="24">
-        <v>0</v>
-      </c>
-      <c r="O43" s="24">
-        <v>0</v>
-      </c>
-      <c r="P43" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="24">
-        <v>0</v>
-      </c>
-      <c r="R43" s="58">
-        <v>0</v>
-      </c>
-      <c r="S43" s="15">
+      <c r="K46" s="64">
+        <v>0</v>
+      </c>
+      <c r="L46" s="24">
+        <v>0</v>
+      </c>
+      <c r="M46" s="24">
+        <v>1</v>
+      </c>
+      <c r="N46" s="24">
+        <v>0</v>
+      </c>
+      <c r="O46" s="24">
+        <v>0</v>
+      </c>
+      <c r="P46" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="24">
+        <v>0</v>
+      </c>
+      <c r="R46" s="58">
+        <v>0</v>
+      </c>
+      <c r="S46" s="15">
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="T43" s="45" t="str">
+      <c r="T46" s="45" t="str">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="8:20" x14ac:dyDescent="0.15">
-      <c r="H44" s="36">
+    <row r="47" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H47" s="36">
         <v>19</v>
       </c>
-      <c r="I44" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="J44" s="62">
+      <c r="I47" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="J47" s="62">
         <v>74</v>
       </c>
-      <c r="K44" s="64">
-        <v>0</v>
-      </c>
-      <c r="L44" s="24">
-        <v>1</v>
-      </c>
-      <c r="M44" s="24">
-        <v>1</v>
-      </c>
-      <c r="N44" s="24">
-        <v>1</v>
-      </c>
-      <c r="O44" s="24">
-        <v>1</v>
-      </c>
-      <c r="P44" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="24">
-        <v>0</v>
-      </c>
-      <c r="R44" s="58">
-        <v>0</v>
-      </c>
-      <c r="S44" s="15">
+      <c r="K47" s="64">
+        <v>0</v>
+      </c>
+      <c r="L47" s="24">
+        <v>1</v>
+      </c>
+      <c r="M47" s="24">
+        <v>1</v>
+      </c>
+      <c r="N47" s="24">
+        <v>1</v>
+      </c>
+      <c r="O47" s="24">
+        <v>1</v>
+      </c>
+      <c r="P47" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="24">
+        <v>0</v>
+      </c>
+      <c r="R47" s="58">
+        <v>0</v>
+      </c>
+      <c r="S47" s="15">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="T44" s="45" t="str">
+      <c r="T47" s="45" t="str">
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="8:20" x14ac:dyDescent="0.15">
-      <c r="H45" s="36">
+    <row r="48" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H48" s="36">
         <v>20</v>
       </c>
-      <c r="I45" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="J45" s="62">
+      <c r="I48" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="J48" s="62">
         <v>75</v>
       </c>
-      <c r="K45" s="64">
-        <v>1</v>
-      </c>
-      <c r="L45" s="24">
-        <v>0</v>
-      </c>
-      <c r="M45" s="24">
-        <v>1</v>
-      </c>
-      <c r="N45" s="24">
-        <v>0</v>
-      </c>
-      <c r="O45" s="24">
-        <v>1</v>
-      </c>
-      <c r="P45" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="24">
-        <v>1</v>
-      </c>
-      <c r="R45" s="58">
-        <v>0</v>
-      </c>
-      <c r="S45" s="15">
+      <c r="K48" s="64">
+        <v>1</v>
+      </c>
+      <c r="L48" s="24">
+        <v>0</v>
+      </c>
+      <c r="M48" s="24">
+        <v>1</v>
+      </c>
+      <c r="N48" s="24">
+        <v>0</v>
+      </c>
+      <c r="O48" s="24">
+        <v>1</v>
+      </c>
+      <c r="P48" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="24">
+        <v>1</v>
+      </c>
+      <c r="R48" s="58">
+        <v>0</v>
+      </c>
+      <c r="S48" s="15">
         <f t="shared" si="6"/>
         <v>174</v>
       </c>
-      <c r="T45" s="45" t="str">
+      <c r="T48" s="45" t="str">
         <f t="shared" si="5"/>
         <v>AE</v>
       </c>
     </row>
-    <row r="46" spans="8:20" x14ac:dyDescent="0.15">
-      <c r="H46" s="36">
+    <row r="49" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H49" s="36">
         <v>21</v>
       </c>
-      <c r="I46" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="J46" s="62">
+      <c r="I49" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="J49" s="62">
         <v>76</v>
       </c>
-      <c r="K46" s="64">
-        <v>0</v>
-      </c>
-      <c r="L46" s="24">
-        <v>0</v>
-      </c>
-      <c r="M46" s="24">
-        <v>0</v>
-      </c>
-      <c r="N46" s="24">
-        <v>1</v>
-      </c>
-      <c r="O46" s="24">
-        <v>1</v>
-      </c>
-      <c r="P46" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="24">
-        <v>0</v>
-      </c>
-      <c r="R46" s="58">
-        <v>0</v>
-      </c>
-      <c r="S46" s="15">
+      <c r="K49" s="64">
+        <v>0</v>
+      </c>
+      <c r="L49" s="24">
+        <v>0</v>
+      </c>
+      <c r="M49" s="24">
+        <v>0</v>
+      </c>
+      <c r="N49" s="24">
+        <v>1</v>
+      </c>
+      <c r="O49" s="24">
+        <v>1</v>
+      </c>
+      <c r="P49" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="24">
+        <v>0</v>
+      </c>
+      <c r="R49" s="58">
+        <v>0</v>
+      </c>
+      <c r="S49" s="15">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="T46" s="45" t="str">
+      <c r="T49" s="45" t="str">
         <f t="shared" si="5"/>
         <v>1C</v>
       </c>
     </row>
-    <row r="47" spans="8:20" x14ac:dyDescent="0.15">
-      <c r="H47" s="36">
+    <row r="50" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H50" s="36">
         <v>22</v>
       </c>
-      <c r="I47" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="J47" s="62">
+      <c r="I50" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="J50" s="62">
         <v>77</v>
       </c>
-      <c r="K47" s="64">
-        <v>1</v>
-      </c>
-      <c r="L47" s="24">
-        <v>1</v>
-      </c>
-      <c r="M47" s="24">
-        <v>1</v>
-      </c>
-      <c r="N47" s="24">
-        <v>0</v>
-      </c>
-      <c r="O47" s="24">
-        <v>1</v>
-      </c>
-      <c r="P47" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="24">
-        <v>0</v>
-      </c>
-      <c r="R47" s="58">
-        <v>0</v>
-      </c>
-      <c r="S47" s="15">
+      <c r="K50" s="64">
+        <v>1</v>
+      </c>
+      <c r="L50" s="24">
+        <v>1</v>
+      </c>
+      <c r="M50" s="24">
+        <v>1</v>
+      </c>
+      <c r="N50" s="24">
+        <v>0</v>
+      </c>
+      <c r="O50" s="24">
+        <v>1</v>
+      </c>
+      <c r="P50" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="24">
+        <v>0</v>
+      </c>
+      <c r="R50" s="58">
+        <v>0</v>
+      </c>
+      <c r="S50" s="15">
         <f t="shared" si="6"/>
         <v>236</v>
       </c>
-      <c r="T47" s="45" t="str">
+      <c r="T50" s="45" t="str">
         <f t="shared" si="5"/>
         <v>EC</v>
       </c>
     </row>
-    <row r="48" spans="8:20" x14ac:dyDescent="0.15">
-      <c r="H48" s="36">
+    <row r="51" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H51" s="36">
         <v>23</v>
       </c>
-      <c r="I48" s="24" t="s">
-        <v>351</v>
-      </c>
-      <c r="J48" s="62">
+      <c r="I51" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="J51" s="62">
         <v>78</v>
       </c>
-      <c r="K48" s="64">
-        <v>0</v>
-      </c>
-      <c r="L48" s="24">
-        <v>0</v>
-      </c>
-      <c r="M48" s="24">
-        <v>1</v>
-      </c>
-      <c r="N48" s="24">
-        <v>0</v>
-      </c>
-      <c r="O48" s="24">
-        <v>1</v>
-      </c>
-      <c r="P48" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="24">
-        <v>1</v>
-      </c>
-      <c r="R48" s="58">
-        <v>0</v>
-      </c>
-      <c r="S48" s="15">
+      <c r="K51" s="64">
+        <v>0</v>
+      </c>
+      <c r="L51" s="24">
+        <v>0</v>
+      </c>
+      <c r="M51" s="24">
+        <v>1</v>
+      </c>
+      <c r="N51" s="24">
+        <v>0</v>
+      </c>
+      <c r="O51" s="24">
+        <v>1</v>
+      </c>
+      <c r="P51" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="24">
+        <v>1</v>
+      </c>
+      <c r="R51" s="58">
+        <v>0</v>
+      </c>
+      <c r="S51" s="15">
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="T48" s="45" t="str">
+      <c r="T51" s="45" t="str">
         <f t="shared" si="5"/>
         <v>2A</v>
       </c>
     </row>
-    <row r="49" spans="8:20" x14ac:dyDescent="0.15">
-      <c r="H49" s="36">
+    <row r="52" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H52" s="36">
         <v>24</v>
       </c>
-      <c r="I49" s="24" t="s">
-        <v>352</v>
-      </c>
-      <c r="J49" s="62">
+      <c r="I52" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="J52" s="62">
         <v>79</v>
       </c>
-      <c r="K49" s="64">
-        <v>0</v>
-      </c>
-      <c r="L49" s="24">
-        <v>0</v>
-      </c>
-      <c r="M49" s="24">
-        <v>1</v>
-      </c>
-      <c r="N49" s="24">
-        <v>1</v>
-      </c>
-      <c r="O49" s="24">
-        <v>1</v>
-      </c>
-      <c r="P49" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="24">
-        <v>1</v>
-      </c>
-      <c r="R49" s="58">
-        <v>0</v>
-      </c>
-      <c r="S49" s="15">
+      <c r="K52" s="64">
+        <v>0</v>
+      </c>
+      <c r="L52" s="24">
+        <v>0</v>
+      </c>
+      <c r="M52" s="24">
+        <v>1</v>
+      </c>
+      <c r="N52" s="24">
+        <v>1</v>
+      </c>
+      <c r="O52" s="24">
+        <v>1</v>
+      </c>
+      <c r="P52" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="24">
+        <v>1</v>
+      </c>
+      <c r="R52" s="58">
+        <v>0</v>
+      </c>
+      <c r="S52" s="15">
         <f t="shared" si="6"/>
         <v>58</v>
       </c>
-      <c r="T49" s="45" t="str">
+      <c r="T52" s="45" t="str">
         <f t="shared" si="5"/>
         <v>3A</v>
       </c>
     </row>
-    <row r="50" spans="8:20" x14ac:dyDescent="0.15">
-      <c r="H50" s="36">
+    <row r="53" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H53" s="36">
         <v>25</v>
       </c>
-      <c r="I50" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="J50" s="62">
+      <c r="I53" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="J53" s="62">
         <v>80</v>
       </c>
-      <c r="K50" s="64">
-        <v>1</v>
-      </c>
-      <c r="L50" s="24">
-        <v>1</v>
-      </c>
-      <c r="M50" s="24">
-        <v>0</v>
-      </c>
-      <c r="N50" s="24">
-        <v>0</v>
-      </c>
-      <c r="O50" s="24">
-        <v>1</v>
-      </c>
-      <c r="P50" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="24">
-        <v>1</v>
-      </c>
-      <c r="R50" s="58">
-        <v>0</v>
-      </c>
-      <c r="S50" s="15">
+      <c r="K53" s="64">
+        <v>1</v>
+      </c>
+      <c r="L53" s="24">
+        <v>1</v>
+      </c>
+      <c r="M53" s="24">
+        <v>0</v>
+      </c>
+      <c r="N53" s="24">
+        <v>0</v>
+      </c>
+      <c r="O53" s="24">
+        <v>1</v>
+      </c>
+      <c r="P53" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="24">
+        <v>1</v>
+      </c>
+      <c r="R53" s="58">
+        <v>0</v>
+      </c>
+      <c r="S53" s="15">
         <f t="shared" si="6"/>
         <v>206</v>
       </c>
-      <c r="T50" s="45" t="str">
+      <c r="T53" s="45" t="str">
         <f t="shared" si="5"/>
         <v>CE</v>
       </c>
     </row>
-    <row r="51" spans="8:20" x14ac:dyDescent="0.15">
-      <c r="H51" s="36">
+    <row r="54" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H54" s="36">
         <v>26</v>
       </c>
-      <c r="I51" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="J51" s="62">
+      <c r="I54" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="J54" s="62">
         <v>81</v>
       </c>
-      <c r="K51" s="64">
-        <v>1</v>
-      </c>
-      <c r="L51" s="24">
-        <v>1</v>
-      </c>
-      <c r="M51" s="24">
-        <v>0</v>
-      </c>
-      <c r="N51" s="24">
-        <v>1</v>
-      </c>
-      <c r="O51" s="24">
-        <v>1</v>
-      </c>
-      <c r="P51" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="24">
-        <v>1</v>
-      </c>
-      <c r="R51" s="58">
-        <v>0</v>
-      </c>
-      <c r="S51" s="15">
+      <c r="K54" s="64">
+        <v>1</v>
+      </c>
+      <c r="L54" s="24">
+        <v>1</v>
+      </c>
+      <c r="M54" s="24">
+        <v>0</v>
+      </c>
+      <c r="N54" s="24">
+        <v>1</v>
+      </c>
+      <c r="O54" s="24">
+        <v>1</v>
+      </c>
+      <c r="P54" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="24">
+        <v>1</v>
+      </c>
+      <c r="R54" s="58">
+        <v>0</v>
+      </c>
+      <c r="S54" s="15">
         <f t="shared" si="6"/>
         <v>222</v>
       </c>
-      <c r="T51" s="45" t="str">
+      <c r="T54" s="45" t="str">
         <f t="shared" si="5"/>
         <v>DE</v>
       </c>
     </row>
-    <row r="52" spans="8:20" x14ac:dyDescent="0.15">
-      <c r="H52" s="36">
+    <row r="55" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H55" s="36">
         <v>27</v>
       </c>
-      <c r="I52" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="J52" s="62">
+      <c r="I55" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="J55" s="62">
         <v>82</v>
       </c>
-      <c r="K52" s="64">
-        <v>0</v>
-      </c>
-      <c r="L52" s="24">
-        <v>0</v>
-      </c>
-      <c r="M52" s="24">
-        <v>0</v>
-      </c>
-      <c r="N52" s="24">
-        <v>0</v>
-      </c>
-      <c r="O52" s="24">
-        <v>1</v>
-      </c>
-      <c r="P52" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="24">
-        <v>1</v>
-      </c>
-      <c r="R52" s="58">
-        <v>0</v>
-      </c>
-      <c r="S52" s="15">
+      <c r="K55" s="64">
+        <v>0</v>
+      </c>
+      <c r="L55" s="24">
+        <v>0</v>
+      </c>
+      <c r="M55" s="24">
+        <v>0</v>
+      </c>
+      <c r="N55" s="24">
+        <v>0</v>
+      </c>
+      <c r="O55" s="24">
+        <v>1</v>
+      </c>
+      <c r="P55" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="24">
+        <v>1</v>
+      </c>
+      <c r="R55" s="58">
+        <v>0</v>
+      </c>
+      <c r="S55" s="15">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="T52" s="45" t="str">
+      <c r="T55" s="45" t="str">
         <f t="shared" si="5"/>
         <v>0A</v>
       </c>
     </row>
-    <row r="53" spans="8:20" x14ac:dyDescent="0.15">
-      <c r="H53" s="36">
+    <row r="56" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H56" s="36">
         <v>28</v>
       </c>
-      <c r="I53" s="24" t="s">
-        <v>355</v>
-      </c>
-      <c r="J53" s="62">
+      <c r="I56" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="J56" s="62">
         <v>83</v>
       </c>
-      <c r="K53" s="64">
-        <v>0</v>
-      </c>
-      <c r="L53" s="24">
-        <v>0</v>
-      </c>
-      <c r="M53" s="24">
-        <v>1</v>
-      </c>
-      <c r="N53" s="24">
-        <v>1</v>
-      </c>
-      <c r="O53" s="24">
-        <v>0</v>
-      </c>
-      <c r="P53" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="24">
-        <v>1</v>
-      </c>
-      <c r="R53" s="58">
-        <v>0</v>
-      </c>
-      <c r="S53" s="15">
+      <c r="K56" s="64">
+        <v>0</v>
+      </c>
+      <c r="L56" s="24">
+        <v>0</v>
+      </c>
+      <c r="M56" s="24">
+        <v>1</v>
+      </c>
+      <c r="N56" s="24">
+        <v>1</v>
+      </c>
+      <c r="O56" s="24">
+        <v>0</v>
+      </c>
+      <c r="P56" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="24">
+        <v>1</v>
+      </c>
+      <c r="R56" s="58">
+        <v>0</v>
+      </c>
+      <c r="S56" s="15">
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="T53" s="45" t="str">
+      <c r="T56" s="45" t="str">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="8:20" x14ac:dyDescent="0.15">
-      <c r="H54" s="36">
+    <row r="57" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H57" s="36">
         <v>29</v>
       </c>
-      <c r="I54" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="J54" s="62">
+      <c r="I57" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="J57" s="62">
         <v>84</v>
       </c>
-      <c r="K54" s="64">
-        <v>0</v>
-      </c>
-      <c r="L54" s="24">
-        <v>0</v>
-      </c>
-      <c r="M54" s="24">
-        <v>0</v>
-      </c>
-      <c r="N54" s="24">
-        <v>1</v>
-      </c>
-      <c r="O54" s="24">
-        <v>1</v>
-      </c>
-      <c r="P54" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="24">
-        <v>1</v>
-      </c>
-      <c r="R54" s="58">
-        <v>0</v>
-      </c>
-      <c r="S54" s="15">
+      <c r="K57" s="64">
+        <v>0</v>
+      </c>
+      <c r="L57" s="24">
+        <v>0</v>
+      </c>
+      <c r="M57" s="24">
+        <v>0</v>
+      </c>
+      <c r="N57" s="24">
+        <v>1</v>
+      </c>
+      <c r="O57" s="24">
+        <v>1</v>
+      </c>
+      <c r="P57" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="24">
+        <v>1</v>
+      </c>
+      <c r="R57" s="58">
+        <v>0</v>
+      </c>
+      <c r="S57" s="15">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="T54" s="45" t="str">
+      <c r="T57" s="45" t="str">
         <f t="shared" si="5"/>
         <v>1E</v>
       </c>
     </row>
-    <row r="55" spans="8:20" x14ac:dyDescent="0.15">
-      <c r="H55" s="36">
+    <row r="58" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H58" s="36">
         <v>30</v>
       </c>
-      <c r="I55" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="J55" s="62">
+      <c r="I58" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="J58" s="62">
         <v>85</v>
       </c>
-      <c r="K55" s="64">
-        <v>0</v>
-      </c>
-      <c r="L55" s="24">
-        <v>0</v>
-      </c>
-      <c r="M55" s="24">
-        <v>1</v>
-      </c>
-      <c r="N55" s="24">
-        <v>1</v>
-      </c>
-      <c r="O55" s="24">
-        <v>1</v>
-      </c>
-      <c r="P55" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="24">
-        <v>0</v>
-      </c>
-      <c r="R55" s="58">
-        <v>0</v>
-      </c>
-      <c r="S55" s="15">
+      <c r="K58" s="64">
+        <v>0</v>
+      </c>
+      <c r="L58" s="24">
+        <v>0</v>
+      </c>
+      <c r="M58" s="24">
+        <v>1</v>
+      </c>
+      <c r="N58" s="24">
+        <v>1</v>
+      </c>
+      <c r="O58" s="24">
+        <v>1</v>
+      </c>
+      <c r="P58" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="24">
+        <v>0</v>
+      </c>
+      <c r="R58" s="58">
+        <v>0</v>
+      </c>
+      <c r="S58" s="15">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="T55" s="45" t="str">
+      <c r="T58" s="45" t="str">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="8:20" x14ac:dyDescent="0.15">
-      <c r="H56" s="36">
+    <row r="59" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H59" s="36">
         <v>31</v>
       </c>
-      <c r="I56" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="J56" s="62">
+      <c r="I59" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="J59" s="62">
         <v>86</v>
       </c>
-      <c r="K56" s="64">
-        <v>0</v>
-      </c>
-      <c r="L56" s="24">
-        <v>1</v>
-      </c>
-      <c r="M56" s="24">
-        <v>1</v>
-      </c>
-      <c r="N56" s="24">
-        <v>1</v>
-      </c>
-      <c r="O56" s="24">
-        <v>1</v>
-      </c>
-      <c r="P56" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="24">
-        <v>0</v>
-      </c>
-      <c r="R56" s="58">
-        <v>0</v>
-      </c>
-      <c r="S56" s="15">
+      <c r="K59" s="64">
+        <v>0</v>
+      </c>
+      <c r="L59" s="24">
+        <v>1</v>
+      </c>
+      <c r="M59" s="24">
+        <v>1</v>
+      </c>
+      <c r="N59" s="24">
+        <v>1</v>
+      </c>
+      <c r="O59" s="24">
+        <v>1</v>
+      </c>
+      <c r="P59" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="24">
+        <v>0</v>
+      </c>
+      <c r="R59" s="58">
+        <v>0</v>
+      </c>
+      <c r="S59" s="15">
         <f t="shared" si="6"/>
         <v>124</v>
       </c>
-      <c r="T56" s="45" t="str">
+      <c r="T59" s="45" t="str">
         <f t="shared" si="5"/>
         <v>7C</v>
       </c>
     </row>
-    <row r="57" spans="8:20" x14ac:dyDescent="0.15">
-      <c r="H57" s="36">
+    <row r="60" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H60" s="36">
         <v>32</v>
       </c>
-      <c r="I57" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="J57" s="62">
+      <c r="I60" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="J60" s="62">
         <v>87</v>
       </c>
-      <c r="K57" s="64">
-        <v>0</v>
-      </c>
-      <c r="L57" s="24">
-        <v>1</v>
-      </c>
-      <c r="M57" s="24">
-        <v>1</v>
-      </c>
-      <c r="N57" s="24">
-        <v>1</v>
-      </c>
-      <c r="O57" s="24">
-        <v>1</v>
-      </c>
-      <c r="P57" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="24">
-        <v>1</v>
-      </c>
-      <c r="R57" s="58">
-        <v>0</v>
-      </c>
-      <c r="S57" s="15">
+      <c r="K60" s="64">
+        <v>0</v>
+      </c>
+      <c r="L60" s="24">
+        <v>1</v>
+      </c>
+      <c r="M60" s="24">
+        <v>1</v>
+      </c>
+      <c r="N60" s="24">
+        <v>1</v>
+      </c>
+      <c r="O60" s="24">
+        <v>1</v>
+      </c>
+      <c r="P60" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="24">
+        <v>1</v>
+      </c>
+      <c r="R60" s="58">
+        <v>0</v>
+      </c>
+      <c r="S60" s="15">
         <f t="shared" si="6"/>
         <v>126</v>
       </c>
-      <c r="T57" s="45" t="str">
+      <c r="T60" s="45" t="str">
         <f t="shared" si="5"/>
         <v>7E</v>
       </c>
     </row>
-    <row r="58" spans="8:20" x14ac:dyDescent="0.15">
-      <c r="H58" s="36">
+    <row r="61" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H61" s="36">
         <v>33</v>
       </c>
-      <c r="I58" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="J58" s="62">
+      <c r="I61" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="J61" s="62">
         <v>88</v>
       </c>
-      <c r="K58" s="64">
-        <v>0</v>
-      </c>
-      <c r="L58" s="24">
-        <v>1</v>
-      </c>
-      <c r="M58" s="24">
-        <v>1</v>
-      </c>
-      <c r="N58" s="24">
-        <v>0</v>
-      </c>
-      <c r="O58" s="24">
-        <v>1</v>
-      </c>
-      <c r="P58" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="24">
-        <v>1</v>
-      </c>
-      <c r="R58" s="58">
-        <v>0</v>
-      </c>
-      <c r="S58" s="15">
+      <c r="K61" s="64">
+        <v>0</v>
+      </c>
+      <c r="L61" s="24">
+        <v>1</v>
+      </c>
+      <c r="M61" s="24">
+        <v>1</v>
+      </c>
+      <c r="N61" s="24">
+        <v>0</v>
+      </c>
+      <c r="O61" s="24">
+        <v>1</v>
+      </c>
+      <c r="P61" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="24">
+        <v>1</v>
+      </c>
+      <c r="R61" s="58">
+        <v>0</v>
+      </c>
+      <c r="S61" s="15">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="T58" s="45" t="str">
+      <c r="T61" s="45" t="str">
         <f t="shared" si="5"/>
         <v>6E</v>
       </c>
     </row>
-    <row r="59" spans="8:20" x14ac:dyDescent="0.15">
-      <c r="H59" s="36">
+    <row r="62" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H62" s="36">
         <v>34</v>
       </c>
-      <c r="I59" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="J59" s="62">
+      <c r="I62" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="J62" s="62">
         <v>89</v>
       </c>
-      <c r="K59" s="64">
-        <v>0</v>
-      </c>
-      <c r="L59" s="24">
-        <v>1</v>
-      </c>
-      <c r="M59" s="24">
-        <v>1</v>
-      </c>
-      <c r="N59" s="24">
-        <v>1</v>
-      </c>
-      <c r="O59" s="24">
-        <v>0</v>
-      </c>
-      <c r="P59" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="24">
-        <v>1</v>
-      </c>
-      <c r="R59" s="58">
-        <v>0</v>
-      </c>
-      <c r="S59" s="15">
+      <c r="K62" s="64">
+        <v>0</v>
+      </c>
+      <c r="L62" s="24">
+        <v>1</v>
+      </c>
+      <c r="M62" s="24">
+        <v>1</v>
+      </c>
+      <c r="N62" s="24">
+        <v>1</v>
+      </c>
+      <c r="O62" s="24">
+        <v>0</v>
+      </c>
+      <c r="P62" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="24">
+        <v>1</v>
+      </c>
+      <c r="R62" s="58">
+        <v>0</v>
+      </c>
+      <c r="S62" s="15">
         <f t="shared" si="6"/>
         <v>118</v>
       </c>
-      <c r="T59" s="45" t="str">
+      <c r="T62" s="45" t="str">
         <f t="shared" si="5"/>
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="8:20" x14ac:dyDescent="0.15">
-      <c r="H60" s="37">
+    <row r="63" spans="8:20" x14ac:dyDescent="0.15">
+      <c r="H63" s="37">
         <v>35</v>
       </c>
-      <c r="I60" s="63" t="s">
-        <v>362</v>
-      </c>
-      <c r="J60" s="60">
+      <c r="I63" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="J63" s="60">
         <v>90</v>
       </c>
-      <c r="K60" s="65">
-        <v>1</v>
-      </c>
-      <c r="L60" s="63">
-        <v>1</v>
-      </c>
-      <c r="M60" s="63">
-        <v>0</v>
-      </c>
-      <c r="N60" s="63">
-        <v>1</v>
-      </c>
-      <c r="O60" s="63">
-        <v>1</v>
-      </c>
-      <c r="P60" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="63">
-        <v>0</v>
-      </c>
-      <c r="R60" s="59">
-        <v>0</v>
-      </c>
-      <c r="S60" s="16">
+      <c r="K63" s="65">
+        <v>1</v>
+      </c>
+      <c r="L63" s="63">
+        <v>1</v>
+      </c>
+      <c r="M63" s="63">
+        <v>0</v>
+      </c>
+      <c r="N63" s="63">
+        <v>1</v>
+      </c>
+      <c r="O63" s="63">
+        <v>1</v>
+      </c>
+      <c r="P63" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="63">
+        <v>0</v>
+      </c>
+      <c r="R63" s="59">
+        <v>0</v>
+      </c>
+      <c r="S63" s="16">
         <f t="shared" si="6"/>
         <v>216</v>
       </c>
-      <c r="T60" s="46" t="str">
+      <c r="T63" s="46" t="str">
         <f t="shared" si="5"/>
         <v>D8</v>
       </c>
@@ -5192,2180 +5280,2638 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42459F4-5C37-42F5-87BF-A74B1C5EC3C6}">
-  <dimension ref="B2:F117"/>
+  <dimension ref="B2:G118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="31" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E2" s="29" t="s">
         <v>233</v>
       </c>
       <c r="F2" s="30">
-        <f>25000000/2</f>
-        <v>12500000</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E3" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="F3" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
         <v>234</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>235</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>231</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F4" s="31" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="28">
-        <f t="shared" ref="C4:C50" si="0">C5/2^(1/12)</f>
+      <c r="G4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="28">
+        <f t="shared" ref="C5:C51" si="0">C6/2^(1/12)</f>
         <v>27.499999999999936</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>55</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="32">
-        <f>FLOOR($F$2/2/C4+0.5,1)-1</f>
-        <v>227272</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5">
+      <c r="F5" s="32">
+        <f>FLOOR($F$2/2/C5+0.5,1)-1</f>
+        <v>454544</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f>IF(F5&lt;65536,DEC2HEX(F6,4),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C6" s="28">
         <f t="shared" si="0"/>
         <v>29.135235094880553</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>57</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="32">
-        <f t="shared" ref="F5:F68" si="1">FLOOR($F$2/2/C5+0.5,1)-1</f>
-        <v>214516</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B6">
+      <c r="F6" s="32">
+        <f t="shared" ref="F6:F38" si="1">FLOOR($F$2/$F$3/C6/2+0.5,1)-2</f>
+        <v>214515</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f t="shared" ref="G6:G69" si="2">IF(F6&lt;65536,DEC2HEX(F7,4),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C7" s="28">
         <f t="shared" si="0"/>
         <v>30.867706328507687</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>59</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F7" s="32">
         <f t="shared" si="1"/>
-        <v>202476</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7">
+        <v>202475</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C8" s="28">
         <f t="shared" si="0"/>
         <v>32.703195662574757</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>61</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F8" s="32">
         <f t="shared" si="1"/>
-        <v>191112</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B8">
+        <v>191111</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C9" s="28">
         <f t="shared" si="0"/>
         <v>34.647828872108938</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F9" s="32">
         <f t="shared" si="1"/>
-        <v>180385</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B9">
+        <v>180384</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C10" s="28">
         <f t="shared" si="0"/>
         <v>36.708095989675869</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>65</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F10" s="32">
         <f t="shared" si="1"/>
-        <v>170261</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B10">
+        <v>170260</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C11" s="28">
         <f t="shared" si="0"/>
         <v>38.890872965260037</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>67</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F11" s="32">
         <f t="shared" si="1"/>
-        <v>160705</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11">
+        <v>160704</v>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B12">
         <v>8</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C12" s="28">
         <f t="shared" si="0"/>
         <v>41.203444614108662</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>69</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F12" s="32">
         <f t="shared" si="1"/>
-        <v>151685</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12">
+        <v>151684</v>
+      </c>
+      <c r="G12" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C13" s="28">
         <f t="shared" si="0"/>
         <v>43.6535289291254</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>71</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F13" s="32">
         <f t="shared" si="1"/>
-        <v>143172</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B13">
+        <v>143171</v>
+      </c>
+      <c r="G13" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C14" s="28">
         <f t="shared" si="0"/>
         <v>46.249302838954215</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>73</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F14" s="32">
         <f t="shared" si="1"/>
-        <v>135136</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B14">
+        <v>135135</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C15" s="28">
         <f t="shared" si="0"/>
         <v>48.999429497718573</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>75</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F15" s="32">
         <f t="shared" si="1"/>
-        <v>127552</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15">
+        <v>127551</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B16">
         <v>12</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C16" s="28">
         <f t="shared" si="0"/>
         <v>51.913087197493049</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>77</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F16" s="32">
         <f t="shared" si="1"/>
-        <v>120393</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16">
+        <v>120392</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17">
         <v>13</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C17" s="28">
         <f t="shared" si="0"/>
         <v>54.999999999999901</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>79</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F17" s="32">
         <f t="shared" si="1"/>
-        <v>113635</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17">
+        <v>113634</v>
+      </c>
+      <c r="G17" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18">
         <v>14</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C18" s="28">
         <f t="shared" si="0"/>
         <v>58.270470189761134</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>81</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F18" s="32">
         <f t="shared" si="1"/>
-        <v>107257</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18">
+        <v>107256</v>
+      </c>
+      <c r="G18" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19">
         <v>15</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C19" s="28">
         <f t="shared" si="0"/>
         <v>61.735412657015402</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>83</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F19" s="32">
         <f t="shared" si="1"/>
-        <v>101237</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19">
+        <v>101236</v>
+      </c>
+      <c r="G19" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20">
         <v>16</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C20" s="28">
         <f t="shared" si="0"/>
         <v>65.406391325149542</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>85</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F20" s="32">
         <f t="shared" si="1"/>
-        <v>95555</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20">
+        <v>95554</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B21">
         <v>17</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C21" s="28">
         <f t="shared" si="0"/>
         <v>69.295657744217905</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>87</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F21" s="32">
         <f t="shared" si="1"/>
-        <v>90192</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21">
+        <v>90191</v>
+      </c>
+      <c r="G21" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22">
         <v>18</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C22" s="28">
         <f t="shared" si="0"/>
         <v>73.416191979351765</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>89</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F22" s="32">
         <f t="shared" si="1"/>
-        <v>85130</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22">
+        <v>85129</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23">
         <v>19</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C23" s="28">
         <f t="shared" si="0"/>
         <v>77.781745930520103</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>91</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F23" s="32">
         <f t="shared" si="1"/>
-        <v>80352</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23">
+        <v>80351</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B24">
         <v>20</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C24" s="28">
         <f t="shared" si="0"/>
         <v>82.406889228217352</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>93</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F24" s="32">
         <f t="shared" si="1"/>
-        <v>75842</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24">
+        <v>75841</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B25">
         <v>21</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C25" s="28">
         <f t="shared" si="0"/>
         <v>87.307057858250843</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>95</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F25" s="32">
         <f t="shared" si="1"/>
-        <v>71585</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25">
+        <v>71584</v>
+      </c>
+      <c r="G25" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26">
         <v>22</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C26" s="28">
         <f t="shared" si="0"/>
         <v>92.498605677908472</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>97</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F26" s="32">
         <f t="shared" si="1"/>
-        <v>67568</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26">
+        <v>67567</v>
+      </c>
+      <c r="G26" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27">
         <v>23</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C27" s="28">
         <f t="shared" si="0"/>
         <v>97.998858995437189</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>99</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F27" s="32">
         <f t="shared" si="1"/>
-        <v>63775</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27">
+        <v>63774</v>
+      </c>
+      <c r="G27" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>EB23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B28">
         <v>24</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C28" s="28">
         <f t="shared" si="0"/>
         <v>103.82617439498615</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>101</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="32">
+      <c r="F28" s="32">
         <f t="shared" si="1"/>
-        <v>60196</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28">
+        <v>60195</v>
+      </c>
+      <c r="G28" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>DDF0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B29">
         <v>25</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C29" s="28">
         <f t="shared" si="0"/>
         <v>109.99999999999987</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>103</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F29" s="32">
         <f t="shared" si="1"/>
-        <v>56817</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29">
+        <v>56816</v>
+      </c>
+      <c r="G29" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>D17B</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30">
         <v>26</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C30" s="28">
         <f t="shared" si="0"/>
         <v>116.54094037952235</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>105</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F30" s="32">
         <f t="shared" si="1"/>
-        <v>53628</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30">
+        <v>53627</v>
+      </c>
+      <c r="G30" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>C5B9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B31">
         <v>27</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C31" s="28">
         <f t="shared" si="0"/>
         <v>123.4708253140309</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>107</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F31" s="32">
         <f t="shared" si="1"/>
-        <v>50618</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31">
+        <v>50617</v>
+      </c>
+      <c r="G31" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>BAA0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B32">
         <v>28</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C32" s="28">
         <f t="shared" si="0"/>
         <v>130.8127826502992</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>109</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F32" s="32">
         <f t="shared" si="1"/>
-        <v>47777</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32">
+        <v>47776</v>
+      </c>
+      <c r="G32" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>B027</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33">
         <v>29</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C33" s="28">
         <f t="shared" si="0"/>
         <v>138.59131548843592</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>111</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>112</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F33" s="32">
         <f t="shared" si="1"/>
-        <v>45096</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B33">
+        <v>45095</v>
+      </c>
+      <c r="G33" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>A644</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34">
         <v>30</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C34" s="28">
         <f t="shared" si="0"/>
         <v>146.83238395870364</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>113</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F34" s="32">
         <f t="shared" si="1"/>
-        <v>42565</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34">
+        <v>42564</v>
+      </c>
+      <c r="G34" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>9CEF</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35">
         <v>31</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C35" s="28">
         <f t="shared" si="0"/>
         <v>155.56349186104032</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>115</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>116</v>
       </c>
-      <c r="F34" s="32">
+      <c r="F35" s="32">
         <f t="shared" si="1"/>
-        <v>40176</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B35">
+        <v>40175</v>
+      </c>
+      <c r="G35" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>9420</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36">
         <v>32</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C36" s="28">
         <f t="shared" si="0"/>
         <v>164.81377845643482</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>117</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>118</v>
       </c>
-      <c r="F35" s="32">
+      <c r="F36" s="32">
         <f t="shared" si="1"/>
-        <v>37921</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B36">
+        <v>37920</v>
+      </c>
+      <c r="G36" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>8BCF</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37">
         <v>33</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C37" s="28">
         <f t="shared" si="0"/>
         <v>174.6141157165018</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>119</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="32">
+      <c r="F37" s="32">
         <f t="shared" si="1"/>
-        <v>35792</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37">
+        <v>35791</v>
+      </c>
+      <c r="G37" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>83F6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38">
         <v>34</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C38" s="28">
         <f t="shared" si="0"/>
         <v>184.99721135581706</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>121</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>122</v>
       </c>
-      <c r="F37" s="32">
+      <c r="F38" s="32">
         <f t="shared" si="1"/>
-        <v>33783</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38">
+        <v>33782</v>
+      </c>
+      <c r="G38" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>7C8E</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39">
         <v>35</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C39" s="28">
         <f t="shared" si="0"/>
         <v>195.99771799087449</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>123</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>124</v>
       </c>
-      <c r="F38" s="32">
-        <f t="shared" si="1"/>
-        <v>31887</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B39">
+      <c r="F39" s="32">
+        <f>FLOOR($F$2/$F$3/C39/2+0.5,1)-2</f>
+        <v>31886</v>
+      </c>
+      <c r="G39" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>7590</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40">
         <v>36</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C40" s="28">
         <f t="shared" si="0"/>
         <v>207.65234878997242</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>125</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E40" t="s">
         <v>126</v>
       </c>
-      <c r="F39" s="32">
-        <f t="shared" si="1"/>
-        <v>30097</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B40">
+      <c r="F40" s="32">
+        <f t="shared" ref="F40:F103" si="3">FLOOR($F$2/$F$3/C40/2+0.5,1)-2</f>
+        <v>30096</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>6EF7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B41">
         <v>37</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C41" s="28">
         <f t="shared" si="0"/>
         <v>219.99999999999986</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>127</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E41" t="s">
         <v>128</v>
       </c>
-      <c r="F40" s="32">
-        <f t="shared" si="1"/>
-        <v>28408</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B41">
+      <c r="F41" s="32">
+        <f t="shared" si="3"/>
+        <v>28407</v>
+      </c>
+      <c r="G41" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>68BD</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B42">
         <v>38</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C42" s="28">
         <f t="shared" si="0"/>
         <v>233.08188075904482</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>129</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>130</v>
       </c>
-      <c r="F41" s="32">
-        <f t="shared" si="1"/>
-        <v>26814</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B42">
+      <c r="F42" s="32">
+        <f t="shared" si="3"/>
+        <v>26813</v>
+      </c>
+      <c r="G42" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>62DC</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B43">
         <v>39</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C43" s="28">
         <f t="shared" si="0"/>
         <v>246.94165062806192</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>131</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>132</v>
       </c>
-      <c r="F42" s="32">
-        <f t="shared" si="1"/>
-        <v>25309</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B43">
+      <c r="F43" s="32">
+        <f t="shared" si="3"/>
+        <v>25308</v>
+      </c>
+      <c r="G43" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>5D4F</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B44">
         <v>40</v>
       </c>
-      <c r="C43" s="28">
+      <c r="C44" s="28">
         <f t="shared" si="0"/>
         <v>261.62556530059851</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>133</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>134</v>
       </c>
-      <c r="F43" s="32">
-        <f t="shared" si="1"/>
-        <v>23888</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B44">
+      <c r="F44" s="32">
+        <f t="shared" si="3"/>
+        <v>23887</v>
+      </c>
+      <c r="G44" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>5812</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B45">
         <v>41</v>
       </c>
-      <c r="C44" s="28">
+      <c r="C45" s="28">
         <f t="shared" si="0"/>
         <v>277.18263097687196</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>135</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="32">
-        <f t="shared" si="1"/>
-        <v>22547</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B45">
+      <c r="F45" s="32">
+        <f t="shared" si="3"/>
+        <v>22546</v>
+      </c>
+      <c r="G45" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>5321</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B46">
         <v>42</v>
       </c>
-      <c r="C45" s="28">
+      <c r="C46" s="28">
         <f t="shared" si="0"/>
         <v>293.66476791740746</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>137</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" t="s">
         <v>138</v>
       </c>
-      <c r="F45" s="32">
-        <f t="shared" si="1"/>
-        <v>21282</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B46">
+      <c r="F46" s="32">
+        <f t="shared" si="3"/>
+        <v>21281</v>
+      </c>
+      <c r="G46" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>4E76</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B47">
         <v>43</v>
       </c>
-      <c r="C46" s="28">
+      <c r="C47" s="28">
         <f t="shared" si="0"/>
         <v>311.12698372208081</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>139</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>140</v>
       </c>
-      <c r="F46" s="32">
-        <f t="shared" si="1"/>
-        <v>20087</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B47">
+      <c r="F47" s="32">
+        <f t="shared" si="3"/>
+        <v>20086</v>
+      </c>
+      <c r="G47" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>4A0F</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B48">
         <v>44</v>
       </c>
-      <c r="C47" s="28">
+      <c r="C48" s="28">
         <f t="shared" si="0"/>
         <v>329.62755691286986</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>141</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>142</v>
       </c>
-      <c r="F47" s="32">
-        <f t="shared" si="1"/>
-        <v>18960</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B48">
+      <c r="F48" s="32">
+        <f t="shared" si="3"/>
+        <v>18959</v>
+      </c>
+      <c r="G48" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>45E7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B49">
         <v>45</v>
       </c>
-      <c r="C48" s="28">
+      <c r="C49" s="28">
         <f t="shared" si="0"/>
         <v>349.22823143300383</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>143</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" t="s">
         <v>144</v>
       </c>
-      <c r="F48" s="32">
-        <f t="shared" si="1"/>
-        <v>17896</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49">
+      <c r="F49" s="32">
+        <f t="shared" si="3"/>
+        <v>17895</v>
+      </c>
+      <c r="G49" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>41FA</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B50">
         <v>46</v>
       </c>
-      <c r="C49" s="28">
+      <c r="C50" s="28">
         <f t="shared" si="0"/>
         <v>369.99442271163434</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>145</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>146</v>
       </c>
-      <c r="F49" s="32">
-        <f t="shared" si="1"/>
-        <v>16891</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50">
+      <c r="F50" s="32">
+        <f t="shared" si="3"/>
+        <v>16890</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>3E46</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B51">
         <v>47</v>
       </c>
-      <c r="C50" s="28">
+      <c r="C51" s="28">
         <f t="shared" si="0"/>
         <v>391.99543598174927</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>147</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>148</v>
       </c>
-      <c r="F50" s="32">
-        <f t="shared" si="1"/>
-        <v>15943</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B51">
+      <c r="F51" s="32">
+        <f t="shared" si="3"/>
+        <v>15942</v>
+      </c>
+      <c r="G51" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>3AC7</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B52">
         <v>48</v>
       </c>
-      <c r="C51" s="28">
-        <f>C52/2^(1/12)</f>
+      <c r="C52" s="28">
+        <f>C53/2^(1/12)</f>
         <v>415.30469757994513</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>149</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>150</v>
       </c>
-      <c r="F51" s="32">
-        <f t="shared" si="1"/>
-        <v>15048</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B52">
+      <c r="F52" s="32">
+        <f t="shared" si="3"/>
+        <v>15047</v>
+      </c>
+      <c r="G52" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>377B</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B53" s="67">
         <v>49</v>
       </c>
-      <c r="C52" s="28">
+      <c r="C53" s="68">
         <v>440</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E53" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="F52" s="32">
-        <f t="shared" si="1"/>
-        <v>14204</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B53">
+      <c r="F53" s="69">
+        <f t="shared" si="3"/>
+        <v>14203</v>
+      </c>
+      <c r="G53" s="70" t="str">
+        <f t="shared" si="2"/>
+        <v>345D</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B54">
         <v>50</v>
       </c>
-      <c r="C53" s="28">
-        <f>C52*2^(1/12)</f>
+      <c r="C54" s="28">
+        <f>C53*2^(1/12)</f>
         <v>466.16376151808993</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>153</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>154</v>
       </c>
-      <c r="F53" s="32">
-        <f t="shared" si="1"/>
-        <v>13406</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B54">
+      <c r="F54" s="32">
+        <f t="shared" si="3"/>
+        <v>13405</v>
+      </c>
+      <c r="G54" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>316D</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B55">
         <v>51</v>
       </c>
-      <c r="C54" s="28">
-        <f t="shared" ref="C54:C91" si="2">C53*2^(1/12)</f>
+      <c r="C55" s="28">
+        <f t="shared" ref="C55:C92" si="4">C54*2^(1/12)</f>
         <v>493.88330125612413</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D55" t="s">
         <v>155</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E55" t="s">
         <v>156</v>
       </c>
-      <c r="F54" s="32">
-        <f t="shared" si="1"/>
-        <v>12654</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55">
+      <c r="F55" s="32">
+        <f t="shared" si="3"/>
+        <v>12653</v>
+      </c>
+      <c r="G55" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>2EA7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B56">
         <v>52</v>
       </c>
-      <c r="C55" s="28">
+      <c r="C56" s="28">
+        <f t="shared" si="4"/>
+        <v>523.25113060119736</v>
+      </c>
+      <c r="D56" t="s">
+        <v>157</v>
+      </c>
+      <c r="E56" t="s">
+        <v>158</v>
+      </c>
+      <c r="F56" s="32">
+        <f t="shared" si="3"/>
+        <v>11943</v>
+      </c>
+      <c r="G56" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>523.25113060119736</v>
-      </c>
-      <c r="D55" t="s">
-        <v>157</v>
-      </c>
-      <c r="E55" t="s">
-        <v>158</v>
-      </c>
-      <c r="F55" s="32">
-        <f t="shared" si="1"/>
-        <v>11944</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B56">
+        <v>2C08</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B57">
         <v>53</v>
       </c>
-      <c r="C56" s="28">
+      <c r="C57" s="28">
+        <f t="shared" si="4"/>
+        <v>554.36526195374427</v>
+      </c>
+      <c r="D57" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57" t="s">
+        <v>160</v>
+      </c>
+      <c r="F57" s="32">
+        <f t="shared" si="3"/>
+        <v>11272</v>
+      </c>
+      <c r="G57" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>554.36526195374427</v>
-      </c>
-      <c r="D56" t="s">
-        <v>159</v>
-      </c>
-      <c r="E56" t="s">
-        <v>160</v>
-      </c>
-      <c r="F56" s="32">
-        <f t="shared" si="1"/>
-        <v>11273</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B57">
+        <v>298F</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B58">
         <v>54</v>
       </c>
-      <c r="C57" s="28">
+      <c r="C58" s="28">
+        <f t="shared" si="4"/>
+        <v>587.32953583481526</v>
+      </c>
+      <c r="D58" t="s">
+        <v>161</v>
+      </c>
+      <c r="E58" t="s">
+        <v>162</v>
+      </c>
+      <c r="F58" s="32">
+        <f t="shared" si="3"/>
+        <v>10639</v>
+      </c>
+      <c r="G58" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>587.32953583481526</v>
-      </c>
-      <c r="D57" t="s">
-        <v>161</v>
-      </c>
-      <c r="E57" t="s">
-        <v>162</v>
-      </c>
-      <c r="F57" s="32">
-        <f t="shared" si="1"/>
-        <v>10640</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B58">
+        <v>273A</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B59">
         <v>55</v>
       </c>
-      <c r="C58" s="28">
+      <c r="C59" s="28">
+        <f t="shared" si="4"/>
+        <v>622.25396744416196</v>
+      </c>
+      <c r="D59" t="s">
+        <v>163</v>
+      </c>
+      <c r="E59" t="s">
+        <v>164</v>
+      </c>
+      <c r="F59" s="32">
+        <f t="shared" si="3"/>
+        <v>10042</v>
+      </c>
+      <c r="G59" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>622.25396744416196</v>
-      </c>
-      <c r="D58" t="s">
-        <v>163</v>
-      </c>
-      <c r="E58" t="s">
-        <v>164</v>
-      </c>
-      <c r="F58" s="32">
-        <f t="shared" si="1"/>
-        <v>10043</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B59">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B60">
         <v>56</v>
       </c>
-      <c r="C59" s="28">
+      <c r="C60" s="28">
+        <f t="shared" si="4"/>
+        <v>659.25511382574007</v>
+      </c>
+      <c r="D60" t="s">
+        <v>165</v>
+      </c>
+      <c r="E60" t="s">
+        <v>166</v>
+      </c>
+      <c r="F60" s="32">
+        <f t="shared" si="3"/>
+        <v>9478</v>
+      </c>
+      <c r="G60" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>659.25511382574007</v>
-      </c>
-      <c r="D59" t="s">
-        <v>165</v>
-      </c>
-      <c r="E59" t="s">
-        <v>166</v>
-      </c>
-      <c r="F59" s="32">
-        <f t="shared" si="1"/>
-        <v>9479</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B60">
+        <v>22F2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B61">
         <v>57</v>
       </c>
-      <c r="C60" s="28">
+      <c r="C61" s="28">
+        <f t="shared" si="4"/>
+        <v>698.456462866008</v>
+      </c>
+      <c r="D61" t="s">
+        <v>167</v>
+      </c>
+      <c r="E61" t="s">
+        <v>168</v>
+      </c>
+      <c r="F61" s="32">
+        <f t="shared" si="3"/>
+        <v>8946</v>
+      </c>
+      <c r="G61" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>698.456462866008</v>
-      </c>
-      <c r="D60" t="s">
-        <v>167</v>
-      </c>
-      <c r="E60" t="s">
-        <v>168</v>
-      </c>
-      <c r="F60" s="32">
-        <f t="shared" si="1"/>
-        <v>8947</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B61">
+        <v>20FC</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B62">
         <v>58</v>
       </c>
-      <c r="C61" s="28">
+      <c r="C62" s="28">
+        <f t="shared" si="4"/>
+        <v>739.98884542326903</v>
+      </c>
+      <c r="D62" t="s">
+        <v>169</v>
+      </c>
+      <c r="E62" t="s">
+        <v>170</v>
+      </c>
+      <c r="F62" s="32">
+        <f t="shared" si="3"/>
+        <v>8444</v>
+      </c>
+      <c r="G62" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>739.98884542326903</v>
-      </c>
-      <c r="D61" t="s">
-        <v>169</v>
-      </c>
-      <c r="E61" t="s">
-        <v>170</v>
-      </c>
-      <c r="F61" s="32">
-        <f t="shared" si="1"/>
-        <v>8445</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B62">
+        <v>1F22</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B63">
         <v>59</v>
       </c>
-      <c r="C62" s="28">
+      <c r="C63" s="28">
+        <f t="shared" si="4"/>
+        <v>783.99087196349888</v>
+      </c>
+      <c r="D63" t="s">
+        <v>171</v>
+      </c>
+      <c r="E63" t="s">
+        <v>172</v>
+      </c>
+      <c r="F63" s="32">
+        <f t="shared" si="3"/>
+        <v>7970</v>
+      </c>
+      <c r="G63" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>783.99087196349888</v>
-      </c>
-      <c r="D62" t="s">
-        <v>171</v>
-      </c>
-      <c r="E62" t="s">
-        <v>172</v>
-      </c>
-      <c r="F62" s="32">
-        <f t="shared" si="1"/>
-        <v>7971</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B63">
+        <v>1D63</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B64">
         <v>60</v>
       </c>
-      <c r="C63" s="28">
+      <c r="C64" s="28">
+        <f t="shared" si="4"/>
+        <v>830.6093951598906</v>
+      </c>
+      <c r="D64" t="s">
+        <v>173</v>
+      </c>
+      <c r="E64" t="s">
+        <v>174</v>
+      </c>
+      <c r="F64" s="32">
+        <f t="shared" si="3"/>
+        <v>7523</v>
+      </c>
+      <c r="G64" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>830.6093951598906</v>
-      </c>
-      <c r="D63" t="s">
-        <v>173</v>
-      </c>
-      <c r="E63" t="s">
-        <v>174</v>
-      </c>
-      <c r="F63" s="32">
-        <f t="shared" si="1"/>
-        <v>7524</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B64">
+        <v>1BBC</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B65">
         <v>61</v>
       </c>
-      <c r="C64" s="28">
+      <c r="C65" s="28">
+        <f t="shared" si="4"/>
+        <v>880.00000000000034</v>
+      </c>
+      <c r="D65" t="s">
+        <v>175</v>
+      </c>
+      <c r="E65" t="s">
+        <v>176</v>
+      </c>
+      <c r="F65" s="32">
+        <f t="shared" si="3"/>
+        <v>7100</v>
+      </c>
+      <c r="G65" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>880.00000000000034</v>
-      </c>
-      <c r="D64" t="s">
-        <v>175</v>
-      </c>
-      <c r="E64" t="s">
-        <v>176</v>
-      </c>
-      <c r="F64" s="32">
-        <f t="shared" si="1"/>
-        <v>7101</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B65">
+        <v>1A2E</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B66">
         <v>62</v>
       </c>
-      <c r="C65" s="28">
+      <c r="C66" s="28">
+        <f t="shared" si="4"/>
+        <v>932.3275230361802</v>
+      </c>
+      <c r="D66" t="s">
+        <v>177</v>
+      </c>
+      <c r="E66" t="s">
+        <v>178</v>
+      </c>
+      <c r="F66" s="32">
+        <f t="shared" si="3"/>
+        <v>6702</v>
+      </c>
+      <c r="G66" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>932.3275230361802</v>
-      </c>
-      <c r="D65" t="s">
-        <v>177</v>
-      </c>
-      <c r="E65" t="s">
-        <v>178</v>
-      </c>
-      <c r="F65" s="32">
-        <f t="shared" si="1"/>
-        <v>6703</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B66">
+        <v>18B5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B67">
         <v>63</v>
       </c>
-      <c r="C66" s="28">
+      <c r="C67" s="28">
+        <f t="shared" si="4"/>
+        <v>987.7666025122486</v>
+      </c>
+      <c r="D67" t="s">
+        <v>179</v>
+      </c>
+      <c r="E67" t="s">
+        <v>180</v>
+      </c>
+      <c r="F67" s="32">
+        <f t="shared" si="3"/>
+        <v>6325</v>
+      </c>
+      <c r="G67" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>987.7666025122486</v>
-      </c>
-      <c r="D66" t="s">
-        <v>179</v>
-      </c>
-      <c r="E66" t="s">
-        <v>180</v>
-      </c>
-      <c r="F66" s="32">
-        <f t="shared" si="1"/>
-        <v>6326</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B67">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B68">
         <v>64</v>
       </c>
-      <c r="C67" s="28">
+      <c r="C68" s="28">
+        <f t="shared" si="4"/>
+        <v>1046.5022612023949</v>
+      </c>
+      <c r="D68" t="s">
+        <v>181</v>
+      </c>
+      <c r="E68" t="s">
+        <v>182</v>
+      </c>
+      <c r="F68" s="32">
+        <f t="shared" si="3"/>
+        <v>5970</v>
+      </c>
+      <c r="G68" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>1046.5022612023949</v>
-      </c>
-      <c r="D67" t="s">
-        <v>181</v>
-      </c>
-      <c r="E67" t="s">
-        <v>182</v>
-      </c>
-      <c r="F67" s="32">
-        <f t="shared" si="1"/>
-        <v>5971</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B68">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B69">
         <v>65</v>
       </c>
-      <c r="C68" s="28">
+      <c r="C69" s="28">
+        <f t="shared" si="4"/>
+        <v>1108.7305239074888</v>
+      </c>
+      <c r="D69" t="s">
+        <v>183</v>
+      </c>
+      <c r="E69" t="s">
+        <v>184</v>
+      </c>
+      <c r="F69" s="32">
+        <f t="shared" si="3"/>
+        <v>5635</v>
+      </c>
+      <c r="G69" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>1108.7305239074888</v>
-      </c>
-      <c r="D68" t="s">
-        <v>183</v>
-      </c>
-      <c r="E68" t="s">
-        <v>184</v>
-      </c>
-      <c r="F68" s="32">
-        <f t="shared" si="1"/>
-        <v>5636</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B69">
+        <v>14C7</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B70">
         <v>66</v>
       </c>
-      <c r="C69" s="28">
-        <f t="shared" si="2"/>
+      <c r="C70" s="28">
+        <f t="shared" si="4"/>
         <v>1174.6590716696307</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D70" t="s">
         <v>185</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E70" t="s">
         <v>186</v>
-      </c>
-      <c r="F69" s="32">
-        <f t="shared" ref="F69:F91" si="3">FLOOR($F$2/2/C69+0.5,1)-1</f>
-        <v>5320</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B70">
-        <v>67</v>
-      </c>
-      <c r="C70" s="28">
-        <f t="shared" si="2"/>
-        <v>1244.5079348883241</v>
-      </c>
-      <c r="D70" t="s">
-        <v>187</v>
-      </c>
-      <c r="E70" t="s">
-        <v>188</v>
       </c>
       <c r="F70" s="32">
         <f t="shared" si="3"/>
-        <v>5021</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
+        <v>5319</v>
+      </c>
+      <c r="G70" s="4" t="str">
+        <f t="shared" ref="G70:G116" si="5">IF(F70&lt;65536,DEC2HEX(F71,4),"")</f>
+        <v>139C</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B71">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C71" s="28">
-        <f t="shared" si="2"/>
-        <v>1318.5102276514804</v>
+        <f t="shared" si="4"/>
+        <v>1244.5079348883241</v>
       </c>
       <c r="D71" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E71" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F71" s="32">
         <f t="shared" si="3"/>
-        <v>4739</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
+        <v>5020</v>
+      </c>
+      <c r="G71" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B72">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C72" s="28">
-        <f t="shared" si="2"/>
-        <v>1396.9129257320162</v>
+        <f t="shared" si="4"/>
+        <v>1318.5102276514804</v>
       </c>
       <c r="D72" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E72" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F72" s="32">
         <f t="shared" si="3"/>
-        <v>4473</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
+        <v>4738</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B73">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C73" s="28">
-        <f t="shared" si="2"/>
-        <v>1479.9776908465383</v>
+        <f t="shared" si="4"/>
+        <v>1396.9129257320162</v>
       </c>
       <c r="D73" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E73" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F73" s="32">
         <f t="shared" si="3"/>
-        <v>4222</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
+        <v>4472</v>
+      </c>
+      <c r="G73" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>107D</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B74">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74" s="28">
-        <f t="shared" si="2"/>
-        <v>1567.981743926998</v>
+        <f t="shared" si="4"/>
+        <v>1479.9776908465383</v>
       </c>
       <c r="D74" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E74" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F74" s="32">
         <f t="shared" si="3"/>
-        <v>3985</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
+        <v>4221</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>0F90</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B75">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C75" s="28">
-        <f t="shared" si="2"/>
-        <v>1661.2187903197814</v>
+        <f t="shared" si="4"/>
+        <v>1567.981743926998</v>
       </c>
       <c r="D75" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E75" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F75" s="32">
         <f t="shared" si="3"/>
-        <v>3761</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
+        <v>3984</v>
+      </c>
+      <c r="G75" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>0EB0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B76">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C76" s="28">
-        <f t="shared" si="2"/>
-        <v>1760.0000000000009</v>
+        <f t="shared" si="4"/>
+        <v>1661.2187903197814</v>
       </c>
       <c r="D76" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E76" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F76" s="32">
         <f t="shared" si="3"/>
-        <v>3550</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.15">
+        <v>3760</v>
+      </c>
+      <c r="G76" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>0DDD</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B77">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C77" s="28">
-        <f t="shared" si="2"/>
-        <v>1864.6550460723606</v>
+        <f t="shared" si="4"/>
+        <v>1760.0000000000009</v>
       </c>
       <c r="D77" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E77" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F77" s="32">
         <f t="shared" si="3"/>
-        <v>3351</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.15">
+        <v>3549</v>
+      </c>
+      <c r="G77" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>0D16</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B78">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C78" s="28">
-        <f t="shared" si="2"/>
-        <v>1975.5332050244976</v>
+        <f t="shared" si="4"/>
+        <v>1864.6550460723606</v>
       </c>
       <c r="D78" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E78" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F78" s="32">
         <f t="shared" si="3"/>
-        <v>3163</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
+        <v>3350</v>
+      </c>
+      <c r="G78" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>0C5A</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B79">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C79" s="28">
-        <f t="shared" si="2"/>
-        <v>2093.0045224047904</v>
+        <f t="shared" si="4"/>
+        <v>1975.5332050244976</v>
       </c>
       <c r="D79" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E79" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F79" s="32">
         <f t="shared" si="3"/>
-        <v>2985</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.15">
+        <v>3162</v>
+      </c>
+      <c r="G79" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>0BA8</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B80">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C80" s="28">
-        <f t="shared" si="2"/>
-        <v>2217.4610478149784</v>
+        <f t="shared" si="4"/>
+        <v>2093.0045224047904</v>
       </c>
       <c r="D80" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E80" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F80" s="32">
         <f t="shared" si="3"/>
-        <v>2818</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.15">
+        <v>2984</v>
+      </c>
+      <c r="G80" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>0B01</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B81">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" s="28">
-        <f t="shared" si="2"/>
-        <v>2349.3181433392624</v>
+        <f t="shared" si="4"/>
+        <v>2217.4610478149784</v>
       </c>
       <c r="D81" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E81" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F81" s="32">
         <f t="shared" si="3"/>
-        <v>2659</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
+        <v>2817</v>
+      </c>
+      <c r="G81" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>0A62</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B82">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C82" s="28">
-        <f t="shared" si="2"/>
-        <v>2489.0158697766497</v>
+        <f t="shared" si="4"/>
+        <v>2349.3181433392624</v>
       </c>
       <c r="D82" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E82" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F82" s="32">
         <f t="shared" si="3"/>
-        <v>2510</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.15">
+        <v>2658</v>
+      </c>
+      <c r="G82" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>09CD</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B83">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C83" s="28">
-        <f t="shared" si="2"/>
-        <v>2637.0204553029621</v>
+        <f t="shared" si="4"/>
+        <v>2489.0158697766497</v>
       </c>
       <c r="D83" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E83" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F83" s="32">
         <f t="shared" si="3"/>
-        <v>2369</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
+        <v>2509</v>
+      </c>
+      <c r="G83" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>0940</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B84">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C84" s="28">
-        <f t="shared" si="2"/>
-        <v>2793.8258514640338</v>
+        <f t="shared" si="4"/>
+        <v>2637.0204553029621</v>
       </c>
       <c r="D84" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E84" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F84" s="32">
         <f t="shared" si="3"/>
-        <v>2236</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
+        <v>2368</v>
+      </c>
+      <c r="G84" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>08BB</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B85">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C85" s="28">
-        <f t="shared" si="2"/>
-        <v>2959.9553816930784</v>
+        <f t="shared" si="4"/>
+        <v>2793.8258514640338</v>
       </c>
       <c r="D85" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E85" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F85" s="32">
         <f t="shared" si="3"/>
-        <v>2111</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
+        <v>2235</v>
+      </c>
+      <c r="G85" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>083E</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B86">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C86" s="28">
-        <f t="shared" si="2"/>
-        <v>3135.9634878539978</v>
+        <f t="shared" si="4"/>
+        <v>2959.9553816930784</v>
       </c>
       <c r="D86" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E86" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F86" s="32">
         <f t="shared" si="3"/>
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
+        <v>2110</v>
+      </c>
+      <c r="G86" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>07C7</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B87">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C87" s="28">
-        <f t="shared" si="2"/>
-        <v>3322.4375806395647</v>
+        <f t="shared" si="4"/>
+        <v>3135.9634878539978</v>
       </c>
       <c r="D87" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E87" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F87" s="32">
         <f t="shared" si="3"/>
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.15">
+        <v>1991</v>
+      </c>
+      <c r="G87" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>0757</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B88">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C88" s="28">
-        <f t="shared" si="2"/>
-        <v>3520.0000000000041</v>
+        <f t="shared" si="4"/>
+        <v>3322.4375806395647</v>
       </c>
       <c r="D88" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E88" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F88" s="32">
         <f t="shared" si="3"/>
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.15">
+        <v>1879</v>
+      </c>
+      <c r="G88" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>06EE</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B89">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C89" s="28">
-        <f t="shared" si="2"/>
-        <v>3729.310092144724</v>
+        <f t="shared" si="4"/>
+        <v>3520.0000000000041</v>
       </c>
       <c r="D89" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E89" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F89" s="32">
         <f t="shared" si="3"/>
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
+        <v>1774</v>
+      </c>
+      <c r="G89" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>068A</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B90">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C90" s="28">
-        <f t="shared" si="2"/>
-        <v>3951.066410048998</v>
+        <f t="shared" si="4"/>
+        <v>3729.310092144724</v>
       </c>
       <c r="D90" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E90" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F90" s="32">
         <f t="shared" si="3"/>
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.15">
+        <v>1674</v>
+      </c>
+      <c r="G90" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>062C</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B91">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C91" s="28">
-        <f t="shared" si="2"/>
-        <v>4186.0090448095834</v>
+        <f t="shared" si="4"/>
+        <v>3951.066410048998</v>
       </c>
       <c r="D91" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E91" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F91" s="32">
         <f t="shared" si="3"/>
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.15">
+        <v>1580</v>
+      </c>
+      <c r="G91" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>05D3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B92">
+        <v>88</v>
+      </c>
+      <c r="C92" s="28">
+        <f t="shared" si="4"/>
+        <v>4186.0090448095834</v>
+      </c>
+      <c r="D92" t="s">
+        <v>229</v>
+      </c>
+      <c r="E92" t="s">
+        <v>230</v>
+      </c>
+      <c r="F92" s="32">
+        <f t="shared" si="3"/>
+        <v>1491</v>
+      </c>
+      <c r="G92" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>057F</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B93">
         <v>89</v>
       </c>
-      <c r="C92" s="28">
-        <f t="shared" ref="C92:C109" si="4">C91*2^(1/12)</f>
+      <c r="C93" s="28">
+        <f t="shared" ref="C93:C110" si="6">C92*2^(1/12)</f>
         <v>4434.9220956299596</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D93" t="s">
         <v>236</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E93" t="s">
         <v>237</v>
       </c>
-      <c r="F92" s="32">
-        <f t="shared" ref="F92:F109" si="5">FLOOR($F$2/2/C92+0.5,1)-1</f>
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B93">
+      <c r="F93" s="32">
+        <f t="shared" si="3"/>
+        <v>1407</v>
+      </c>
+      <c r="G93" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>0530</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B94">
         <v>90</v>
       </c>
-      <c r="C93" s="28">
-        <f t="shared" si="4"/>
+      <c r="C94" s="28">
+        <f t="shared" si="6"/>
         <v>4698.6362866785275</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D94" t="s">
         <v>238</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E94" t="s">
         <v>239</v>
       </c>
-      <c r="F93" s="32">
+      <c r="F94" s="32">
+        <f t="shared" si="3"/>
+        <v>1328</v>
+      </c>
+      <c r="G94" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B94">
+        <v>04E6</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B95">
         <v>91</v>
       </c>
-      <c r="C94" s="28">
-        <f t="shared" si="4"/>
+      <c r="C95" s="28">
+        <f t="shared" si="6"/>
         <v>4978.031739553302</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D95" t="s">
         <v>240</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E95" t="s">
         <v>241</v>
       </c>
-      <c r="F94" s="32">
+      <c r="F95" s="32">
+        <f t="shared" si="3"/>
+        <v>1254</v>
+      </c>
+      <c r="G95" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B95">
+        <v>049F</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B96">
         <v>92</v>
       </c>
-      <c r="C95" s="28">
-        <f t="shared" si="4"/>
+      <c r="C96" s="28">
+        <f t="shared" si="6"/>
         <v>5274.0409106059269</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D96" t="s">
         <v>242</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E96" t="s">
         <v>243</v>
       </c>
-      <c r="F95" s="32">
+      <c r="F96" s="32">
+        <f t="shared" si="3"/>
+        <v>1183</v>
+      </c>
+      <c r="G96" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B96">
+        <v>045D</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B97">
         <v>93</v>
       </c>
-      <c r="C96" s="28">
-        <f t="shared" si="4"/>
+      <c r="C97" s="28">
+        <f t="shared" si="6"/>
         <v>5587.6517029280712</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D97" t="s">
         <v>244</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E97" t="s">
         <v>245</v>
       </c>
-      <c r="F96" s="32">
+      <c r="F97" s="32">
+        <f t="shared" si="3"/>
+        <v>1117</v>
+      </c>
+      <c r="G97" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B97">
+        <v>041E</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B98">
         <v>94</v>
       </c>
-      <c r="C97" s="28">
-        <f t="shared" si="4"/>
+      <c r="C98" s="28">
+        <f t="shared" si="6"/>
         <v>5919.9107633861604</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D98" t="s">
         <v>246</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E98" t="s">
         <v>247</v>
       </c>
-      <c r="F97" s="32">
+      <c r="F98" s="32">
+        <f t="shared" si="3"/>
+        <v>1054</v>
+      </c>
+      <c r="G98" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B98">
+        <v>03E3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B99">
         <v>95</v>
       </c>
-      <c r="C98" s="28">
-        <f t="shared" si="4"/>
+      <c r="C99" s="28">
+        <f t="shared" si="6"/>
         <v>6271.9269757079992</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D99" t="s">
         <v>248</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E99" t="s">
         <v>249</v>
       </c>
-      <c r="F98" s="32">
+      <c r="F99" s="32">
+        <f t="shared" si="3"/>
+        <v>995</v>
+      </c>
+      <c r="G99" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>996</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B99">
+        <v>03AB</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B100">
         <v>96</v>
       </c>
-      <c r="C99" s="28">
-        <f t="shared" si="4"/>
+      <c r="C100" s="28">
+        <f t="shared" si="6"/>
         <v>6644.8751612791339</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D100" t="s">
         <v>250</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E100" t="s">
         <v>251</v>
       </c>
-      <c r="F99" s="32">
+      <c r="F100" s="32">
+        <f t="shared" si="3"/>
+        <v>939</v>
+      </c>
+      <c r="G100" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>940</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B100">
+        <v>0376</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B101">
         <v>97</v>
       </c>
-      <c r="C100" s="28">
-        <f t="shared" si="4"/>
+      <c r="C101" s="28">
+        <f t="shared" si="6"/>
         <v>7040.0000000000127</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D101" t="s">
         <v>252</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E101" t="s">
         <v>253</v>
       </c>
-      <c r="F100" s="32">
+      <c r="F101" s="32">
+        <f t="shared" si="3"/>
+        <v>886</v>
+      </c>
+      <c r="G101" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>887</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B101">
+        <v>0344</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B102">
         <v>98</v>
       </c>
-      <c r="C101" s="28">
-        <f t="shared" si="4"/>
+      <c r="C102" s="28">
+        <f t="shared" si="6"/>
         <v>7458.6201842894525</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D102" t="s">
         <v>254</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E102" t="s">
         <v>255</v>
       </c>
-      <c r="F101" s="32">
+      <c r="F102" s="32">
+        <f t="shared" si="3"/>
+        <v>836</v>
+      </c>
+      <c r="G102" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>837</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B102">
+        <v>0315</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B103">
         <v>99</v>
       </c>
-      <c r="C102" s="28">
-        <f t="shared" si="4"/>
+      <c r="C103" s="28">
+        <f t="shared" si="6"/>
         <v>7902.1328200980006</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D103" t="s">
         <v>256</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E103" t="s">
         <v>257</v>
       </c>
-      <c r="F102" s="32">
+      <c r="F103" s="32">
+        <f t="shared" si="3"/>
+        <v>789</v>
+      </c>
+      <c r="G103" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>790</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B103">
+        <v>02E9</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B104">
         <v>100</v>
       </c>
-      <c r="C103" s="28">
-        <f t="shared" si="4"/>
+      <c r="C104" s="28">
+        <f t="shared" si="6"/>
         <v>8372.0180896191723</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D104" t="s">
         <v>280</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E104" t="s">
         <v>281</v>
       </c>
-      <c r="F103" s="32">
+      <c r="F104" s="32">
+        <f t="shared" ref="F104:F116" si="7">FLOOR($F$2/$F$3/C104/2+0.5,1)-2</f>
+        <v>745</v>
+      </c>
+      <c r="G104" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>746</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B104">
+        <v>02BF</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B105">
         <v>101</v>
       </c>
-      <c r="C104" s="28">
-        <f t="shared" si="4"/>
+      <c r="C105" s="28">
+        <f t="shared" si="6"/>
         <v>8869.8441912599246</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D105" t="s">
         <v>258</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E105" t="s">
         <v>259</v>
       </c>
-      <c r="F104" s="32">
+      <c r="F105" s="32">
+        <f t="shared" si="7"/>
+        <v>703</v>
+      </c>
+      <c r="G105" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>704</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B105">
+        <v>0297</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B106">
         <v>102</v>
       </c>
-      <c r="C105" s="28">
-        <f t="shared" si="4"/>
+      <c r="C106" s="28">
+        <f t="shared" si="6"/>
         <v>9397.2725733570605</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D106" t="s">
         <v>260</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E106" t="s">
         <v>261</v>
       </c>
-      <c r="F105" s="32">
+      <c r="F106" s="32">
+        <f t="shared" si="7"/>
+        <v>663</v>
+      </c>
+      <c r="G106" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>664</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B106">
+        <v>0272</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B107">
         <v>103</v>
       </c>
-      <c r="C106" s="28">
-        <f t="shared" si="4"/>
+      <c r="C107" s="28">
+        <f t="shared" si="6"/>
         <v>9956.0634791066095</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D107" t="s">
         <v>262</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E107" t="s">
         <v>263</v>
       </c>
-      <c r="F106" s="32">
+      <c r="F107" s="32">
+        <f t="shared" si="7"/>
+        <v>626</v>
+      </c>
+      <c r="G107" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>627</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B107">
+        <v>024F</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B108">
         <v>104</v>
       </c>
-      <c r="C107" s="28">
-        <f t="shared" si="4"/>
+      <c r="C108" s="28">
+        <f t="shared" si="6"/>
         <v>10548.081821211859</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D108" t="s">
         <v>264</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E108" t="s">
         <v>265</v>
       </c>
-      <c r="F107" s="32">
+      <c r="F108" s="32">
+        <f t="shared" si="7"/>
+        <v>591</v>
+      </c>
+      <c r="G108" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>592</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B108">
+        <v>022D</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B109">
         <v>105</v>
       </c>
-      <c r="C108" s="28">
-        <f t="shared" si="4"/>
+      <c r="C109" s="28">
+        <f t="shared" si="6"/>
         <v>11175.303405856148</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D109" t="s">
         <v>266</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E109" t="s">
         <v>267</v>
       </c>
-      <c r="F108" s="32">
+      <c r="F109" s="32">
+        <f t="shared" si="7"/>
+        <v>557</v>
+      </c>
+      <c r="G109" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>558</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B109">
+        <v>020E</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B110">
         <v>106</v>
       </c>
-      <c r="C109" s="28">
-        <f t="shared" si="4"/>
+      <c r="C110" s="28">
+        <f t="shared" si="6"/>
         <v>11839.821526772326</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D110" t="s">
         <v>268</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E110" t="s">
         <v>269</v>
       </c>
-      <c r="F109" s="32">
+      <c r="F110" s="32">
+        <f t="shared" si="7"/>
+        <v>526</v>
+      </c>
+      <c r="G110" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>527</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B110">
+        <v>01F0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B111">
         <v>107</v>
       </c>
-      <c r="C110" s="28">
-        <f t="shared" ref="C110:C115" si="6">C109*2^(1/12)</f>
+      <c r="C111" s="28">
+        <f t="shared" ref="C111:C116" si="8">C110*2^(1/12)</f>
         <v>12543.853951416006</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D111" t="s">
         <v>270</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E111" t="s">
         <v>271</v>
-      </c>
-      <c r="F110" s="32">
-        <f t="shared" ref="F110:F115" si="7">FLOOR($F$2/2/C110+0.5,1)-1</f>
-        <v>497</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B111">
-        <v>108</v>
-      </c>
-      <c r="C111" s="28">
-        <f t="shared" si="6"/>
-        <v>13289.750322558275</v>
-      </c>
-      <c r="D111" t="s">
-        <v>272</v>
-      </c>
-      <c r="E111" t="s">
-        <v>273</v>
       </c>
       <c r="F111" s="32">
         <f t="shared" si="7"/>
-        <v>469</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.15">
+        <v>496</v>
+      </c>
+      <c r="G111" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>01D4</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B112">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C112" s="28">
-        <f t="shared" si="6"/>
-        <v>14080.000000000033</v>
+        <f t="shared" si="8"/>
+        <v>13289.750322558275</v>
       </c>
       <c r="D112" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E112" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F112" s="32">
         <f t="shared" si="7"/>
-        <v>443</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.15">
+        <v>468</v>
+      </c>
+      <c r="G112" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>01BA</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B113">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C113" s="28">
-        <f t="shared" si="6"/>
-        <v>14917.240368578912</v>
+        <f t="shared" si="8"/>
+        <v>14080.000000000033</v>
       </c>
       <c r="D113" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E113" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F113" s="32">
         <f t="shared" si="7"/>
-        <v>418</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.15">
+        <v>442</v>
+      </c>
+      <c r="G113" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>01A1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B114">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C114" s="28">
-        <f t="shared" si="6"/>
-        <v>15804.265640196008</v>
+        <f t="shared" si="8"/>
+        <v>14917.240368578912</v>
       </c>
       <c r="D114" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E114" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F114" s="32">
         <f t="shared" si="7"/>
-        <v>394</v>
-      </c>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.15">
+        <v>417</v>
+      </c>
+      <c r="G114" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>0189</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B115">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C115" s="28">
-        <f t="shared" si="6"/>
-        <v>16744.036179238352</v>
+        <f t="shared" si="8"/>
+        <v>15804.265640196008</v>
       </c>
       <c r="D115" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E115" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F115" s="32">
         <f t="shared" si="7"/>
-        <v>372</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C116" s="28"/>
-      <c r="F116" s="32"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.15">
+        <v>393</v>
+      </c>
+      <c r="G115" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>0173</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B116">
+        <v>112</v>
+      </c>
+      <c r="C116" s="28">
+        <f t="shared" si="8"/>
+        <v>16744.036179238352</v>
+      </c>
+      <c r="D116" t="s">
+        <v>282</v>
+      </c>
+      <c r="E116" t="s">
+        <v>283</v>
+      </c>
+      <c r="F116" s="32">
+        <f t="shared" si="7"/>
+        <v>371</v>
+      </c>
+      <c r="G116" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C117" s="28"/>
       <c r="F117" s="32"/>
     </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C118" s="28"/>
+      <c r="F118" s="32"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F4:F117">
+  <conditionalFormatting sqref="F5:F118">
     <cfRule type="cellIs" dxfId="65" priority="1" operator="lessThan">
       <formula>65536</formula>
     </cfRule>
@@ -7462,7 +8008,7 @@
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B6" s="66" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C6" s="11"/>
       <c r="E6" s="11"/>
@@ -7531,7 +8077,7 @@
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C12" s="11"/>
       <c r="E12" s="11"/>
@@ -7596,7 +8142,7 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B18" s="66" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C18" s="11"/>
       <c r="E18" s="11"/>
@@ -8953,7 +9499,7 @@
     </row>
     <row r="120" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B120" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C120" s="11">
         <v>1</v>
@@ -9018,7 +9564,7 @@
     </row>
     <row r="126" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B126" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C126" s="11">
         <v>1</v>
@@ -9081,7 +9627,7 @@
     </row>
     <row r="132" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B132" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C132" s="11"/>
       <c r="E132" s="11"/>
@@ -9136,7 +9682,7 @@
     </row>
     <row r="138" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B138" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C138" s="11"/>
       <c r="E138" s="11">
@@ -9213,7 +9759,7 @@
     </row>
     <row r="144" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B144" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C144" s="11">
         <v>1</v>
@@ -9305,7 +9851,7 @@
     </row>
     <row r="150" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B150" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C150" s="11">
         <v>1</v>
@@ -9366,7 +9912,7 @@
     </row>
     <row r="156" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B156" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C156" s="11">
         <v>1</v>
@@ -9427,7 +9973,7 @@
     </row>
     <row r="162" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B162" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C162" s="11"/>
       <c r="E162" s="11"/>
@@ -9486,7 +10032,7 @@
     </row>
     <row r="168" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B168" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C168" s="11"/>
       <c r="E168" s="11"/>
@@ -9549,7 +10095,7 @@
     </row>
     <row r="174" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B174" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C174" s="11">
         <v>1</v>
@@ -9626,7 +10172,7 @@
     </row>
     <row r="180" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B180" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C180" s="11">
         <v>1</v>
@@ -9720,7 +10266,7 @@
     </row>
     <row r="186" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B186" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C186" s="11"/>
       <c r="E186" s="11"/>
@@ -9777,7 +10323,7 @@
     </row>
     <row r="192" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B192" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C192" s="11">
         <v>1</v>
@@ -9838,7 +10384,7 @@
     </row>
     <row r="198" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B198" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C198" s="11">
         <v>1</v>
@@ -9899,7 +10445,7 @@
     </row>
     <row r="204" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B204" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C204" s="11"/>
       <c r="E204" s="11"/>
@@ -9958,7 +10504,7 @@
     </row>
     <row r="210" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B210" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C210" s="11">
         <v>1</v>
@@ -10131,7 +10677,7 @@
     </row>
     <row r="222" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B222" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C222" s="11">
         <v>1</v>
@@ -10194,7 +10740,7 @@
     </row>
     <row r="228" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B228" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C228" s="11">
         <v>1</v>
@@ -10259,7 +10805,7 @@
     </row>
     <row r="234" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B234" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C234" s="11"/>
       <c r="E234" s="11">

--- a/I2C27SEG2.xlsx
+++ b/I2C27SEG2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cxwao\Documents\GitHub2\GreenPAK_I2C27SEG2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1979F5AA-B297-404B-912E-E18A11F8CDC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885E9574-0FA4-4733-8099-B1D23B3B84A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11985" yWindow="0" windowWidth="13575" windowHeight="14835" tabRatio="634" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="2490" windowWidth="24375" windowHeight="13545" tabRatio="634" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5621AS" sheetId="7" r:id="rId1"/>
@@ -2735,7 +2735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -3180,8 +3180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2BAE2D-83DF-4F5D-95C8-E4EA3135B38D}">
   <dimension ref="B2:T63"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5282,8 +5282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42459F4-5C37-42F5-87BF-A74B1C5EC3C6}">
   <dimension ref="B2:G118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5851,8 +5851,8 @@
         <v>63774</v>
       </c>
       <c r="G27" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>EB23</v>
+        <f>IF(F27&lt;65536,DEC2HEX(F27,4),"")</f>
+        <v>F91E</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
@@ -5874,8 +5874,8 @@
         <v>60195</v>
       </c>
       <c r="G28" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>DDF0</v>
+        <f t="shared" ref="G28:G91" si="3">IF(F28&lt;65536,DEC2HEX(F28,4),"")</f>
+        <v>EB23</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
@@ -5897,8 +5897,8 @@
         <v>56816</v>
       </c>
       <c r="G29" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>D17B</v>
+        <f t="shared" si="3"/>
+        <v>DDF0</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
@@ -5920,8 +5920,8 @@
         <v>53627</v>
       </c>
       <c r="G30" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>C5B9</v>
+        <f t="shared" si="3"/>
+        <v>D17B</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
@@ -5943,8 +5943,8 @@
         <v>50617</v>
       </c>
       <c r="G31" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>BAA0</v>
+        <f t="shared" si="3"/>
+        <v>C5B9</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
@@ -5966,8 +5966,8 @@
         <v>47776</v>
       </c>
       <c r="G32" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>B027</v>
+        <f t="shared" si="3"/>
+        <v>BAA0</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
@@ -5989,8 +5989,8 @@
         <v>45095</v>
       </c>
       <c r="G33" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>A644</v>
+        <f t="shared" si="3"/>
+        <v>B027</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
@@ -6012,8 +6012,8 @@
         <v>42564</v>
       </c>
       <c r="G34" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>9CEF</v>
+        <f t="shared" si="3"/>
+        <v>A644</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
@@ -6035,8 +6035,8 @@
         <v>40175</v>
       </c>
       <c r="G35" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>9420</v>
+        <f t="shared" si="3"/>
+        <v>9CEF</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
@@ -6058,8 +6058,8 @@
         <v>37920</v>
       </c>
       <c r="G36" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>8BCF</v>
+        <f t="shared" si="3"/>
+        <v>9420</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
@@ -6081,8 +6081,8 @@
         <v>35791</v>
       </c>
       <c r="G37" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>83F6</v>
+        <f t="shared" si="3"/>
+        <v>8BCF</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
@@ -6104,8 +6104,8 @@
         <v>33782</v>
       </c>
       <c r="G38" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>7C8E</v>
+        <f t="shared" si="3"/>
+        <v>83F6</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
@@ -6127,8 +6127,8 @@
         <v>31886</v>
       </c>
       <c r="G39" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>7590</v>
+        <f t="shared" si="3"/>
+        <v>7C8E</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
@@ -6146,12 +6146,12 @@
         <v>126</v>
       </c>
       <c r="F40" s="32">
-        <f t="shared" ref="F40:F103" si="3">FLOOR($F$2/$F$3/C40/2+0.5,1)-2</f>
+        <f t="shared" ref="F40:F103" si="4">FLOOR($F$2/$F$3/C40/2+0.5,1)-2</f>
         <v>30096</v>
       </c>
       <c r="G40" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>6EF7</v>
+        <f t="shared" si="3"/>
+        <v>7590</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
@@ -6169,12 +6169,12 @@
         <v>128</v>
       </c>
       <c r="F41" s="32">
+        <f t="shared" si="4"/>
+        <v>28407</v>
+      </c>
+      <c r="G41" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>28407</v>
-      </c>
-      <c r="G41" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>68BD</v>
+        <v>6EF7</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
@@ -6192,12 +6192,12 @@
         <v>130</v>
       </c>
       <c r="F42" s="32">
+        <f t="shared" si="4"/>
+        <v>26813</v>
+      </c>
+      <c r="G42" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>26813</v>
-      </c>
-      <c r="G42" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>62DC</v>
+        <v>68BD</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
@@ -6215,12 +6215,12 @@
         <v>132</v>
       </c>
       <c r="F43" s="32">
+        <f t="shared" si="4"/>
+        <v>25308</v>
+      </c>
+      <c r="G43" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>25308</v>
-      </c>
-      <c r="G43" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>5D4F</v>
+        <v>62DC</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
@@ -6238,12 +6238,12 @@
         <v>134</v>
       </c>
       <c r="F44" s="32">
+        <f t="shared" si="4"/>
+        <v>23887</v>
+      </c>
+      <c r="G44" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>23887</v>
-      </c>
-      <c r="G44" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>5812</v>
+        <v>5D4F</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
@@ -6261,12 +6261,12 @@
         <v>136</v>
       </c>
       <c r="F45" s="32">
+        <f t="shared" si="4"/>
+        <v>22546</v>
+      </c>
+      <c r="G45" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>22546</v>
-      </c>
-      <c r="G45" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>5321</v>
+        <v>5812</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
@@ -6284,12 +6284,12 @@
         <v>138</v>
       </c>
       <c r="F46" s="32">
+        <f t="shared" si="4"/>
+        <v>21281</v>
+      </c>
+      <c r="G46" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>21281</v>
-      </c>
-      <c r="G46" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>4E76</v>
+        <v>5321</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
@@ -6307,12 +6307,12 @@
         <v>140</v>
       </c>
       <c r="F47" s="32">
+        <f t="shared" si="4"/>
+        <v>20086</v>
+      </c>
+      <c r="G47" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>20086</v>
-      </c>
-      <c r="G47" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>4A0F</v>
+        <v>4E76</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
@@ -6330,12 +6330,12 @@
         <v>142</v>
       </c>
       <c r="F48" s="32">
+        <f t="shared" si="4"/>
+        <v>18959</v>
+      </c>
+      <c r="G48" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>18959</v>
-      </c>
-      <c r="G48" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>45E7</v>
+        <v>4A0F</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
@@ -6353,12 +6353,12 @@
         <v>144</v>
       </c>
       <c r="F49" s="32">
+        <f t="shared" si="4"/>
+        <v>17895</v>
+      </c>
+      <c r="G49" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>17895</v>
-      </c>
-      <c r="G49" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>41FA</v>
+        <v>45E7</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.15">
@@ -6376,12 +6376,12 @@
         <v>146</v>
       </c>
       <c r="F50" s="32">
+        <f t="shared" si="4"/>
+        <v>16890</v>
+      </c>
+      <c r="G50" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>16890</v>
-      </c>
-      <c r="G50" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3E46</v>
+        <v>41FA</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.15">
@@ -6399,12 +6399,12 @@
         <v>148</v>
       </c>
       <c r="F51" s="32">
+        <f t="shared" si="4"/>
+        <v>15942</v>
+      </c>
+      <c r="G51" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>15942</v>
-      </c>
-      <c r="G51" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>3AC7</v>
+        <v>3E46</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.15">
@@ -6422,12 +6422,12 @@
         <v>150</v>
       </c>
       <c r="F52" s="32">
+        <f t="shared" si="4"/>
+        <v>15047</v>
+      </c>
+      <c r="G52" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>15047</v>
-      </c>
-      <c r="G52" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>377B</v>
+        <v>3AC7</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.15">
@@ -6444,12 +6444,12 @@
         <v>152</v>
       </c>
       <c r="F53" s="69">
+        <f t="shared" si="4"/>
+        <v>14203</v>
+      </c>
+      <c r="G53" s="70" t="str">
         <f t="shared" si="3"/>
-        <v>14203</v>
-      </c>
-      <c r="G53" s="70" t="str">
-        <f t="shared" si="2"/>
-        <v>345D</v>
+        <v>377B</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.15">
@@ -6467,12 +6467,12 @@
         <v>154</v>
       </c>
       <c r="F54" s="32">
+        <f t="shared" si="4"/>
+        <v>13405</v>
+      </c>
+      <c r="G54" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>13405</v>
-      </c>
-      <c r="G54" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>316D</v>
+        <v>345D</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.15">
@@ -6480,7 +6480,7 @@
         <v>51</v>
       </c>
       <c r="C55" s="28">
-        <f t="shared" ref="C55:C92" si="4">C54*2^(1/12)</f>
+        <f t="shared" ref="C55:C92" si="5">C54*2^(1/12)</f>
         <v>493.88330125612413</v>
       </c>
       <c r="D55" t="s">
@@ -6490,12 +6490,12 @@
         <v>156</v>
       </c>
       <c r="F55" s="32">
+        <f t="shared" si="4"/>
+        <v>12653</v>
+      </c>
+      <c r="G55" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>12653</v>
-      </c>
-      <c r="G55" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>2EA7</v>
+        <v>316D</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.15">
@@ -6503,7 +6503,7 @@
         <v>52</v>
       </c>
       <c r="C56" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>523.25113060119736</v>
       </c>
       <c r="D56" t="s">
@@ -6513,12 +6513,12 @@
         <v>158</v>
       </c>
       <c r="F56" s="32">
+        <f t="shared" si="4"/>
+        <v>11943</v>
+      </c>
+      <c r="G56" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>11943</v>
-      </c>
-      <c r="G56" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>2C08</v>
+        <v>2EA7</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.15">
@@ -6526,7 +6526,7 @@
         <v>53</v>
       </c>
       <c r="C57" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>554.36526195374427</v>
       </c>
       <c r="D57" t="s">
@@ -6536,12 +6536,12 @@
         <v>160</v>
       </c>
       <c r="F57" s="32">
+        <f t="shared" si="4"/>
+        <v>11272</v>
+      </c>
+      <c r="G57" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>11272</v>
-      </c>
-      <c r="G57" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>298F</v>
+        <v>2C08</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.15">
@@ -6549,7 +6549,7 @@
         <v>54</v>
       </c>
       <c r="C58" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>587.32953583481526</v>
       </c>
       <c r="D58" t="s">
@@ -6559,12 +6559,12 @@
         <v>162</v>
       </c>
       <c r="F58" s="32">
+        <f t="shared" si="4"/>
+        <v>10639</v>
+      </c>
+      <c r="G58" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>10639</v>
-      </c>
-      <c r="G58" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>273A</v>
+        <v>298F</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.15">
@@ -6572,7 +6572,7 @@
         <v>55</v>
       </c>
       <c r="C59" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>622.25396744416196</v>
       </c>
       <c r="D59" t="s">
@@ -6582,12 +6582,12 @@
         <v>164</v>
       </c>
       <c r="F59" s="32">
+        <f t="shared" si="4"/>
+        <v>10042</v>
+      </c>
+      <c r="G59" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>10042</v>
-      </c>
-      <c r="G59" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>2506</v>
+        <v>273A</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.15">
@@ -6595,7 +6595,7 @@
         <v>56</v>
       </c>
       <c r="C60" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>659.25511382574007</v>
       </c>
       <c r="D60" t="s">
@@ -6605,12 +6605,12 @@
         <v>166</v>
       </c>
       <c r="F60" s="32">
+        <f t="shared" si="4"/>
+        <v>9478</v>
+      </c>
+      <c r="G60" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>9478</v>
-      </c>
-      <c r="G60" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>22F2</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.15">
@@ -6618,7 +6618,7 @@
         <v>57</v>
       </c>
       <c r="C61" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>698.456462866008</v>
       </c>
       <c r="D61" t="s">
@@ -6628,12 +6628,12 @@
         <v>168</v>
       </c>
       <c r="F61" s="32">
+        <f t="shared" si="4"/>
+        <v>8946</v>
+      </c>
+      <c r="G61" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>8946</v>
-      </c>
-      <c r="G61" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>20FC</v>
+        <v>22F2</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.15">
@@ -6641,7 +6641,7 @@
         <v>58</v>
       </c>
       <c r="C62" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>739.98884542326903</v>
       </c>
       <c r="D62" t="s">
@@ -6651,12 +6651,12 @@
         <v>170</v>
       </c>
       <c r="F62" s="32">
+        <f t="shared" si="4"/>
+        <v>8444</v>
+      </c>
+      <c r="G62" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>8444</v>
-      </c>
-      <c r="G62" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>1F22</v>
+        <v>20FC</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.15">
@@ -6664,7 +6664,7 @@
         <v>59</v>
       </c>
       <c r="C63" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>783.99087196349888</v>
       </c>
       <c r="D63" t="s">
@@ -6674,12 +6674,12 @@
         <v>172</v>
       </c>
       <c r="F63" s="32">
+        <f t="shared" si="4"/>
+        <v>7970</v>
+      </c>
+      <c r="G63" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>7970</v>
-      </c>
-      <c r="G63" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>1D63</v>
+        <v>1F22</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.15">
@@ -6687,7 +6687,7 @@
         <v>60</v>
       </c>
       <c r="C64" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>830.6093951598906</v>
       </c>
       <c r="D64" t="s">
@@ -6697,12 +6697,12 @@
         <v>174</v>
       </c>
       <c r="F64" s="32">
+        <f t="shared" si="4"/>
+        <v>7523</v>
+      </c>
+      <c r="G64" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>7523</v>
-      </c>
-      <c r="G64" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>1BBC</v>
+        <v>1D63</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.15">
@@ -6710,7 +6710,7 @@
         <v>61</v>
       </c>
       <c r="C65" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>880.00000000000034</v>
       </c>
       <c r="D65" t="s">
@@ -6720,12 +6720,12 @@
         <v>176</v>
       </c>
       <c r="F65" s="32">
+        <f t="shared" si="4"/>
+        <v>7100</v>
+      </c>
+      <c r="G65" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>7100</v>
-      </c>
-      <c r="G65" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>1A2E</v>
+        <v>1BBC</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.15">
@@ -6733,7 +6733,7 @@
         <v>62</v>
       </c>
       <c r="C66" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>932.3275230361802</v>
       </c>
       <c r="D66" t="s">
@@ -6743,12 +6743,12 @@
         <v>178</v>
       </c>
       <c r="F66" s="32">
+        <f t="shared" si="4"/>
+        <v>6702</v>
+      </c>
+      <c r="G66" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>6702</v>
-      </c>
-      <c r="G66" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>18B5</v>
+        <v>1A2E</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.15">
@@ -6756,7 +6756,7 @@
         <v>63</v>
       </c>
       <c r="C67" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>987.7666025122486</v>
       </c>
       <c r="D67" t="s">
@@ -6766,12 +6766,12 @@
         <v>180</v>
       </c>
       <c r="F67" s="32">
+        <f t="shared" si="4"/>
+        <v>6325</v>
+      </c>
+      <c r="G67" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>6325</v>
-      </c>
-      <c r="G67" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>1752</v>
+        <v>18B5</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.15">
@@ -6779,7 +6779,7 @@
         <v>64</v>
       </c>
       <c r="C68" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1046.5022612023949</v>
       </c>
       <c r="D68" t="s">
@@ -6789,12 +6789,12 @@
         <v>182</v>
       </c>
       <c r="F68" s="32">
+        <f t="shared" si="4"/>
+        <v>5970</v>
+      </c>
+      <c r="G68" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>5970</v>
-      </c>
-      <c r="G68" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>1603</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.15">
@@ -6802,7 +6802,7 @@
         <v>65</v>
       </c>
       <c r="C69" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1108.7305239074888</v>
       </c>
       <c r="D69" t="s">
@@ -6812,12 +6812,12 @@
         <v>184</v>
       </c>
       <c r="F69" s="32">
+        <f t="shared" si="4"/>
+        <v>5635</v>
+      </c>
+      <c r="G69" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>5635</v>
-      </c>
-      <c r="G69" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>14C7</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.15">
@@ -6825,7 +6825,7 @@
         <v>66</v>
       </c>
       <c r="C70" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1174.6590716696307</v>
       </c>
       <c r="D70" t="s">
@@ -6835,12 +6835,12 @@
         <v>186</v>
       </c>
       <c r="F70" s="32">
+        <f t="shared" si="4"/>
+        <v>5319</v>
+      </c>
+      <c r="G70" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>5319</v>
-      </c>
-      <c r="G70" s="4" t="str">
-        <f t="shared" ref="G70:G116" si="5">IF(F70&lt;65536,DEC2HEX(F71,4),"")</f>
-        <v>139C</v>
+        <v>14C7</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.15">
@@ -6848,7 +6848,7 @@
         <v>67</v>
       </c>
       <c r="C71" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1244.5079348883241</v>
       </c>
       <c r="D71" t="s">
@@ -6858,12 +6858,12 @@
         <v>188</v>
       </c>
       <c r="F71" s="32">
+        <f t="shared" si="4"/>
+        <v>5020</v>
+      </c>
+      <c r="G71" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>5020</v>
-      </c>
-      <c r="G71" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>1282</v>
+        <v>139C</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.15">
@@ -6871,7 +6871,7 @@
         <v>68</v>
       </c>
       <c r="C72" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1318.5102276514804</v>
       </c>
       <c r="D72" t="s">
@@ -6881,12 +6881,12 @@
         <v>190</v>
       </c>
       <c r="F72" s="32">
+        <f t="shared" si="4"/>
+        <v>4738</v>
+      </c>
+      <c r="G72" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>4738</v>
-      </c>
-      <c r="G72" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>1178</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.15">
@@ -6894,7 +6894,7 @@
         <v>69</v>
       </c>
       <c r="C73" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1396.9129257320162</v>
       </c>
       <c r="D73" t="s">
@@ -6904,12 +6904,12 @@
         <v>192</v>
       </c>
       <c r="F73" s="32">
+        <f t="shared" si="4"/>
+        <v>4472</v>
+      </c>
+      <c r="G73" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>4472</v>
-      </c>
-      <c r="G73" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>107D</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.15">
@@ -6917,7 +6917,7 @@
         <v>70</v>
       </c>
       <c r="C74" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1479.9776908465383</v>
       </c>
       <c r="D74" t="s">
@@ -6927,12 +6927,12 @@
         <v>194</v>
       </c>
       <c r="F74" s="32">
+        <f t="shared" si="4"/>
+        <v>4221</v>
+      </c>
+      <c r="G74" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>4221</v>
-      </c>
-      <c r="G74" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>0F90</v>
+        <v>107D</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.15">
@@ -6940,7 +6940,7 @@
         <v>71</v>
       </c>
       <c r="C75" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1567.981743926998</v>
       </c>
       <c r="D75" t="s">
@@ -6950,12 +6950,12 @@
         <v>196</v>
       </c>
       <c r="F75" s="32">
+        <f t="shared" si="4"/>
+        <v>3984</v>
+      </c>
+      <c r="G75" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>3984</v>
-      </c>
-      <c r="G75" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>0EB0</v>
+        <v>0F90</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.15">
@@ -6963,7 +6963,7 @@
         <v>72</v>
       </c>
       <c r="C76" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1661.2187903197814</v>
       </c>
       <c r="D76" t="s">
@@ -6973,12 +6973,12 @@
         <v>198</v>
       </c>
       <c r="F76" s="32">
+        <f t="shared" si="4"/>
+        <v>3760</v>
+      </c>
+      <c r="G76" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>3760</v>
-      </c>
-      <c r="G76" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>0DDD</v>
+        <v>0EB0</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.15">
@@ -6986,7 +6986,7 @@
         <v>73</v>
       </c>
       <c r="C77" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1760.0000000000009</v>
       </c>
       <c r="D77" t="s">
@@ -6996,12 +6996,12 @@
         <v>200</v>
       </c>
       <c r="F77" s="32">
+        <f t="shared" si="4"/>
+        <v>3549</v>
+      </c>
+      <c r="G77" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>3549</v>
-      </c>
-      <c r="G77" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>0D16</v>
+        <v>0DDD</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.15">
@@ -7009,7 +7009,7 @@
         <v>74</v>
       </c>
       <c r="C78" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1864.6550460723606</v>
       </c>
       <c r="D78" t="s">
@@ -7019,12 +7019,12 @@
         <v>202</v>
       </c>
       <c r="F78" s="32">
+        <f t="shared" si="4"/>
+        <v>3350</v>
+      </c>
+      <c r="G78" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>3350</v>
-      </c>
-      <c r="G78" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>0C5A</v>
+        <v>0D16</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.15">
@@ -7032,7 +7032,7 @@
         <v>75</v>
       </c>
       <c r="C79" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1975.5332050244976</v>
       </c>
       <c r="D79" t="s">
@@ -7042,12 +7042,12 @@
         <v>204</v>
       </c>
       <c r="F79" s="32">
+        <f t="shared" si="4"/>
+        <v>3162</v>
+      </c>
+      <c r="G79" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>3162</v>
-      </c>
-      <c r="G79" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>0BA8</v>
+        <v>0C5A</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.15">
@@ -7055,7 +7055,7 @@
         <v>76</v>
       </c>
       <c r="C80" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2093.0045224047904</v>
       </c>
       <c r="D80" t="s">
@@ -7065,12 +7065,12 @@
         <v>206</v>
       </c>
       <c r="F80" s="32">
+        <f t="shared" si="4"/>
+        <v>2984</v>
+      </c>
+      <c r="G80" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>2984</v>
-      </c>
-      <c r="G80" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>0B01</v>
+        <v>0BA8</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.15">
@@ -7078,7 +7078,7 @@
         <v>77</v>
       </c>
       <c r="C81" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2217.4610478149784</v>
       </c>
       <c r="D81" t="s">
@@ -7088,12 +7088,12 @@
         <v>208</v>
       </c>
       <c r="F81" s="32">
+        <f t="shared" si="4"/>
+        <v>2817</v>
+      </c>
+      <c r="G81" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>2817</v>
-      </c>
-      <c r="G81" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>0A62</v>
+        <v>0B01</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.15">
@@ -7101,7 +7101,7 @@
         <v>78</v>
       </c>
       <c r="C82" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2349.3181433392624</v>
       </c>
       <c r="D82" t="s">
@@ -7111,12 +7111,12 @@
         <v>210</v>
       </c>
       <c r="F82" s="32">
+        <f t="shared" si="4"/>
+        <v>2658</v>
+      </c>
+      <c r="G82" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>2658</v>
-      </c>
-      <c r="G82" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>09CD</v>
+        <v>0A62</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.15">
@@ -7124,7 +7124,7 @@
         <v>79</v>
       </c>
       <c r="C83" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2489.0158697766497</v>
       </c>
       <c r="D83" t="s">
@@ -7134,12 +7134,12 @@
         <v>212</v>
       </c>
       <c r="F83" s="32">
+        <f t="shared" si="4"/>
+        <v>2509</v>
+      </c>
+      <c r="G83" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>2509</v>
-      </c>
-      <c r="G83" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>0940</v>
+        <v>09CD</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.15">
@@ -7147,7 +7147,7 @@
         <v>80</v>
       </c>
       <c r="C84" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2637.0204553029621</v>
       </c>
       <c r="D84" t="s">
@@ -7157,12 +7157,12 @@
         <v>214</v>
       </c>
       <c r="F84" s="32">
+        <f t="shared" si="4"/>
+        <v>2368</v>
+      </c>
+      <c r="G84" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>2368</v>
-      </c>
-      <c r="G84" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>08BB</v>
+        <v>0940</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.15">
@@ -7170,7 +7170,7 @@
         <v>81</v>
       </c>
       <c r="C85" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2793.8258514640338</v>
       </c>
       <c r="D85" t="s">
@@ -7180,12 +7180,12 @@
         <v>216</v>
       </c>
       <c r="F85" s="32">
+        <f t="shared" si="4"/>
+        <v>2235</v>
+      </c>
+      <c r="G85" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>2235</v>
-      </c>
-      <c r="G85" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>083E</v>
+        <v>08BB</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.15">
@@ -7193,7 +7193,7 @@
         <v>82</v>
       </c>
       <c r="C86" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2959.9553816930784</v>
       </c>
       <c r="D86" t="s">
@@ -7203,12 +7203,12 @@
         <v>218</v>
       </c>
       <c r="F86" s="32">
+        <f t="shared" si="4"/>
+        <v>2110</v>
+      </c>
+      <c r="G86" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>2110</v>
-      </c>
-      <c r="G86" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>07C7</v>
+        <v>083E</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.15">
@@ -7216,7 +7216,7 @@
         <v>83</v>
       </c>
       <c r="C87" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3135.9634878539978</v>
       </c>
       <c r="D87" t="s">
@@ -7226,12 +7226,12 @@
         <v>220</v>
       </c>
       <c r="F87" s="32">
+        <f t="shared" si="4"/>
+        <v>1991</v>
+      </c>
+      <c r="G87" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>1991</v>
-      </c>
-      <c r="G87" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>0757</v>
+        <v>07C7</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.15">
@@ -7239,7 +7239,7 @@
         <v>84</v>
       </c>
       <c r="C88" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3322.4375806395647</v>
       </c>
       <c r="D88" t="s">
@@ -7249,12 +7249,12 @@
         <v>222</v>
       </c>
       <c r="F88" s="32">
+        <f t="shared" si="4"/>
+        <v>1879</v>
+      </c>
+      <c r="G88" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>1879</v>
-      </c>
-      <c r="G88" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>06EE</v>
+        <v>0757</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.15">
@@ -7262,7 +7262,7 @@
         <v>85</v>
       </c>
       <c r="C89" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3520.0000000000041</v>
       </c>
       <c r="D89" t="s">
@@ -7272,12 +7272,12 @@
         <v>224</v>
       </c>
       <c r="F89" s="32">
+        <f t="shared" si="4"/>
+        <v>1774</v>
+      </c>
+      <c r="G89" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>1774</v>
-      </c>
-      <c r="G89" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>068A</v>
+        <v>06EE</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.15">
@@ -7285,7 +7285,7 @@
         <v>86</v>
       </c>
       <c r="C90" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3729.310092144724</v>
       </c>
       <c r="D90" t="s">
@@ -7295,12 +7295,12 @@
         <v>226</v>
       </c>
       <c r="F90" s="32">
+        <f t="shared" si="4"/>
+        <v>1674</v>
+      </c>
+      <c r="G90" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>1674</v>
-      </c>
-      <c r="G90" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>062C</v>
+        <v>068A</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.15">
@@ -7308,7 +7308,7 @@
         <v>87</v>
       </c>
       <c r="C91" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3951.066410048998</v>
       </c>
       <c r="D91" t="s">
@@ -7318,12 +7318,12 @@
         <v>228</v>
       </c>
       <c r="F91" s="32">
+        <f t="shared" si="4"/>
+        <v>1580</v>
+      </c>
+      <c r="G91" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>1580</v>
-      </c>
-      <c r="G91" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>05D3</v>
+        <v>062C</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.15">
@@ -7331,7 +7331,7 @@
         <v>88</v>
       </c>
       <c r="C92" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4186.0090448095834</v>
       </c>
       <c r="D92" t="s">
@@ -7341,12 +7341,12 @@
         <v>230</v>
       </c>
       <c r="F92" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1491</v>
       </c>
       <c r="G92" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>057F</v>
+        <f t="shared" ref="G92:G116" si="6">IF(F92&lt;65536,DEC2HEX(F92,4),"")</f>
+        <v>05D3</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.15">
@@ -7354,7 +7354,7 @@
         <v>89</v>
       </c>
       <c r="C93" s="28">
-        <f t="shared" ref="C93:C110" si="6">C92*2^(1/12)</f>
+        <f t="shared" ref="C93:C110" si="7">C92*2^(1/12)</f>
         <v>4434.9220956299596</v>
       </c>
       <c r="D93" t="s">
@@ -7364,12 +7364,12 @@
         <v>237</v>
       </c>
       <c r="F93" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1407</v>
       </c>
       <c r="G93" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>0530</v>
+        <f t="shared" si="6"/>
+        <v>057F</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.15">
@@ -7377,7 +7377,7 @@
         <v>90</v>
       </c>
       <c r="C94" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4698.6362866785275</v>
       </c>
       <c r="D94" t="s">
@@ -7387,12 +7387,12 @@
         <v>239</v>
       </c>
       <c r="F94" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1328</v>
       </c>
       <c r="G94" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>04E6</v>
+        <f t="shared" si="6"/>
+        <v>0530</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.15">
@@ -7400,7 +7400,7 @@
         <v>91</v>
       </c>
       <c r="C95" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4978.031739553302</v>
       </c>
       <c r="D95" t="s">
@@ -7410,12 +7410,12 @@
         <v>241</v>
       </c>
       <c r="F95" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1254</v>
       </c>
       <c r="G95" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>049F</v>
+        <f t="shared" si="6"/>
+        <v>04E6</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.15">
@@ -7423,7 +7423,7 @@
         <v>92</v>
       </c>
       <c r="C96" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5274.0409106059269</v>
       </c>
       <c r="D96" t="s">
@@ -7433,12 +7433,12 @@
         <v>243</v>
       </c>
       <c r="F96" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1183</v>
       </c>
       <c r="G96" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>045D</v>
+        <f t="shared" si="6"/>
+        <v>049F</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.15">
@@ -7446,7 +7446,7 @@
         <v>93</v>
       </c>
       <c r="C97" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5587.6517029280712</v>
       </c>
       <c r="D97" t="s">
@@ -7456,12 +7456,12 @@
         <v>245</v>
       </c>
       <c r="F97" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1117</v>
       </c>
       <c r="G97" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>041E</v>
+        <f t="shared" si="6"/>
+        <v>045D</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.15">
@@ -7469,7 +7469,7 @@
         <v>94</v>
       </c>
       <c r="C98" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5919.9107633861604</v>
       </c>
       <c r="D98" t="s">
@@ -7479,12 +7479,12 @@
         <v>247</v>
       </c>
       <c r="F98" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1054</v>
       </c>
       <c r="G98" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>03E3</v>
+        <f t="shared" si="6"/>
+        <v>041E</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.15">
@@ -7492,7 +7492,7 @@
         <v>95</v>
       </c>
       <c r="C99" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6271.9269757079992</v>
       </c>
       <c r="D99" t="s">
@@ -7502,12 +7502,12 @@
         <v>249</v>
       </c>
       <c r="F99" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>995</v>
       </c>
       <c r="G99" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>03AB</v>
+        <f t="shared" si="6"/>
+        <v>03E3</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.15">
@@ -7515,7 +7515,7 @@
         <v>96</v>
       </c>
       <c r="C100" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6644.8751612791339</v>
       </c>
       <c r="D100" t="s">
@@ -7525,12 +7525,12 @@
         <v>251</v>
       </c>
       <c r="F100" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>939</v>
       </c>
       <c r="G100" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>0376</v>
+        <f t="shared" si="6"/>
+        <v>03AB</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.15">
@@ -7538,7 +7538,7 @@
         <v>97</v>
       </c>
       <c r="C101" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7040.0000000000127</v>
       </c>
       <c r="D101" t="s">
@@ -7548,12 +7548,12 @@
         <v>253</v>
       </c>
       <c r="F101" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>886</v>
       </c>
       <c r="G101" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>0344</v>
+        <f t="shared" si="6"/>
+        <v>0376</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.15">
@@ -7561,7 +7561,7 @@
         <v>98</v>
       </c>
       <c r="C102" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7458.6201842894525</v>
       </c>
       <c r="D102" t="s">
@@ -7571,12 +7571,12 @@
         <v>255</v>
       </c>
       <c r="F102" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>836</v>
       </c>
       <c r="G102" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>0315</v>
+        <f t="shared" si="6"/>
+        <v>0344</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.15">
@@ -7584,7 +7584,7 @@
         <v>99</v>
       </c>
       <c r="C103" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7902.1328200980006</v>
       </c>
       <c r="D103" t="s">
@@ -7594,12 +7594,12 @@
         <v>257</v>
       </c>
       <c r="F103" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>789</v>
       </c>
       <c r="G103" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>02E9</v>
+        <f t="shared" si="6"/>
+        <v>0315</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.15">
@@ -7607,7 +7607,7 @@
         <v>100</v>
       </c>
       <c r="C104" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8372.0180896191723</v>
       </c>
       <c r="D104" t="s">
@@ -7617,12 +7617,12 @@
         <v>281</v>
       </c>
       <c r="F104" s="32">
-        <f t="shared" ref="F104:F116" si="7">FLOOR($F$2/$F$3/C104/2+0.5,1)-2</f>
+        <f t="shared" ref="F104:F116" si="8">FLOOR($F$2/$F$3/C104/2+0.5,1)-2</f>
         <v>745</v>
       </c>
       <c r="G104" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>02BF</v>
+        <f t="shared" si="6"/>
+        <v>02E9</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.15">
@@ -7630,7 +7630,7 @@
         <v>101</v>
       </c>
       <c r="C105" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8869.8441912599246</v>
       </c>
       <c r="D105" t="s">
@@ -7640,12 +7640,12 @@
         <v>259</v>
       </c>
       <c r="F105" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>703</v>
       </c>
       <c r="G105" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>0297</v>
+        <f t="shared" si="6"/>
+        <v>02BF</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.15">
@@ -7653,7 +7653,7 @@
         <v>102</v>
       </c>
       <c r="C106" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9397.2725733570605</v>
       </c>
       <c r="D106" t="s">
@@ -7663,12 +7663,12 @@
         <v>261</v>
       </c>
       <c r="F106" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>663</v>
       </c>
       <c r="G106" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>0272</v>
+        <f t="shared" si="6"/>
+        <v>0297</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.15">
@@ -7676,7 +7676,7 @@
         <v>103</v>
       </c>
       <c r="C107" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9956.0634791066095</v>
       </c>
       <c r="D107" t="s">
@@ -7686,12 +7686,12 @@
         <v>263</v>
       </c>
       <c r="F107" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>626</v>
       </c>
       <c r="G107" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>024F</v>
+        <f t="shared" si="6"/>
+        <v>0272</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.15">
@@ -7699,7 +7699,7 @@
         <v>104</v>
       </c>
       <c r="C108" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10548.081821211859</v>
       </c>
       <c r="D108" t="s">
@@ -7709,12 +7709,12 @@
         <v>265</v>
       </c>
       <c r="F108" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>591</v>
       </c>
       <c r="G108" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>022D</v>
+        <f t="shared" si="6"/>
+        <v>024F</v>
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.15">
@@ -7722,7 +7722,7 @@
         <v>105</v>
       </c>
       <c r="C109" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11175.303405856148</v>
       </c>
       <c r="D109" t="s">
@@ -7732,12 +7732,12 @@
         <v>267</v>
       </c>
       <c r="F109" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>557</v>
       </c>
       <c r="G109" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>020E</v>
+        <f t="shared" si="6"/>
+        <v>022D</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.15">
@@ -7745,7 +7745,7 @@
         <v>106</v>
       </c>
       <c r="C110" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11839.821526772326</v>
       </c>
       <c r="D110" t="s">
@@ -7755,12 +7755,12 @@
         <v>269</v>
       </c>
       <c r="F110" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>526</v>
       </c>
       <c r="G110" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>01F0</v>
+        <f t="shared" si="6"/>
+        <v>020E</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.15">
@@ -7768,7 +7768,7 @@
         <v>107</v>
       </c>
       <c r="C111" s="28">
-        <f t="shared" ref="C111:C116" si="8">C110*2^(1/12)</f>
+        <f t="shared" ref="C111:C116" si="9">C110*2^(1/12)</f>
         <v>12543.853951416006</v>
       </c>
       <c r="D111" t="s">
@@ -7778,12 +7778,12 @@
         <v>271</v>
       </c>
       <c r="F111" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>496</v>
       </c>
       <c r="G111" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>01D4</v>
+        <f t="shared" si="6"/>
+        <v>01F0</v>
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.15">
@@ -7791,7 +7791,7 @@
         <v>108</v>
       </c>
       <c r="C112" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13289.750322558275</v>
       </c>
       <c r="D112" t="s">
@@ -7801,12 +7801,12 @@
         <v>273</v>
       </c>
       <c r="F112" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>468</v>
       </c>
       <c r="G112" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>01BA</v>
+        <f t="shared" si="6"/>
+        <v>01D4</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.15">
@@ -7814,7 +7814,7 @@
         <v>109</v>
       </c>
       <c r="C113" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14080.000000000033</v>
       </c>
       <c r="D113" t="s">
@@ -7824,12 +7824,12 @@
         <v>275</v>
       </c>
       <c r="F113" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>442</v>
       </c>
       <c r="G113" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>01A1</v>
+        <f t="shared" si="6"/>
+        <v>01BA</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.15">
@@ -7837,7 +7837,7 @@
         <v>110</v>
       </c>
       <c r="C114" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14917.240368578912</v>
       </c>
       <c r="D114" t="s">
@@ -7847,12 +7847,12 @@
         <v>277</v>
       </c>
       <c r="F114" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>417</v>
       </c>
       <c r="G114" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>0189</v>
+        <f t="shared" si="6"/>
+        <v>01A1</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.15">
@@ -7860,7 +7860,7 @@
         <v>111</v>
       </c>
       <c r="C115" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15804.265640196008</v>
       </c>
       <c r="D115" t="s">
@@ -7870,12 +7870,12 @@
         <v>279</v>
       </c>
       <c r="F115" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>393</v>
       </c>
       <c r="G115" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>0173</v>
+        <f t="shared" si="6"/>
+        <v>0189</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.15">
@@ -7883,7 +7883,7 @@
         <v>112</v>
       </c>
       <c r="C116" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16744.036179238352</v>
       </c>
       <c r="D116" t="s">
@@ -7893,12 +7893,12 @@
         <v>283</v>
       </c>
       <c r="F116" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>371</v>
       </c>
       <c r="G116" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>0000</v>
+        <f t="shared" si="6"/>
+        <v>0173</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.15">
@@ -7917,6 +7917,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
